--- a/data/counter/export_data_domain_7992.xlsx
+++ b/data/counter/export_data_domain_7992.xlsx
@@ -69409,295 +69409,4515 @@
       <c r="A6299" s="6" t="n">
         <v>44863.5625</v>
       </c>
-      <c r="B6299" s="1"/>
-      <c r="C6299" s="1"/>
+      <c r="B6299" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6299" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6300">
       <c r="A6300" s="6" t="n">
         <v>44863.572916666664</v>
       </c>
-      <c r="B6300" s="1"/>
-      <c r="C6300" s="1"/>
+      <c r="B6300" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C6300" s="1" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="6301">
       <c r="A6301" s="6" t="n">
         <v>44863.583333333336</v>
       </c>
-      <c r="B6301" s="1"/>
-      <c r="C6301" s="1"/>
+      <c r="B6301" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6301" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="6302">
       <c r="A6302" s="6" t="n">
         <v>44863.59375</v>
       </c>
-      <c r="B6302" s="1"/>
-      <c r="C6302" s="1"/>
+      <c r="B6302" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C6302" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6303">
       <c r="A6303" s="6" t="n">
         <v>44863.604166666664</v>
       </c>
-      <c r="B6303" s="1"/>
-      <c r="C6303" s="1"/>
+      <c r="B6303" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C6303" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="6304">
       <c r="A6304" s="6" t="n">
         <v>44863.614583333336</v>
       </c>
-      <c r="B6304" s="1"/>
-      <c r="C6304" s="1"/>
+      <c r="B6304" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6304" s="1" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="6305">
       <c r="A6305" s="6" t="n">
         <v>44863.625</v>
       </c>
-      <c r="B6305" s="1"/>
-      <c r="C6305" s="1"/>
+      <c r="B6305" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6305" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6306">
       <c r="A6306" s="6" t="n">
         <v>44863.635416666664</v>
       </c>
-      <c r="B6306" s="1"/>
-      <c r="C6306" s="1"/>
+      <c r="B6306" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6306" s="1" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="6307">
       <c r="A6307" s="6" t="n">
         <v>44863.645833333336</v>
       </c>
-      <c r="B6307" s="1"/>
-      <c r="C6307" s="1"/>
+      <c r="B6307" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6307" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="6308">
       <c r="A6308" s="6" t="n">
         <v>44863.65625</v>
       </c>
-      <c r="B6308" s="1"/>
-      <c r="C6308" s="1"/>
+      <c r="B6308" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6308" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6309">
       <c r="A6309" s="6" t="n">
         <v>44863.666666666664</v>
       </c>
-      <c r="B6309" s="1"/>
-      <c r="C6309" s="1"/>
+      <c r="B6309" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6309" s="1" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="6310">
       <c r="A6310" s="6" t="n">
         <v>44863.677083333336</v>
       </c>
-      <c r="B6310" s="1"/>
-      <c r="C6310" s="1"/>
+      <c r="B6310" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C6310" s="1" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="6311">
       <c r="A6311" s="6" t="n">
         <v>44863.6875</v>
       </c>
-      <c r="B6311" s="1"/>
-      <c r="C6311" s="1"/>
+      <c r="B6311" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6311" s="1" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="6312">
       <c r="A6312" s="6" t="n">
         <v>44863.697916666664</v>
       </c>
-      <c r="B6312" s="1"/>
-      <c r="C6312" s="1"/>
+      <c r="B6312" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6312" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="6313">
       <c r="A6313" s="6" t="n">
         <v>44863.708333333336</v>
       </c>
-      <c r="B6313" s="1"/>
-      <c r="C6313" s="1"/>
+      <c r="B6313" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C6313" s="1" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="6314">
       <c r="A6314" s="6" t="n">
         <v>44863.71875</v>
       </c>
-      <c r="B6314" s="1"/>
-      <c r="C6314" s="1"/>
+      <c r="B6314" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6314" s="1" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="6315">
       <c r="A6315" s="6" t="n">
         <v>44863.729166666664</v>
       </c>
-      <c r="B6315" s="1"/>
-      <c r="C6315" s="1"/>
+      <c r="B6315" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C6315" s="1" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="6316">
       <c r="A6316" s="6" t="n">
         <v>44863.739583333336</v>
       </c>
-      <c r="B6316" s="1"/>
-      <c r="C6316" s="1"/>
+      <c r="B6316" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6316" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="6317">
       <c r="A6317" s="6" t="n">
         <v>44863.75</v>
       </c>
-      <c r="B6317" s="1"/>
-      <c r="C6317" s="1"/>
+      <c r="B6317" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6317" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6318">
       <c r="A6318" s="6" t="n">
         <v>44863.760416666664</v>
       </c>
-      <c r="B6318" s="1"/>
-      <c r="C6318" s="1"/>
+      <c r="B6318" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C6318" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6319">
       <c r="A6319" s="6" t="n">
         <v>44863.770833333336</v>
       </c>
-      <c r="B6319" s="1"/>
-      <c r="C6319" s="1"/>
+      <c r="B6319" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6319" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="6320">
       <c r="A6320" s="6" t="n">
         <v>44863.78125</v>
       </c>
-      <c r="B6320" s="1"/>
-      <c r="C6320" s="1"/>
+      <c r="B6320" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C6320" s="1" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="6321">
       <c r="A6321" s="6" t="n">
         <v>44863.791666666664</v>
       </c>
-      <c r="B6321" s="1"/>
-      <c r="C6321" s="1"/>
+      <c r="B6321" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C6321" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6322">
       <c r="A6322" s="6" t="n">
         <v>44863.802083333336</v>
       </c>
-      <c r="B6322" s="1"/>
-      <c r="C6322" s="1"/>
+      <c r="B6322" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6322" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6323">
       <c r="A6323" s="6" t="n">
         <v>44863.8125</v>
       </c>
-      <c r="B6323" s="1"/>
-      <c r="C6323" s="1"/>
+      <c r="B6323" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C6323" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6324">
       <c r="A6324" s="6" t="n">
         <v>44863.822916666664</v>
       </c>
-      <c r="B6324" s="1"/>
-      <c r="C6324" s="1"/>
+      <c r="B6324" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6324" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6325">
       <c r="A6325" s="6" t="n">
         <v>44863.833333333336</v>
       </c>
-      <c r="B6325" s="1"/>
-      <c r="C6325" s="1"/>
+      <c r="B6325" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6325" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6326">
       <c r="A6326" s="6" t="n">
         <v>44863.84375</v>
       </c>
-      <c r="B6326" s="1"/>
-      <c r="C6326" s="1"/>
+      <c r="B6326" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6326" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6327">
       <c r="A6327" s="6" t="n">
         <v>44863.854166666664</v>
       </c>
-      <c r="B6327" s="1"/>
-      <c r="C6327" s="1"/>
+      <c r="B6327" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6327" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6328">
       <c r="A6328" s="6" t="n">
         <v>44863.864583333336</v>
       </c>
-      <c r="B6328" s="1"/>
-      <c r="C6328" s="1"/>
+      <c r="B6328" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6328" s="1" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="6329">
       <c r="A6329" s="6" t="n">
         <v>44863.875</v>
       </c>
-      <c r="B6329" s="1"/>
-      <c r="C6329" s="1"/>
+      <c r="B6329" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6329" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6330">
       <c r="A6330" s="6" t="n">
         <v>44863.885416666664</v>
       </c>
-      <c r="B6330" s="1"/>
-      <c r="C6330" s="1"/>
+      <c r="B6330" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6330" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="6331">
       <c r="A6331" s="6" t="n">
         <v>44863.895833333336</v>
       </c>
-      <c r="B6331" s="1"/>
-      <c r="C6331" s="1"/>
+      <c r="B6331" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6331" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6332">
       <c r="A6332" s="6" t="n">
         <v>44863.90625</v>
       </c>
-      <c r="B6332" s="1"/>
-      <c r="C6332" s="1"/>
+      <c r="B6332" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6332" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6333">
       <c r="A6333" s="6" t="n">
         <v>44863.916666666664</v>
       </c>
-      <c r="B6333" s="1"/>
-      <c r="C6333" s="1"/>
+      <c r="B6333" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6333" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6334">
       <c r="A6334" s="6" t="n">
         <v>44863.927083333336</v>
       </c>
-      <c r="B6334" s="1"/>
-      <c r="C6334" s="1"/>
+      <c r="B6334" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6334" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6335">
       <c r="A6335" s="6" t="n">
         <v>44863.9375</v>
       </c>
-      <c r="B6335" s="1"/>
-      <c r="C6335" s="1"/>
+      <c r="B6335" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6335" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6336">
       <c r="A6336" s="6" t="n">
         <v>44863.947916666664</v>
       </c>
-      <c r="B6336" s="1"/>
-      <c r="C6336" s="1"/>
+      <c r="B6336" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C6336" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6337">
       <c r="A6337" s="6" t="n">
         <v>44863.958333333336</v>
       </c>
-      <c r="B6337" s="1"/>
-      <c r="C6337" s="1"/>
+      <c r="B6337" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6337" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6338">
       <c r="A6338" s="6" t="n">
         <v>44863.96875</v>
       </c>
-      <c r="B6338" s="1"/>
-      <c r="C6338" s="1"/>
+      <c r="B6338" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C6338" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6339">
       <c r="A6339" s="6" t="n">
         <v>44863.979166666664</v>
       </c>
-      <c r="B6339" s="1"/>
-      <c r="C6339" s="1"/>
+      <c r="B6339" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6339" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6340">
       <c r="A6340" s="6" t="n">
         <v>44863.989583333336</v>
       </c>
-      <c r="B6340" s="1"/>
-      <c r="C6340" s="1"/>
+      <c r="B6340" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C6340" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6341">
+      <c r="A6341" s="6" t="n">
+        <v>44864.0</v>
+      </c>
+      <c r="B6341" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C6341" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6342">
+      <c r="A6342" s="6" t="n">
+        <v>44864.010416666664</v>
+      </c>
+      <c r="B6342" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6342" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6343">
+      <c r="A6343" s="6" t="n">
+        <v>44864.020833333336</v>
+      </c>
+      <c r="B6343" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6343" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6344">
+      <c r="A6344" s="6" t="n">
+        <v>44864.03125</v>
+      </c>
+      <c r="B6344" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6344" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6345">
+      <c r="A6345" s="6" t="n">
+        <v>44864.041666666664</v>
+      </c>
+      <c r="B6345" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6345" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6346">
+      <c r="A6346" s="6" t="n">
+        <v>44864.052083333336</v>
+      </c>
+      <c r="B6346" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6346" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6347">
+      <c r="A6347" s="6" t="n">
+        <v>44864.0625</v>
+      </c>
+      <c r="B6347" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6347" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6348">
+      <c r="A6348" s="6" t="n">
+        <v>44864.072916666664</v>
+      </c>
+      <c r="B6348" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6348" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6349">
+      <c r="A6349" s="6" t="n">
+        <v>44864.083333333336</v>
+      </c>
+      <c r="B6349" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6349" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6350">
+      <c r="A6350" s="6" t="n">
+        <v>44864.09375</v>
+      </c>
+      <c r="B6350" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6350" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6351">
+      <c r="A6351" s="6" t="n">
+        <v>44864.104166666664</v>
+      </c>
+      <c r="B6351" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6351" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6352">
+      <c r="A6352" s="6" t="n">
+        <v>44864.114583333336</v>
+      </c>
+      <c r="B6352" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6352" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6353">
+      <c r="A6353" s="6" t="n">
+        <v>44864.125</v>
+      </c>
+      <c r="B6353" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6353" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6354">
+      <c r="A6354" s="6" t="n">
+        <v>44864.135416666664</v>
+      </c>
+      <c r="B6354" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6354" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6355">
+      <c r="A6355" s="6" t="n">
+        <v>44864.145833333336</v>
+      </c>
+      <c r="B6355" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6355" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6356">
+      <c r="A6356" s="6" t="n">
+        <v>44864.15625</v>
+      </c>
+      <c r="B6356" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6356" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6357">
+      <c r="A6357" s="6" t="n">
+        <v>44864.166666666664</v>
+      </c>
+      <c r="B6357" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6357" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6358">
+      <c r="A6358" s="6" t="n">
+        <v>44864.177083333336</v>
+      </c>
+      <c r="B6358" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6358" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6359">
+      <c r="A6359" s="6" t="n">
+        <v>44864.1875</v>
+      </c>
+      <c r="B6359" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6359" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6360">
+      <c r="A6360" s="6" t="n">
+        <v>44864.197916666664</v>
+      </c>
+      <c r="B6360" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6360" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6361">
+      <c r="A6361" s="6" t="n">
+        <v>44864.208333333336</v>
+      </c>
+      <c r="B6361" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6361" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6362">
+      <c r="A6362" s="6" t="n">
+        <v>44864.21875</v>
+      </c>
+      <c r="B6362" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6362" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6363">
+      <c r="A6363" s="6" t="n">
+        <v>44864.229166666664</v>
+      </c>
+      <c r="B6363" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6363" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6364">
+      <c r="A6364" s="6" t="n">
+        <v>44864.239583333336</v>
+      </c>
+      <c r="B6364" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6364" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6365">
+      <c r="A6365" s="6" t="n">
+        <v>44864.25</v>
+      </c>
+      <c r="B6365" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6365" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6366">
+      <c r="A6366" s="6" t="n">
+        <v>44864.260416666664</v>
+      </c>
+      <c r="B6366" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6366" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6367">
+      <c r="A6367" s="6" t="n">
+        <v>44864.270833333336</v>
+      </c>
+      <c r="B6367" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6367" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6368">
+      <c r="A6368" s="6" t="n">
+        <v>44864.28125</v>
+      </c>
+      <c r="B6368" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6368" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6369">
+      <c r="A6369" s="6" t="n">
+        <v>44864.291666666664</v>
+      </c>
+      <c r="B6369" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6369" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6370">
+      <c r="A6370" s="6" t="n">
+        <v>44864.302083333336</v>
+      </c>
+      <c r="B6370" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6370" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6371">
+      <c r="A6371" s="6" t="n">
+        <v>44864.3125</v>
+      </c>
+      <c r="B6371" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6371" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6372">
+      <c r="A6372" s="6" t="n">
+        <v>44864.322916666664</v>
+      </c>
+      <c r="B6372" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6372" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6373">
+      <c r="A6373" s="6" t="n">
+        <v>44864.333333333336</v>
+      </c>
+      <c r="B6373" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6373" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6374">
+      <c r="A6374" s="6" t="n">
+        <v>44864.34375</v>
+      </c>
+      <c r="B6374" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6374" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6375">
+      <c r="A6375" s="6" t="n">
+        <v>44864.354166666664</v>
+      </c>
+      <c r="B6375" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6375" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6376">
+      <c r="A6376" s="6" t="n">
+        <v>44864.364583333336</v>
+      </c>
+      <c r="B6376" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6376" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6377">
+      <c r="A6377" s="6" t="n">
+        <v>44864.375</v>
+      </c>
+      <c r="B6377" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6377" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6378">
+      <c r="A6378" s="6" t="n">
+        <v>44864.385416666664</v>
+      </c>
+      <c r="B6378" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6378" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6379">
+      <c r="A6379" s="6" t="n">
+        <v>44864.395833333336</v>
+      </c>
+      <c r="B6379" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6379" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6380">
+      <c r="A6380" s="6" t="n">
+        <v>44864.40625</v>
+      </c>
+      <c r="B6380" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6380" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6381">
+      <c r="A6381" s="6" t="n">
+        <v>44864.416666666664</v>
+      </c>
+      <c r="B6381" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6381" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6382">
+      <c r="A6382" s="6" t="n">
+        <v>44864.427083333336</v>
+      </c>
+      <c r="B6382" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6382" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6383">
+      <c r="A6383" s="6" t="n">
+        <v>44864.4375</v>
+      </c>
+      <c r="B6383" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6383" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6384">
+      <c r="A6384" s="6" t="n">
+        <v>44864.447916666664</v>
+      </c>
+      <c r="B6384" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6384" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6385">
+      <c r="A6385" s="6" t="n">
+        <v>44864.458333333336</v>
+      </c>
+      <c r="B6385" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6385" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6386">
+      <c r="A6386" s="6" t="n">
+        <v>44864.46875</v>
+      </c>
+      <c r="B6386" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6386" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6387">
+      <c r="A6387" s="6" t="n">
+        <v>44864.479166666664</v>
+      </c>
+      <c r="B6387" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6387" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="6388">
+      <c r="A6388" s="6" t="n">
+        <v>44864.489583333336</v>
+      </c>
+      <c r="B6388" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6388" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6389">
+      <c r="A6389" s="6" t="n">
+        <v>44864.5</v>
+      </c>
+      <c r="B6389" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6389" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6390">
+      <c r="A6390" s="6" t="n">
+        <v>44864.510416666664</v>
+      </c>
+      <c r="B6390" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6390" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6391">
+      <c r="A6391" s="6" t="n">
+        <v>44864.520833333336</v>
+      </c>
+      <c r="B6391" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6391" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6392">
+      <c r="A6392" s="6" t="n">
+        <v>44864.53125</v>
+      </c>
+      <c r="B6392" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6392" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6393">
+      <c r="A6393" s="6" t="n">
+        <v>44864.541666666664</v>
+      </c>
+      <c r="B6393" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6393" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6394">
+      <c r="A6394" s="6" t="n">
+        <v>44864.552083333336</v>
+      </c>
+      <c r="B6394" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C6394" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6395">
+      <c r="A6395" s="6" t="n">
+        <v>44864.5625</v>
+      </c>
+      <c r="B6395" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C6395" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="6396">
+      <c r="A6396" s="6" t="n">
+        <v>44864.572916666664</v>
+      </c>
+      <c r="B6396" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6396" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6397">
+      <c r="A6397" s="6" t="n">
+        <v>44864.583333333336</v>
+      </c>
+      <c r="B6397" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6397" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6398">
+      <c r="A6398" s="6" t="n">
+        <v>44864.59375</v>
+      </c>
+      <c r="B6398" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C6398" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="6399">
+      <c r="A6399" s="6" t="n">
+        <v>44864.604166666664</v>
+      </c>
+      <c r="B6399" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C6399" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6400">
+      <c r="A6400" s="6" t="n">
+        <v>44864.614583333336</v>
+      </c>
+      <c r="B6400" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6400" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6401">
+      <c r="A6401" s="6" t="n">
+        <v>44864.625</v>
+      </c>
+      <c r="B6401" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6401" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="6402">
+      <c r="A6402" s="6" t="n">
+        <v>44864.635416666664</v>
+      </c>
+      <c r="B6402" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6402" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6403">
+      <c r="A6403" s="6" t="n">
+        <v>44864.645833333336</v>
+      </c>
+      <c r="B6403" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C6403" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6404">
+      <c r="A6404" s="6" t="n">
+        <v>44864.65625</v>
+      </c>
+      <c r="B6404" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C6404" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6405">
+      <c r="A6405" s="6" t="n">
+        <v>44864.666666666664</v>
+      </c>
+      <c r="B6405" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6405" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6406">
+      <c r="A6406" s="6" t="n">
+        <v>44864.677083333336</v>
+      </c>
+      <c r="B6406" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6406" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6407">
+      <c r="A6407" s="6" t="n">
+        <v>44864.6875</v>
+      </c>
+      <c r="B6407" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C6407" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="6408">
+      <c r="A6408" s="6" t="n">
+        <v>44864.697916666664</v>
+      </c>
+      <c r="B6408" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6408" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6409">
+      <c r="A6409" s="6" t="n">
+        <v>44864.708333333336</v>
+      </c>
+      <c r="B6409" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C6409" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6410">
+      <c r="A6410" s="6" t="n">
+        <v>44864.71875</v>
+      </c>
+      <c r="B6410" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6410" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6411">
+      <c r="A6411" s="6" t="n">
+        <v>44864.729166666664</v>
+      </c>
+      <c r="B6411" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C6411" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6412">
+      <c r="A6412" s="6" t="n">
+        <v>44864.739583333336</v>
+      </c>
+      <c r="B6412" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C6412" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6413">
+      <c r="A6413" s="6" t="n">
+        <v>44864.75</v>
+      </c>
+      <c r="B6413" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C6413" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6414">
+      <c r="A6414" s="6" t="n">
+        <v>44864.760416666664</v>
+      </c>
+      <c r="B6414" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6414" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6415">
+      <c r="A6415" s="6" t="n">
+        <v>44864.770833333336</v>
+      </c>
+      <c r="B6415" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6415" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6416">
+      <c r="A6416" s="6" t="n">
+        <v>44864.78125</v>
+      </c>
+      <c r="B6416" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6416" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6417">
+      <c r="A6417" s="6" t="n">
+        <v>44864.791666666664</v>
+      </c>
+      <c r="B6417" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6417" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6418">
+      <c r="A6418" s="6" t="n">
+        <v>44864.802083333336</v>
+      </c>
+      <c r="B6418" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6418" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6419">
+      <c r="A6419" s="6" t="n">
+        <v>44864.8125</v>
+      </c>
+      <c r="B6419" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6419" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6420">
+      <c r="A6420" s="6" t="n">
+        <v>44864.822916666664</v>
+      </c>
+      <c r="B6420" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6420" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6421">
+      <c r="A6421" s="6" t="n">
+        <v>44864.833333333336</v>
+      </c>
+      <c r="B6421" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6421" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6422">
+      <c r="A6422" s="6" t="n">
+        <v>44864.84375</v>
+      </c>
+      <c r="B6422" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6422" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6423">
+      <c r="A6423" s="6" t="n">
+        <v>44864.854166666664</v>
+      </c>
+      <c r="B6423" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6423" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6424">
+      <c r="A6424" s="6" t="n">
+        <v>44864.864583333336</v>
+      </c>
+      <c r="B6424" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6424" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6425">
+      <c r="A6425" s="6" t="n">
+        <v>44864.875</v>
+      </c>
+      <c r="B6425" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6425" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6426">
+      <c r="A6426" s="6" t="n">
+        <v>44864.885416666664</v>
+      </c>
+      <c r="B6426" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6426" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6427">
+      <c r="A6427" s="6" t="n">
+        <v>44864.895833333336</v>
+      </c>
+      <c r="B6427" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6427" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6428">
+      <c r="A6428" s="6" t="n">
+        <v>44864.90625</v>
+      </c>
+      <c r="B6428" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6428" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6429">
+      <c r="A6429" s="6" t="n">
+        <v>44864.916666666664</v>
+      </c>
+      <c r="B6429" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6429" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6430">
+      <c r="A6430" s="6" t="n">
+        <v>44864.927083333336</v>
+      </c>
+      <c r="B6430" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6430" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6431">
+      <c r="A6431" s="6" t="n">
+        <v>44864.9375</v>
+      </c>
+      <c r="B6431" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6431" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6432">
+      <c r="A6432" s="6" t="n">
+        <v>44864.947916666664</v>
+      </c>
+      <c r="B6432" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6432" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6433">
+      <c r="A6433" s="6" t="n">
+        <v>44864.958333333336</v>
+      </c>
+      <c r="B6433" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6433" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6434">
+      <c r="A6434" s="6" t="n">
+        <v>44864.96875</v>
+      </c>
+      <c r="B6434" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6434" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6435">
+      <c r="A6435" s="6" t="n">
+        <v>44864.979166666664</v>
+      </c>
+      <c r="B6435" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6435" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6436">
+      <c r="A6436" s="6" t="n">
+        <v>44864.989583333336</v>
+      </c>
+      <c r="B6436" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6436" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6437">
+      <c r="A6437" s="6" t="n">
+        <v>44865.0</v>
+      </c>
+      <c r="B6437" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6437" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6438">
+      <c r="A6438" s="6" t="n">
+        <v>44865.010416666664</v>
+      </c>
+      <c r="B6438" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6438" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6439">
+      <c r="A6439" s="6" t="n">
+        <v>44865.020833333336</v>
+      </c>
+      <c r="B6439" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6439" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6440">
+      <c r="A6440" s="6" t="n">
+        <v>44865.03125</v>
+      </c>
+      <c r="B6440" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6440" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6441">
+      <c r="A6441" s="6" t="n">
+        <v>44865.041666666664</v>
+      </c>
+      <c r="B6441" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6441" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6442">
+      <c r="A6442" s="6" t="n">
+        <v>44865.052083333336</v>
+      </c>
+      <c r="B6442" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6442" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6443">
+      <c r="A6443" s="6" t="n">
+        <v>44865.0625</v>
+      </c>
+      <c r="B6443" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6443" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6444">
+      <c r="A6444" s="6" t="n">
+        <v>44865.072916666664</v>
+      </c>
+      <c r="B6444" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6444" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6445">
+      <c r="A6445" s="6" t="n">
+        <v>44865.083333333336</v>
+      </c>
+      <c r="B6445" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6445" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6446">
+      <c r="A6446" s="6" t="n">
+        <v>44865.09375</v>
+      </c>
+      <c r="B6446" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6446" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6447">
+      <c r="A6447" s="6" t="n">
+        <v>44865.104166666664</v>
+      </c>
+      <c r="B6447" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6447" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6448">
+      <c r="A6448" s="6" t="n">
+        <v>44865.114583333336</v>
+      </c>
+      <c r="B6448" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6448" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6449">
+      <c r="A6449" s="6" t="n">
+        <v>44865.125</v>
+      </c>
+      <c r="B6449" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6449" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6450">
+      <c r="A6450" s="6" t="n">
+        <v>44865.135416666664</v>
+      </c>
+      <c r="B6450" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6450" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6451">
+      <c r="A6451" s="6" t="n">
+        <v>44865.145833333336</v>
+      </c>
+      <c r="B6451" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6451" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6452">
+      <c r="A6452" s="6" t="n">
+        <v>44865.15625</v>
+      </c>
+      <c r="B6452" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6452" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6453">
+      <c r="A6453" s="6" t="n">
+        <v>44865.166666666664</v>
+      </c>
+      <c r="B6453" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6453" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6454">
+      <c r="A6454" s="6" t="n">
+        <v>44865.177083333336</v>
+      </c>
+      <c r="B6454" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6454" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6455">
+      <c r="A6455" s="6" t="n">
+        <v>44865.1875</v>
+      </c>
+      <c r="B6455" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6455" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6456">
+      <c r="A6456" s="6" t="n">
+        <v>44865.197916666664</v>
+      </c>
+      <c r="B6456" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6456" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6457">
+      <c r="A6457" s="6" t="n">
+        <v>44865.208333333336</v>
+      </c>
+      <c r="B6457" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6457" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6458">
+      <c r="A6458" s="6" t="n">
+        <v>44865.21875</v>
+      </c>
+      <c r="B6458" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6458" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6459">
+      <c r="A6459" s="6" t="n">
+        <v>44865.229166666664</v>
+      </c>
+      <c r="B6459" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6459" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6460">
+      <c r="A6460" s="6" t="n">
+        <v>44865.239583333336</v>
+      </c>
+      <c r="B6460" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6460" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6461">
+      <c r="A6461" s="6" t="n">
+        <v>44865.25</v>
+      </c>
+      <c r="B6461" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6461" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6462">
+      <c r="A6462" s="6" t="n">
+        <v>44865.260416666664</v>
+      </c>
+      <c r="B6462" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6462" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6463">
+      <c r="A6463" s="6" t="n">
+        <v>44865.270833333336</v>
+      </c>
+      <c r="B6463" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6463" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6464">
+      <c r="A6464" s="6" t="n">
+        <v>44865.28125</v>
+      </c>
+      <c r="B6464" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6464" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6465">
+      <c r="A6465" s="6" t="n">
+        <v>44865.291666666664</v>
+      </c>
+      <c r="B6465" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6465" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6466">
+      <c r="A6466" s="6" t="n">
+        <v>44865.302083333336</v>
+      </c>
+      <c r="B6466" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6466" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6467">
+      <c r="A6467" s="6" t="n">
+        <v>44865.3125</v>
+      </c>
+      <c r="B6467" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6467" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6468">
+      <c r="A6468" s="6" t="n">
+        <v>44865.322916666664</v>
+      </c>
+      <c r="B6468" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C6468" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6469">
+      <c r="A6469" s="6" t="n">
+        <v>44865.333333333336</v>
+      </c>
+      <c r="B6469" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6469" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6470">
+      <c r="A6470" s="6" t="n">
+        <v>44865.34375</v>
+      </c>
+      <c r="B6470" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6470" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="6471">
+      <c r="A6471" s="6" t="n">
+        <v>44865.354166666664</v>
+      </c>
+      <c r="B6471" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6471" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6472">
+      <c r="A6472" s="6" t="n">
+        <v>44865.364583333336</v>
+      </c>
+      <c r="B6472" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6472" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6473">
+      <c r="A6473" s="6" t="n">
+        <v>44865.375</v>
+      </c>
+      <c r="B6473" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6473" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6474">
+      <c r="A6474" s="6" t="n">
+        <v>44865.385416666664</v>
+      </c>
+      <c r="B6474" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6474" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6475">
+      <c r="A6475" s="6" t="n">
+        <v>44865.395833333336</v>
+      </c>
+      <c r="B6475" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6475" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6476">
+      <c r="A6476" s="6" t="n">
+        <v>44865.40625</v>
+      </c>
+      <c r="B6476" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6476" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6477">
+      <c r="A6477" s="6" t="n">
+        <v>44865.416666666664</v>
+      </c>
+      <c r="B6477" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6477" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6478">
+      <c r="A6478" s="6" t="n">
+        <v>44865.427083333336</v>
+      </c>
+      <c r="B6478" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6478" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6479">
+      <c r="A6479" s="6" t="n">
+        <v>44865.4375</v>
+      </c>
+      <c r="B6479" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6479" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6480">
+      <c r="A6480" s="6" t="n">
+        <v>44865.447916666664</v>
+      </c>
+      <c r="B6480" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6480" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6481">
+      <c r="A6481" s="6" t="n">
+        <v>44865.458333333336</v>
+      </c>
+      <c r="B6481" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6481" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6482">
+      <c r="A6482" s="6" t="n">
+        <v>44865.46875</v>
+      </c>
+      <c r="B6482" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6482" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6483">
+      <c r="A6483" s="6" t="n">
+        <v>44865.479166666664</v>
+      </c>
+      <c r="B6483" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6483" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6484">
+      <c r="A6484" s="6" t="n">
+        <v>44865.489583333336</v>
+      </c>
+      <c r="B6484" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6484" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="6485">
+      <c r="A6485" s="6" t="n">
+        <v>44865.5</v>
+      </c>
+      <c r="B6485" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6485" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6486">
+      <c r="A6486" s="6" t="n">
+        <v>44865.510416666664</v>
+      </c>
+      <c r="B6486" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6486" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6487">
+      <c r="A6487" s="6" t="n">
+        <v>44865.520833333336</v>
+      </c>
+      <c r="B6487" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6487" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6488">
+      <c r="A6488" s="6" t="n">
+        <v>44865.53125</v>
+      </c>
+      <c r="B6488" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6488" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6489">
+      <c r="A6489" s="6" t="n">
+        <v>44865.541666666664</v>
+      </c>
+      <c r="B6489" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6489" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6490">
+      <c r="A6490" s="6" t="n">
+        <v>44865.552083333336</v>
+      </c>
+      <c r="B6490" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6490" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6491">
+      <c r="A6491" s="6" t="n">
+        <v>44865.5625</v>
+      </c>
+      <c r="B6491" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6491" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6492">
+      <c r="A6492" s="6" t="n">
+        <v>44865.572916666664</v>
+      </c>
+      <c r="B6492" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6492" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6493">
+      <c r="A6493" s="6" t="n">
+        <v>44865.583333333336</v>
+      </c>
+      <c r="B6493" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6493" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6494">
+      <c r="A6494" s="6" t="n">
+        <v>44865.59375</v>
+      </c>
+      <c r="B6494" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6494" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6495">
+      <c r="A6495" s="6" t="n">
+        <v>44865.604166666664</v>
+      </c>
+      <c r="B6495" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C6495" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6496">
+      <c r="A6496" s="6" t="n">
+        <v>44865.614583333336</v>
+      </c>
+      <c r="B6496" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6496" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6497">
+      <c r="A6497" s="6" t="n">
+        <v>44865.625</v>
+      </c>
+      <c r="B6497" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6497" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6498">
+      <c r="A6498" s="6" t="n">
+        <v>44865.635416666664</v>
+      </c>
+      <c r="B6498" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6498" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6499">
+      <c r="A6499" s="6" t="n">
+        <v>44865.645833333336</v>
+      </c>
+      <c r="B6499" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6499" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6500">
+      <c r="A6500" s="6" t="n">
+        <v>44865.65625</v>
+      </c>
+      <c r="B6500" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6500" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6501">
+      <c r="A6501" s="6" t="n">
+        <v>44865.666666666664</v>
+      </c>
+      <c r="B6501" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C6501" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6502">
+      <c r="A6502" s="6" t="n">
+        <v>44865.677083333336</v>
+      </c>
+      <c r="B6502" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6502" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6503">
+      <c r="A6503" s="6" t="n">
+        <v>44865.6875</v>
+      </c>
+      <c r="B6503" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6503" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6504">
+      <c r="A6504" s="6" t="n">
+        <v>44865.697916666664</v>
+      </c>
+      <c r="B6504" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6504" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6505">
+      <c r="A6505" s="6" t="n">
+        <v>44865.708333333336</v>
+      </c>
+      <c r="B6505" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6505" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="6506">
+      <c r="A6506" s="6" t="n">
+        <v>44865.71875</v>
+      </c>
+      <c r="B6506" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C6506" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6507">
+      <c r="A6507" s="6" t="n">
+        <v>44865.729166666664</v>
+      </c>
+      <c r="B6507" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6507" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6508">
+      <c r="A6508" s="6" t="n">
+        <v>44865.739583333336</v>
+      </c>
+      <c r="B6508" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6508" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6509">
+      <c r="A6509" s="6" t="n">
+        <v>44865.75</v>
+      </c>
+      <c r="B6509" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6509" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6510">
+      <c r="A6510" s="6" t="n">
+        <v>44865.760416666664</v>
+      </c>
+      <c r="B6510" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6510" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6511">
+      <c r="A6511" s="6" t="n">
+        <v>44865.770833333336</v>
+      </c>
+      <c r="B6511" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6511" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6512">
+      <c r="A6512" s="6" t="n">
+        <v>44865.78125</v>
+      </c>
+      <c r="B6512" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6512" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6513">
+      <c r="A6513" s="6" t="n">
+        <v>44865.791666666664</v>
+      </c>
+      <c r="B6513" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6513" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6514">
+      <c r="A6514" s="6" t="n">
+        <v>44865.802083333336</v>
+      </c>
+      <c r="B6514" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6514" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="6515">
+      <c r="A6515" s="6" t="n">
+        <v>44865.8125</v>
+      </c>
+      <c r="B6515" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6515" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6516">
+      <c r="A6516" s="6" t="n">
+        <v>44865.822916666664</v>
+      </c>
+      <c r="B6516" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6516" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6517">
+      <c r="A6517" s="6" t="n">
+        <v>44865.833333333336</v>
+      </c>
+      <c r="B6517" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6517" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6518">
+      <c r="A6518" s="6" t="n">
+        <v>44865.84375</v>
+      </c>
+      <c r="B6518" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6518" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6519">
+      <c r="A6519" s="6" t="n">
+        <v>44865.854166666664</v>
+      </c>
+      <c r="B6519" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6519" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6520">
+      <c r="A6520" s="6" t="n">
+        <v>44865.864583333336</v>
+      </c>
+      <c r="B6520" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6520" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6521">
+      <c r="A6521" s="6" t="n">
+        <v>44865.875</v>
+      </c>
+      <c r="B6521" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6521" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6522">
+      <c r="A6522" s="6" t="n">
+        <v>44865.885416666664</v>
+      </c>
+      <c r="B6522" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6522" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6523">
+      <c r="A6523" s="6" t="n">
+        <v>44865.895833333336</v>
+      </c>
+      <c r="B6523" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6523" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6524">
+      <c r="A6524" s="6" t="n">
+        <v>44865.90625</v>
+      </c>
+      <c r="B6524" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6524" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6525">
+      <c r="A6525" s="6" t="n">
+        <v>44865.916666666664</v>
+      </c>
+      <c r="B6525" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6525" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6526">
+      <c r="A6526" s="6" t="n">
+        <v>44865.927083333336</v>
+      </c>
+      <c r="B6526" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6526" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6527">
+      <c r="A6527" s="6" t="n">
+        <v>44865.9375</v>
+      </c>
+      <c r="B6527" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6527" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6528">
+      <c r="A6528" s="6" t="n">
+        <v>44865.947916666664</v>
+      </c>
+      <c r="B6528" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6528" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6529">
+      <c r="A6529" s="6" t="n">
+        <v>44865.958333333336</v>
+      </c>
+      <c r="B6529" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6529" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6530">
+      <c r="A6530" s="6" t="n">
+        <v>44865.96875</v>
+      </c>
+      <c r="B6530" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6530" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6531">
+      <c r="A6531" s="6" t="n">
+        <v>44865.979166666664</v>
+      </c>
+      <c r="B6531" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6531" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6532">
+      <c r="A6532" s="6" t="n">
+        <v>44865.989583333336</v>
+      </c>
+      <c r="B6532" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6532" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6533">
+      <c r="A6533" s="6" t="n">
+        <v>44866.0</v>
+      </c>
+      <c r="B6533" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6533" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6534">
+      <c r="A6534" s="6" t="n">
+        <v>44866.010416666664</v>
+      </c>
+      <c r="B6534" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6534" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6535">
+      <c r="A6535" s="6" t="n">
+        <v>44866.020833333336</v>
+      </c>
+      <c r="B6535" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6535" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6536">
+      <c r="A6536" s="6" t="n">
+        <v>44866.03125</v>
+      </c>
+      <c r="B6536" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6536" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6537">
+      <c r="A6537" s="6" t="n">
+        <v>44866.041666666664</v>
+      </c>
+      <c r="B6537" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6537" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6538">
+      <c r="A6538" s="6" t="n">
+        <v>44866.052083333336</v>
+      </c>
+      <c r="B6538" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6538" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6539">
+      <c r="A6539" s="6" t="n">
+        <v>44866.0625</v>
+      </c>
+      <c r="B6539" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6539" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6540">
+      <c r="A6540" s="6" t="n">
+        <v>44866.072916666664</v>
+      </c>
+      <c r="B6540" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6540" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6541">
+      <c r="A6541" s="6" t="n">
+        <v>44866.083333333336</v>
+      </c>
+      <c r="B6541" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6541" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6542">
+      <c r="A6542" s="6" t="n">
+        <v>44866.09375</v>
+      </c>
+      <c r="B6542" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6542" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6543">
+      <c r="A6543" s="6" t="n">
+        <v>44866.104166666664</v>
+      </c>
+      <c r="B6543" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6543" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6544">
+      <c r="A6544" s="6" t="n">
+        <v>44866.114583333336</v>
+      </c>
+      <c r="B6544" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6544" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6545">
+      <c r="A6545" s="6" t="n">
+        <v>44866.125</v>
+      </c>
+      <c r="B6545" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6545" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6546">
+      <c r="A6546" s="6" t="n">
+        <v>44866.135416666664</v>
+      </c>
+      <c r="B6546" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6546" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6547">
+      <c r="A6547" s="6" t="n">
+        <v>44866.145833333336</v>
+      </c>
+      <c r="B6547" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6547" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6548">
+      <c r="A6548" s="6" t="n">
+        <v>44866.15625</v>
+      </c>
+      <c r="B6548" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6548" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6549">
+      <c r="A6549" s="6" t="n">
+        <v>44866.166666666664</v>
+      </c>
+      <c r="B6549" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6549" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6550">
+      <c r="A6550" s="6" t="n">
+        <v>44866.177083333336</v>
+      </c>
+      <c r="B6550" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6550" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6551">
+      <c r="A6551" s="6" t="n">
+        <v>44866.1875</v>
+      </c>
+      <c r="B6551" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6551" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6552">
+      <c r="A6552" s="6" t="n">
+        <v>44866.197916666664</v>
+      </c>
+      <c r="B6552" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6552" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6553">
+      <c r="A6553" s="6" t="n">
+        <v>44866.208333333336</v>
+      </c>
+      <c r="B6553" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6553" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6554">
+      <c r="A6554" s="6" t="n">
+        <v>44866.21875</v>
+      </c>
+      <c r="B6554" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6554" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6555">
+      <c r="A6555" s="6" t="n">
+        <v>44866.229166666664</v>
+      </c>
+      <c r="B6555" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6555" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6556">
+      <c r="A6556" s="6" t="n">
+        <v>44866.239583333336</v>
+      </c>
+      <c r="B6556" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6556" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6557">
+      <c r="A6557" s="6" t="n">
+        <v>44866.25</v>
+      </c>
+      <c r="B6557" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6557" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6558">
+      <c r="A6558" s="6" t="n">
+        <v>44866.260416666664</v>
+      </c>
+      <c r="B6558" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6558" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6559">
+      <c r="A6559" s="6" t="n">
+        <v>44866.270833333336</v>
+      </c>
+      <c r="B6559" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6559" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6560">
+      <c r="A6560" s="6" t="n">
+        <v>44866.28125</v>
+      </c>
+      <c r="B6560" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6560" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6561">
+      <c r="A6561" s="6" t="n">
+        <v>44866.291666666664</v>
+      </c>
+      <c r="B6561" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6561" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6562">
+      <c r="A6562" s="6" t="n">
+        <v>44866.302083333336</v>
+      </c>
+      <c r="B6562" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6562" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6563">
+      <c r="A6563" s="6" t="n">
+        <v>44866.3125</v>
+      </c>
+      <c r="B6563" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6563" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6564">
+      <c r="A6564" s="6" t="n">
+        <v>44866.322916666664</v>
+      </c>
+      <c r="B6564" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6564" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6565">
+      <c r="A6565" s="6" t="n">
+        <v>44866.333333333336</v>
+      </c>
+      <c r="B6565" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6565" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6566">
+      <c r="A6566" s="6" t="n">
+        <v>44866.34375</v>
+      </c>
+      <c r="B6566" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6566" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="6567">
+      <c r="A6567" s="6" t="n">
+        <v>44866.354166666664</v>
+      </c>
+      <c r="B6567" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6567" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6568">
+      <c r="A6568" s="6" t="n">
+        <v>44866.364583333336</v>
+      </c>
+      <c r="B6568" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C6568" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6569">
+      <c r="A6569" s="6" t="n">
+        <v>44866.375</v>
+      </c>
+      <c r="B6569" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6569" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="6570">
+      <c r="A6570" s="6" t="n">
+        <v>44866.385416666664</v>
+      </c>
+      <c r="B6570" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6570" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6571">
+      <c r="A6571" s="6" t="n">
+        <v>44866.395833333336</v>
+      </c>
+      <c r="B6571" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6571" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="6572">
+      <c r="A6572" s="6" t="n">
+        <v>44866.40625</v>
+      </c>
+      <c r="B6572" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6572" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="6573">
+      <c r="A6573" s="6" t="n">
+        <v>44866.416666666664</v>
+      </c>
+      <c r="B6573" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6573" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6574">
+      <c r="A6574" s="6" t="n">
+        <v>44866.427083333336</v>
+      </c>
+      <c r="B6574" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6574" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6575">
+      <c r="A6575" s="6" t="n">
+        <v>44866.4375</v>
+      </c>
+      <c r="B6575" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6575" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6576">
+      <c r="A6576" s="6" t="n">
+        <v>44866.447916666664</v>
+      </c>
+      <c r="B6576" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6576" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6577">
+      <c r="A6577" s="6" t="n">
+        <v>44866.458333333336</v>
+      </c>
+      <c r="B6577" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6577" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6578">
+      <c r="A6578" s="6" t="n">
+        <v>44866.46875</v>
+      </c>
+      <c r="B6578" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6578" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6579">
+      <c r="A6579" s="6" t="n">
+        <v>44866.479166666664</v>
+      </c>
+      <c r="B6579" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6579" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6580">
+      <c r="A6580" s="6" t="n">
+        <v>44866.489583333336</v>
+      </c>
+      <c r="B6580" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6580" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6581">
+      <c r="A6581" s="6" t="n">
+        <v>44866.5</v>
+      </c>
+      <c r="B6581" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6581" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6582">
+      <c r="A6582" s="6" t="n">
+        <v>44866.510416666664</v>
+      </c>
+      <c r="B6582" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6582" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6583">
+      <c r="A6583" s="6" t="n">
+        <v>44866.520833333336</v>
+      </c>
+      <c r="B6583" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C6583" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6584">
+      <c r="A6584" s="6" t="n">
+        <v>44866.53125</v>
+      </c>
+      <c r="B6584" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6584" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6585">
+      <c r="A6585" s="6" t="n">
+        <v>44866.541666666664</v>
+      </c>
+      <c r="B6585" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6585" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6586">
+      <c r="A6586" s="6" t="n">
+        <v>44866.552083333336</v>
+      </c>
+      <c r="B6586" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6586" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="6587">
+      <c r="A6587" s="6" t="n">
+        <v>44866.5625</v>
+      </c>
+      <c r="B6587" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6587" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6588">
+      <c r="A6588" s="6" t="n">
+        <v>44866.572916666664</v>
+      </c>
+      <c r="B6588" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6588" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6589">
+      <c r="A6589" s="6" t="n">
+        <v>44866.583333333336</v>
+      </c>
+      <c r="B6589" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6589" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6590">
+      <c r="A6590" s="6" t="n">
+        <v>44866.59375</v>
+      </c>
+      <c r="B6590" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6590" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6591">
+      <c r="A6591" s="6" t="n">
+        <v>44866.604166666664</v>
+      </c>
+      <c r="B6591" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6591" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6592">
+      <c r="A6592" s="6" t="n">
+        <v>44866.614583333336</v>
+      </c>
+      <c r="B6592" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6592" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6593">
+      <c r="A6593" s="6" t="n">
+        <v>44866.625</v>
+      </c>
+      <c r="B6593" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C6593" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6594">
+      <c r="A6594" s="6" t="n">
+        <v>44866.635416666664</v>
+      </c>
+      <c r="B6594" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C6594" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6595">
+      <c r="A6595" s="6" t="n">
+        <v>44866.645833333336</v>
+      </c>
+      <c r="B6595" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C6595" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6596">
+      <c r="A6596" s="6" t="n">
+        <v>44866.65625</v>
+      </c>
+      <c r="B6596" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C6596" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6597">
+      <c r="A6597" s="6" t="n">
+        <v>44866.666666666664</v>
+      </c>
+      <c r="B6597" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C6597" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6598">
+      <c r="A6598" s="6" t="n">
+        <v>44866.677083333336</v>
+      </c>
+      <c r="B6598" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C6598" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6599">
+      <c r="A6599" s="6" t="n">
+        <v>44866.6875</v>
+      </c>
+      <c r="B6599" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C6599" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="6600">
+      <c r="A6600" s="6" t="n">
+        <v>44866.697916666664</v>
+      </c>
+      <c r="B6600" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C6600" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6601">
+      <c r="A6601" s="6" t="n">
+        <v>44866.708333333336</v>
+      </c>
+      <c r="B6601" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C6601" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6602">
+      <c r="A6602" s="6" t="n">
+        <v>44866.71875</v>
+      </c>
+      <c r="B6602" s="1" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C6602" s="1" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="6603">
+      <c r="A6603" s="6" t="n">
+        <v>44866.729166666664</v>
+      </c>
+      <c r="B6603" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C6603" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="6604">
+      <c r="A6604" s="6" t="n">
+        <v>44866.739583333336</v>
+      </c>
+      <c r="B6604" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6604" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="6605">
+      <c r="A6605" s="6" t="n">
+        <v>44866.75</v>
+      </c>
+      <c r="B6605" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C6605" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6606">
+      <c r="A6606" s="6" t="n">
+        <v>44866.760416666664</v>
+      </c>
+      <c r="B6606" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6606" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="6607">
+      <c r="A6607" s="6" t="n">
+        <v>44866.770833333336</v>
+      </c>
+      <c r="B6607" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6607" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6608">
+      <c r="A6608" s="6" t="n">
+        <v>44866.78125</v>
+      </c>
+      <c r="B6608" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C6608" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6609">
+      <c r="A6609" s="6" t="n">
+        <v>44866.791666666664</v>
+      </c>
+      <c r="B6609" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6609" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6610">
+      <c r="A6610" s="6" t="n">
+        <v>44866.802083333336</v>
+      </c>
+      <c r="B6610" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6610" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6611">
+      <c r="A6611" s="6" t="n">
+        <v>44866.8125</v>
+      </c>
+      <c r="B6611" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6611" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6612">
+      <c r="A6612" s="6" t="n">
+        <v>44866.822916666664</v>
+      </c>
+      <c r="B6612" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6612" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6613">
+      <c r="A6613" s="6" t="n">
+        <v>44866.833333333336</v>
+      </c>
+      <c r="B6613" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6613" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6614">
+      <c r="A6614" s="6" t="n">
+        <v>44866.84375</v>
+      </c>
+      <c r="B6614" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6614" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6615">
+      <c r="A6615" s="6" t="n">
+        <v>44866.854166666664</v>
+      </c>
+      <c r="B6615" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6615" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6616">
+      <c r="A6616" s="6" t="n">
+        <v>44866.864583333336</v>
+      </c>
+      <c r="B6616" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6616" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6617">
+      <c r="A6617" s="6" t="n">
+        <v>44866.875</v>
+      </c>
+      <c r="B6617" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6617" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6618">
+      <c r="A6618" s="6" t="n">
+        <v>44866.885416666664</v>
+      </c>
+      <c r="B6618" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6618" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6619">
+      <c r="A6619" s="6" t="n">
+        <v>44866.895833333336</v>
+      </c>
+      <c r="B6619" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6619" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6620">
+      <c r="A6620" s="6" t="n">
+        <v>44866.90625</v>
+      </c>
+      <c r="B6620" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6620" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6621">
+      <c r="A6621" s="6" t="n">
+        <v>44866.916666666664</v>
+      </c>
+      <c r="B6621" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6621" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6622">
+      <c r="A6622" s="6" t="n">
+        <v>44866.927083333336</v>
+      </c>
+      <c r="B6622" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6622" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6623">
+      <c r="A6623" s="6" t="n">
+        <v>44866.9375</v>
+      </c>
+      <c r="B6623" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6623" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6624">
+      <c r="A6624" s="6" t="n">
+        <v>44866.947916666664</v>
+      </c>
+      <c r="B6624" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6624" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6625">
+      <c r="A6625" s="6" t="n">
+        <v>44866.958333333336</v>
+      </c>
+      <c r="B6625" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6625" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6626">
+      <c r="A6626" s="6" t="n">
+        <v>44866.96875</v>
+      </c>
+      <c r="B6626" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6626" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6627">
+      <c r="A6627" s="6" t="n">
+        <v>44866.979166666664</v>
+      </c>
+      <c r="B6627" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6627" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6628">
+      <c r="A6628" s="6" t="n">
+        <v>44866.989583333336</v>
+      </c>
+      <c r="B6628" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6628" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6629">
+      <c r="A6629" s="6" t="n">
+        <v>44867.0</v>
+      </c>
+      <c r="B6629" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6629" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6630">
+      <c r="A6630" s="6" t="n">
+        <v>44867.010416666664</v>
+      </c>
+      <c r="B6630" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6630" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6631">
+      <c r="A6631" s="6" t="n">
+        <v>44867.020833333336</v>
+      </c>
+      <c r="B6631" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6631" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6632">
+      <c r="A6632" s="6" t="n">
+        <v>44867.03125</v>
+      </c>
+      <c r="B6632" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6632" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6633">
+      <c r="A6633" s="6" t="n">
+        <v>44867.041666666664</v>
+      </c>
+      <c r="B6633" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6633" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6634">
+      <c r="A6634" s="6" t="n">
+        <v>44867.052083333336</v>
+      </c>
+      <c r="B6634" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6634" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6635">
+      <c r="A6635" s="6" t="n">
+        <v>44867.0625</v>
+      </c>
+      <c r="B6635" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6635" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6636">
+      <c r="A6636" s="6" t="n">
+        <v>44867.072916666664</v>
+      </c>
+      <c r="B6636" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6636" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6637">
+      <c r="A6637" s="6" t="n">
+        <v>44867.083333333336</v>
+      </c>
+      <c r="B6637" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6637" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6638">
+      <c r="A6638" s="6" t="n">
+        <v>44867.09375</v>
+      </c>
+      <c r="B6638" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6638" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6639">
+      <c r="A6639" s="6" t="n">
+        <v>44867.104166666664</v>
+      </c>
+      <c r="B6639" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6639" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6640">
+      <c r="A6640" s="6" t="n">
+        <v>44867.114583333336</v>
+      </c>
+      <c r="B6640" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6640" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6641">
+      <c r="A6641" s="6" t="n">
+        <v>44867.125</v>
+      </c>
+      <c r="B6641" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6641" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6642">
+      <c r="A6642" s="6" t="n">
+        <v>44867.135416666664</v>
+      </c>
+      <c r="B6642" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6642" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6643">
+      <c r="A6643" s="6" t="n">
+        <v>44867.145833333336</v>
+      </c>
+      <c r="B6643" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6643" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6644">
+      <c r="A6644" s="6" t="n">
+        <v>44867.15625</v>
+      </c>
+      <c r="B6644" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6644" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6645">
+      <c r="A6645" s="6" t="n">
+        <v>44867.166666666664</v>
+      </c>
+      <c r="B6645" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6645" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6646">
+      <c r="A6646" s="6" t="n">
+        <v>44867.177083333336</v>
+      </c>
+      <c r="B6646" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6646" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6647">
+      <c r="A6647" s="6" t="n">
+        <v>44867.1875</v>
+      </c>
+      <c r="B6647" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6647" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6648">
+      <c r="A6648" s="6" t="n">
+        <v>44867.197916666664</v>
+      </c>
+      <c r="B6648" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6648" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6649">
+      <c r="A6649" s="6" t="n">
+        <v>44867.208333333336</v>
+      </c>
+      <c r="B6649" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6649" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6650">
+      <c r="A6650" s="6" t="n">
+        <v>44867.21875</v>
+      </c>
+      <c r="B6650" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6650" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6651">
+      <c r="A6651" s="6" t="n">
+        <v>44867.229166666664</v>
+      </c>
+      <c r="B6651" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6651" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6652">
+      <c r="A6652" s="6" t="n">
+        <v>44867.239583333336</v>
+      </c>
+      <c r="B6652" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6652" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6653">
+      <c r="A6653" s="6" t="n">
+        <v>44867.25</v>
+      </c>
+      <c r="B6653" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6653" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6654">
+      <c r="A6654" s="6" t="n">
+        <v>44867.260416666664</v>
+      </c>
+      <c r="B6654" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6654" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6655">
+      <c r="A6655" s="6" t="n">
+        <v>44867.270833333336</v>
+      </c>
+      <c r="B6655" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6655" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6656">
+      <c r="A6656" s="6" t="n">
+        <v>44867.28125</v>
+      </c>
+      <c r="B6656" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6656" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6657">
+      <c r="A6657" s="6" t="n">
+        <v>44867.291666666664</v>
+      </c>
+      <c r="B6657" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6657" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6658">
+      <c r="A6658" s="6" t="n">
+        <v>44867.302083333336</v>
+      </c>
+      <c r="B6658" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6658" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6659">
+      <c r="A6659" s="6" t="n">
+        <v>44867.3125</v>
+      </c>
+      <c r="B6659" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6659" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6660">
+      <c r="A6660" s="6" t="n">
+        <v>44867.322916666664</v>
+      </c>
+      <c r="B6660" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6660" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6661">
+      <c r="A6661" s="6" t="n">
+        <v>44867.333333333336</v>
+      </c>
+      <c r="B6661" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C6661" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6662">
+      <c r="A6662" s="6" t="n">
+        <v>44867.34375</v>
+      </c>
+      <c r="B6662" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6662" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6663">
+      <c r="A6663" s="6" t="n">
+        <v>44867.354166666664</v>
+      </c>
+      <c r="B6663" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6663" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6664">
+      <c r="A6664" s="6" t="n">
+        <v>44867.364583333336</v>
+      </c>
+      <c r="B6664" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6664" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="6665">
+      <c r="A6665" s="6" t="n">
+        <v>44867.375</v>
+      </c>
+      <c r="B6665" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C6665" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6666">
+      <c r="A6666" s="6" t="n">
+        <v>44867.385416666664</v>
+      </c>
+      <c r="B6666" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6666" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6667">
+      <c r="A6667" s="6" t="n">
+        <v>44867.395833333336</v>
+      </c>
+      <c r="B6667" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6667" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6668">
+      <c r="A6668" s="6" t="n">
+        <v>44867.40625</v>
+      </c>
+      <c r="B6668" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6668" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="6669">
+      <c r="A6669" s="6" t="n">
+        <v>44867.416666666664</v>
+      </c>
+      <c r="B6669" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6669" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="6670">
+      <c r="A6670" s="6" t="n">
+        <v>44867.427083333336</v>
+      </c>
+      <c r="B6670" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6670" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6671">
+      <c r="A6671" s="6" t="n">
+        <v>44867.4375</v>
+      </c>
+      <c r="B6671" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6671" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6672">
+      <c r="A6672" s="6" t="n">
+        <v>44867.447916666664</v>
+      </c>
+      <c r="B6672" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6672" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6673">
+      <c r="A6673" s="6" t="n">
+        <v>44867.458333333336</v>
+      </c>
+      <c r="B6673" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6673" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6674">
+      <c r="A6674" s="6" t="n">
+        <v>44867.46875</v>
+      </c>
+      <c r="B6674" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6674" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6675">
+      <c r="A6675" s="6" t="n">
+        <v>44867.479166666664</v>
+      </c>
+      <c r="B6675" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C6675" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6676">
+      <c r="A6676" s="6" t="n">
+        <v>44867.489583333336</v>
+      </c>
+      <c r="B6676" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6676" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6677">
+      <c r="A6677" s="6" t="n">
+        <v>44867.5</v>
+      </c>
+      <c r="B6677" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6677" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6678">
+      <c r="A6678" s="6" t="n">
+        <v>44867.510416666664</v>
+      </c>
+      <c r="B6678" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6678" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6679">
+      <c r="A6679" s="6" t="n">
+        <v>44867.520833333336</v>
+      </c>
+      <c r="B6679" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6679" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="6680">
+      <c r="A6680" s="6" t="n">
+        <v>44867.53125</v>
+      </c>
+      <c r="B6680" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6680" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6681">
+      <c r="A6681" s="6" t="n">
+        <v>44867.541666666664</v>
+      </c>
+      <c r="B6681" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6681" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6682">
+      <c r="A6682" s="6" t="n">
+        <v>44867.552083333336</v>
+      </c>
+      <c r="B6682" s="1"/>
+      <c r="C6682" s="1"/>
+    </row>
+    <row r="6683">
+      <c r="A6683" s="6" t="n">
+        <v>44867.5625</v>
+      </c>
+      <c r="B6683" s="1"/>
+      <c r="C6683" s="1"/>
+    </row>
+    <row r="6684">
+      <c r="A6684" s="6" t="n">
+        <v>44867.572916666664</v>
+      </c>
+      <c r="B6684" s="1"/>
+      <c r="C6684" s="1"/>
+    </row>
+    <row r="6685">
+      <c r="A6685" s="6" t="n">
+        <v>44867.583333333336</v>
+      </c>
+      <c r="B6685" s="1"/>
+      <c r="C6685" s="1"/>
+    </row>
+    <row r="6686">
+      <c r="A6686" s="6" t="n">
+        <v>44867.59375</v>
+      </c>
+      <c r="B6686" s="1"/>
+      <c r="C6686" s="1"/>
+    </row>
+    <row r="6687">
+      <c r="A6687" s="6" t="n">
+        <v>44867.604166666664</v>
+      </c>
+      <c r="B6687" s="1"/>
+      <c r="C6687" s="1"/>
+    </row>
+    <row r="6688">
+      <c r="A6688" s="6" t="n">
+        <v>44867.614583333336</v>
+      </c>
+      <c r="B6688" s="1"/>
+      <c r="C6688" s="1"/>
+    </row>
+    <row r="6689">
+      <c r="A6689" s="6" t="n">
+        <v>44867.625</v>
+      </c>
+      <c r="B6689" s="1"/>
+      <c r="C6689" s="1"/>
+    </row>
+    <row r="6690">
+      <c r="A6690" s="6" t="n">
+        <v>44867.635416666664</v>
+      </c>
+      <c r="B6690" s="1"/>
+      <c r="C6690" s="1"/>
+    </row>
+    <row r="6691">
+      <c r="A6691" s="6" t="n">
+        <v>44867.645833333336</v>
+      </c>
+      <c r="B6691" s="1"/>
+      <c r="C6691" s="1"/>
+    </row>
+    <row r="6692">
+      <c r="A6692" s="6" t="n">
+        <v>44867.65625</v>
+      </c>
+      <c r="B6692" s="1"/>
+      <c r="C6692" s="1"/>
+    </row>
+    <row r="6693">
+      <c r="A6693" s="6" t="n">
+        <v>44867.666666666664</v>
+      </c>
+      <c r="B6693" s="1"/>
+      <c r="C6693" s="1"/>
+    </row>
+    <row r="6694">
+      <c r="A6694" s="6" t="n">
+        <v>44867.677083333336</v>
+      </c>
+      <c r="B6694" s="1"/>
+      <c r="C6694" s="1"/>
+    </row>
+    <row r="6695">
+      <c r="A6695" s="6" t="n">
+        <v>44867.6875</v>
+      </c>
+      <c r="B6695" s="1"/>
+      <c r="C6695" s="1"/>
+    </row>
+    <row r="6696">
+      <c r="A6696" s="6" t="n">
+        <v>44867.697916666664</v>
+      </c>
+      <c r="B6696" s="1"/>
+      <c r="C6696" s="1"/>
+    </row>
+    <row r="6697">
+      <c r="A6697" s="6" t="n">
+        <v>44867.708333333336</v>
+      </c>
+      <c r="B6697" s="1"/>
+      <c r="C6697" s="1"/>
+    </row>
+    <row r="6698">
+      <c r="A6698" s="6" t="n">
+        <v>44867.71875</v>
+      </c>
+      <c r="B6698" s="1"/>
+      <c r="C6698" s="1"/>
+    </row>
+    <row r="6699">
+      <c r="A6699" s="6" t="n">
+        <v>44867.729166666664</v>
+      </c>
+      <c r="B6699" s="1"/>
+      <c r="C6699" s="1"/>
+    </row>
+    <row r="6700">
+      <c r="A6700" s="6" t="n">
+        <v>44867.739583333336</v>
+      </c>
+      <c r="B6700" s="1"/>
+      <c r="C6700" s="1"/>
+    </row>
+    <row r="6701">
+      <c r="A6701" s="6" t="n">
+        <v>44867.75</v>
+      </c>
+      <c r="B6701" s="1"/>
+      <c r="C6701" s="1"/>
+    </row>
+    <row r="6702">
+      <c r="A6702" s="6" t="n">
+        <v>44867.760416666664</v>
+      </c>
+      <c r="B6702" s="1"/>
+      <c r="C6702" s="1"/>
+    </row>
+    <row r="6703">
+      <c r="A6703" s="6" t="n">
+        <v>44867.770833333336</v>
+      </c>
+      <c r="B6703" s="1"/>
+      <c r="C6703" s="1"/>
+    </row>
+    <row r="6704">
+      <c r="A6704" s="6" t="n">
+        <v>44867.78125</v>
+      </c>
+      <c r="B6704" s="1"/>
+      <c r="C6704" s="1"/>
+    </row>
+    <row r="6705">
+      <c r="A6705" s="6" t="n">
+        <v>44867.791666666664</v>
+      </c>
+      <c r="B6705" s="1"/>
+      <c r="C6705" s="1"/>
+    </row>
+    <row r="6706">
+      <c r="A6706" s="6" t="n">
+        <v>44867.802083333336</v>
+      </c>
+      <c r="B6706" s="1"/>
+      <c r="C6706" s="1"/>
+    </row>
+    <row r="6707">
+      <c r="A6707" s="6" t="n">
+        <v>44867.8125</v>
+      </c>
+      <c r="B6707" s="1"/>
+      <c r="C6707" s="1"/>
+    </row>
+    <row r="6708">
+      <c r="A6708" s="6" t="n">
+        <v>44867.822916666664</v>
+      </c>
+      <c r="B6708" s="1"/>
+      <c r="C6708" s="1"/>
+    </row>
+    <row r="6709">
+      <c r="A6709" s="6" t="n">
+        <v>44867.833333333336</v>
+      </c>
+      <c r="B6709" s="1"/>
+      <c r="C6709" s="1"/>
+    </row>
+    <row r="6710">
+      <c r="A6710" s="6" t="n">
+        <v>44867.84375</v>
+      </c>
+      <c r="B6710" s="1"/>
+      <c r="C6710" s="1"/>
+    </row>
+    <row r="6711">
+      <c r="A6711" s="6" t="n">
+        <v>44867.854166666664</v>
+      </c>
+      <c r="B6711" s="1"/>
+      <c r="C6711" s="1"/>
+    </row>
+    <row r="6712">
+      <c r="A6712" s="6" t="n">
+        <v>44867.864583333336</v>
+      </c>
+      <c r="B6712" s="1"/>
+      <c r="C6712" s="1"/>
+    </row>
+    <row r="6713">
+      <c r="A6713" s="6" t="n">
+        <v>44867.875</v>
+      </c>
+      <c r="B6713" s="1"/>
+      <c r="C6713" s="1"/>
+    </row>
+    <row r="6714">
+      <c r="A6714" s="6" t="n">
+        <v>44867.885416666664</v>
+      </c>
+      <c r="B6714" s="1"/>
+      <c r="C6714" s="1"/>
+    </row>
+    <row r="6715">
+      <c r="A6715" s="6" t="n">
+        <v>44867.895833333336</v>
+      </c>
+      <c r="B6715" s="1"/>
+      <c r="C6715" s="1"/>
+    </row>
+    <row r="6716">
+      <c r="A6716" s="6" t="n">
+        <v>44867.90625</v>
+      </c>
+      <c r="B6716" s="1"/>
+      <c r="C6716" s="1"/>
+    </row>
+    <row r="6717">
+      <c r="A6717" s="6" t="n">
+        <v>44867.916666666664</v>
+      </c>
+      <c r="B6717" s="1"/>
+      <c r="C6717" s="1"/>
+    </row>
+    <row r="6718">
+      <c r="A6718" s="6" t="n">
+        <v>44867.927083333336</v>
+      </c>
+      <c r="B6718" s="1"/>
+      <c r="C6718" s="1"/>
+    </row>
+    <row r="6719">
+      <c r="A6719" s="6" t="n">
+        <v>44867.9375</v>
+      </c>
+      <c r="B6719" s="1"/>
+      <c r="C6719" s="1"/>
+    </row>
+    <row r="6720">
+      <c r="A6720" s="6" t="n">
+        <v>44867.947916666664</v>
+      </c>
+      <c r="B6720" s="1"/>
+      <c r="C6720" s="1"/>
+    </row>
+    <row r="6721">
+      <c r="A6721" s="6" t="n">
+        <v>44867.958333333336</v>
+      </c>
+      <c r="B6721" s="1"/>
+      <c r="C6721" s="1"/>
+    </row>
+    <row r="6722">
+      <c r="A6722" s="6" t="n">
+        <v>44867.96875</v>
+      </c>
+      <c r="B6722" s="1"/>
+      <c r="C6722" s="1"/>
+    </row>
+    <row r="6723">
+      <c r="A6723" s="6" t="n">
+        <v>44867.979166666664</v>
+      </c>
+      <c r="B6723" s="1"/>
+      <c r="C6723" s="1"/>
+    </row>
+    <row r="6724">
+      <c r="A6724" s="6" t="n">
+        <v>44867.989583333336</v>
+      </c>
+      <c r="B6724" s="1"/>
+      <c r="C6724" s="1"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/data/counter/export_data_domain_7992.xlsx
+++ b/data/counter/export_data_domain_7992.xlsx
@@ -73622,302 +73622,9790 @@
       <c r="A6682" s="6" t="n">
         <v>44867.552083333336</v>
       </c>
-      <c r="B6682" s="1"/>
-      <c r="C6682" s="1"/>
+      <c r="B6682" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6682" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6683">
       <c r="A6683" s="6" t="n">
         <v>44867.5625</v>
       </c>
-      <c r="B6683" s="1"/>
-      <c r="C6683" s="1"/>
+      <c r="B6683" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C6683" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6684">
       <c r="A6684" s="6" t="n">
         <v>44867.572916666664</v>
       </c>
-      <c r="B6684" s="1"/>
-      <c r="C6684" s="1"/>
+      <c r="B6684" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6684" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="6685">
       <c r="A6685" s="6" t="n">
         <v>44867.583333333336</v>
       </c>
-      <c r="B6685" s="1"/>
-      <c r="C6685" s="1"/>
+      <c r="B6685" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6685" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="6686">
       <c r="A6686" s="6" t="n">
         <v>44867.59375</v>
       </c>
-      <c r="B6686" s="1"/>
-      <c r="C6686" s="1"/>
+      <c r="B6686" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C6686" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="6687">
       <c r="A6687" s="6" t="n">
         <v>44867.604166666664</v>
       </c>
-      <c r="B6687" s="1"/>
-      <c r="C6687" s="1"/>
+      <c r="B6687" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C6687" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6688">
       <c r="A6688" s="6" t="n">
         <v>44867.614583333336</v>
       </c>
-      <c r="B6688" s="1"/>
-      <c r="C6688" s="1"/>
+      <c r="B6688" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C6688" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="6689">
       <c r="A6689" s="6" t="n">
         <v>44867.625</v>
       </c>
-      <c r="B6689" s="1"/>
-      <c r="C6689" s="1"/>
+      <c r="B6689" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C6689" s="1" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="6690">
       <c r="A6690" s="6" t="n">
         <v>44867.635416666664</v>
       </c>
-      <c r="B6690" s="1"/>
-      <c r="C6690" s="1"/>
+      <c r="B6690" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6690" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="6691">
       <c r="A6691" s="6" t="n">
         <v>44867.645833333336</v>
       </c>
-      <c r="B6691" s="1"/>
-      <c r="C6691" s="1"/>
+      <c r="B6691" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6691" s="1" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="6692">
       <c r="A6692" s="6" t="n">
         <v>44867.65625</v>
       </c>
-      <c r="B6692" s="1"/>
-      <c r="C6692" s="1"/>
+      <c r="B6692" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C6692" s="1" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="6693">
       <c r="A6693" s="6" t="n">
         <v>44867.666666666664</v>
       </c>
-      <c r="B6693" s="1"/>
-      <c r="C6693" s="1"/>
+      <c r="B6693" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C6693" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="6694">
       <c r="A6694" s="6" t="n">
         <v>44867.677083333336</v>
       </c>
-      <c r="B6694" s="1"/>
-      <c r="C6694" s="1"/>
+      <c r="B6694" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C6694" s="1" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="6695">
       <c r="A6695" s="6" t="n">
         <v>44867.6875</v>
       </c>
-      <c r="B6695" s="1"/>
-      <c r="C6695" s="1"/>
+      <c r="B6695" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C6695" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6696">
       <c r="A6696" s="6" t="n">
         <v>44867.697916666664</v>
       </c>
-      <c r="B6696" s="1"/>
-      <c r="C6696" s="1"/>
+      <c r="B6696" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6696" s="1" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="6697">
       <c r="A6697" s="6" t="n">
         <v>44867.708333333336</v>
       </c>
-      <c r="B6697" s="1"/>
-      <c r="C6697" s="1"/>
+      <c r="B6697" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C6697" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6698">
       <c r="A6698" s="6" t="n">
         <v>44867.71875</v>
       </c>
-      <c r="B6698" s="1"/>
-      <c r="C6698" s="1"/>
+      <c r="B6698" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C6698" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="6699">
       <c r="A6699" s="6" t="n">
         <v>44867.729166666664</v>
       </c>
-      <c r="B6699" s="1"/>
-      <c r="C6699" s="1"/>
+      <c r="B6699" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C6699" s="1" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="6700">
       <c r="A6700" s="6" t="n">
         <v>44867.739583333336</v>
       </c>
-      <c r="B6700" s="1"/>
-      <c r="C6700" s="1"/>
+      <c r="B6700" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C6700" s="1" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="6701">
       <c r="A6701" s="6" t="n">
         <v>44867.75</v>
       </c>
-      <c r="B6701" s="1"/>
-      <c r="C6701" s="1"/>
+      <c r="B6701" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C6701" s="1" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="6702">
       <c r="A6702" s="6" t="n">
         <v>44867.760416666664</v>
       </c>
-      <c r="B6702" s="1"/>
-      <c r="C6702" s="1"/>
+      <c r="B6702" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6702" s="1" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="6703">
       <c r="A6703" s="6" t="n">
         <v>44867.770833333336</v>
       </c>
-      <c r="B6703" s="1"/>
-      <c r="C6703" s="1"/>
+      <c r="B6703" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C6703" s="1" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="6704">
       <c r="A6704" s="6" t="n">
         <v>44867.78125</v>
       </c>
-      <c r="B6704" s="1"/>
-      <c r="C6704" s="1"/>
+      <c r="B6704" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6704" s="1" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="6705">
       <c r="A6705" s="6" t="n">
         <v>44867.791666666664</v>
       </c>
-      <c r="B6705" s="1"/>
-      <c r="C6705" s="1"/>
+      <c r="B6705" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6705" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6706">
       <c r="A6706" s="6" t="n">
         <v>44867.802083333336</v>
       </c>
-      <c r="B6706" s="1"/>
-      <c r="C6706" s="1"/>
+      <c r="B6706" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6706" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6707">
       <c r="A6707" s="6" t="n">
         <v>44867.8125</v>
       </c>
-      <c r="B6707" s="1"/>
-      <c r="C6707" s="1"/>
+      <c r="B6707" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6707" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6708">
       <c r="A6708" s="6" t="n">
         <v>44867.822916666664</v>
       </c>
-      <c r="B6708" s="1"/>
-      <c r="C6708" s="1"/>
+      <c r="B6708" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6708" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="6709">
       <c r="A6709" s="6" t="n">
         <v>44867.833333333336</v>
       </c>
-      <c r="B6709" s="1"/>
-      <c r="C6709" s="1"/>
+      <c r="B6709" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6709" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6710">
       <c r="A6710" s="6" t="n">
         <v>44867.84375</v>
       </c>
-      <c r="B6710" s="1"/>
-      <c r="C6710" s="1"/>
+      <c r="B6710" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6710" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6711">
       <c r="A6711" s="6" t="n">
         <v>44867.854166666664</v>
       </c>
-      <c r="B6711" s="1"/>
-      <c r="C6711" s="1"/>
+      <c r="B6711" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6711" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="6712">
       <c r="A6712" s="6" t="n">
         <v>44867.864583333336</v>
       </c>
-      <c r="B6712" s="1"/>
-      <c r="C6712" s="1"/>
+      <c r="B6712" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6712" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6713">
       <c r="A6713" s="6" t="n">
         <v>44867.875</v>
       </c>
-      <c r="B6713" s="1"/>
-      <c r="C6713" s="1"/>
+      <c r="B6713" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6713" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="6714">
       <c r="A6714" s="6" t="n">
         <v>44867.885416666664</v>
       </c>
-      <c r="B6714" s="1"/>
-      <c r="C6714" s="1"/>
+      <c r="B6714" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C6714" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="6715">
       <c r="A6715" s="6" t="n">
         <v>44867.895833333336</v>
       </c>
-      <c r="B6715" s="1"/>
-      <c r="C6715" s="1"/>
+      <c r="B6715" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6715" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="6716">
       <c r="A6716" s="6" t="n">
         <v>44867.90625</v>
       </c>
-      <c r="B6716" s="1"/>
-      <c r="C6716" s="1"/>
+      <c r="B6716" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6716" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6717">
       <c r="A6717" s="6" t="n">
         <v>44867.916666666664</v>
       </c>
-      <c r="B6717" s="1"/>
-      <c r="C6717" s="1"/>
+      <c r="B6717" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6717" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6718">
       <c r="A6718" s="6" t="n">
         <v>44867.927083333336</v>
       </c>
-      <c r="B6718" s="1"/>
-      <c r="C6718" s="1"/>
+      <c r="B6718" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6718" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6719">
       <c r="A6719" s="6" t="n">
         <v>44867.9375</v>
       </c>
-      <c r="B6719" s="1"/>
-      <c r="C6719" s="1"/>
+      <c r="B6719" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6719" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="6720">
       <c r="A6720" s="6" t="n">
         <v>44867.947916666664</v>
       </c>
-      <c r="B6720" s="1"/>
-      <c r="C6720" s="1"/>
+      <c r="B6720" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6720" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6721">
       <c r="A6721" s="6" t="n">
         <v>44867.958333333336</v>
       </c>
-      <c r="B6721" s="1"/>
-      <c r="C6721" s="1"/>
+      <c r="B6721" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6721" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6722">
       <c r="A6722" s="6" t="n">
         <v>44867.96875</v>
       </c>
-      <c r="B6722" s="1"/>
-      <c r="C6722" s="1"/>
+      <c r="B6722" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6722" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6723">
       <c r="A6723" s="6" t="n">
         <v>44867.979166666664</v>
       </c>
-      <c r="B6723" s="1"/>
-      <c r="C6723" s="1"/>
+      <c r="B6723" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6723" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6724">
       <c r="A6724" s="6" t="n">
         <v>44867.989583333336</v>
       </c>
-      <c r="B6724" s="1"/>
-      <c r="C6724" s="1"/>
+      <c r="B6724" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6724" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6725">
+      <c r="A6725" s="6" t="n">
+        <v>44868.0</v>
+      </c>
+      <c r="B6725" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6725" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6726">
+      <c r="A6726" s="6" t="n">
+        <v>44868.010416666664</v>
+      </c>
+      <c r="B6726" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6726" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6727">
+      <c r="A6727" s="6" t="n">
+        <v>44868.020833333336</v>
+      </c>
+      <c r="B6727" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6727" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6728">
+      <c r="A6728" s="6" t="n">
+        <v>44868.03125</v>
+      </c>
+      <c r="B6728" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6728" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6729">
+      <c r="A6729" s="6" t="n">
+        <v>44868.041666666664</v>
+      </c>
+      <c r="B6729" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6729" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6730">
+      <c r="A6730" s="6" t="n">
+        <v>44868.052083333336</v>
+      </c>
+      <c r="B6730" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6730" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6731">
+      <c r="A6731" s="6" t="n">
+        <v>44868.0625</v>
+      </c>
+      <c r="B6731" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6731" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6732">
+      <c r="A6732" s="6" t="n">
+        <v>44868.072916666664</v>
+      </c>
+      <c r="B6732" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6732" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6733">
+      <c r="A6733" s="6" t="n">
+        <v>44868.083333333336</v>
+      </c>
+      <c r="B6733" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6733" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6734">
+      <c r="A6734" s="6" t="n">
+        <v>44868.09375</v>
+      </c>
+      <c r="B6734" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6734" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6735">
+      <c r="A6735" s="6" t="n">
+        <v>44868.104166666664</v>
+      </c>
+      <c r="B6735" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6735" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6736">
+      <c r="A6736" s="6" t="n">
+        <v>44868.114583333336</v>
+      </c>
+      <c r="B6736" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6736" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6737">
+      <c r="A6737" s="6" t="n">
+        <v>44868.125</v>
+      </c>
+      <c r="B6737" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6737" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6738">
+      <c r="A6738" s="6" t="n">
+        <v>44868.135416666664</v>
+      </c>
+      <c r="B6738" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6738" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6739">
+      <c r="A6739" s="6" t="n">
+        <v>44868.145833333336</v>
+      </c>
+      <c r="B6739" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6739" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6740">
+      <c r="A6740" s="6" t="n">
+        <v>44868.15625</v>
+      </c>
+      <c r="B6740" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6740" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6741">
+      <c r="A6741" s="6" t="n">
+        <v>44868.166666666664</v>
+      </c>
+      <c r="B6741" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6741" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6742">
+      <c r="A6742" s="6" t="n">
+        <v>44868.177083333336</v>
+      </c>
+      <c r="B6742" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6742" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6743">
+      <c r="A6743" s="6" t="n">
+        <v>44868.1875</v>
+      </c>
+      <c r="B6743" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6743" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6744">
+      <c r="A6744" s="6" t="n">
+        <v>44868.197916666664</v>
+      </c>
+      <c r="B6744" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6744" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6745">
+      <c r="A6745" s="6" t="n">
+        <v>44868.208333333336</v>
+      </c>
+      <c r="B6745" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6745" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6746">
+      <c r="A6746" s="6" t="n">
+        <v>44868.21875</v>
+      </c>
+      <c r="B6746" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6746" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6747">
+      <c r="A6747" s="6" t="n">
+        <v>44868.229166666664</v>
+      </c>
+      <c r="B6747" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6747" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6748">
+      <c r="A6748" s="6" t="n">
+        <v>44868.239583333336</v>
+      </c>
+      <c r="B6748" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6748" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6749">
+      <c r="A6749" s="6" t="n">
+        <v>44868.25</v>
+      </c>
+      <c r="B6749" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6749" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6750">
+      <c r="A6750" s="6" t="n">
+        <v>44868.260416666664</v>
+      </c>
+      <c r="B6750" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6750" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6751">
+      <c r="A6751" s="6" t="n">
+        <v>44868.270833333336</v>
+      </c>
+      <c r="B6751" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6751" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6752">
+      <c r="A6752" s="6" t="n">
+        <v>44868.28125</v>
+      </c>
+      <c r="B6752" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6752" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6753">
+      <c r="A6753" s="6" t="n">
+        <v>44868.291666666664</v>
+      </c>
+      <c r="B6753" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6753" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6754">
+      <c r="A6754" s="6" t="n">
+        <v>44868.302083333336</v>
+      </c>
+      <c r="B6754" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6754" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6755">
+      <c r="A6755" s="6" t="n">
+        <v>44868.3125</v>
+      </c>
+      <c r="B6755" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6755" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6756">
+      <c r="A6756" s="6" t="n">
+        <v>44868.322916666664</v>
+      </c>
+      <c r="B6756" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6756" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="6757">
+      <c r="A6757" s="6" t="n">
+        <v>44868.333333333336</v>
+      </c>
+      <c r="B6757" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6757" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6758">
+      <c r="A6758" s="6" t="n">
+        <v>44868.34375</v>
+      </c>
+      <c r="B6758" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6758" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="6759">
+      <c r="A6759" s="6" t="n">
+        <v>44868.354166666664</v>
+      </c>
+      <c r="B6759" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6759" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6760">
+      <c r="A6760" s="6" t="n">
+        <v>44868.364583333336</v>
+      </c>
+      <c r="B6760" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6760" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6761">
+      <c r="A6761" s="6" t="n">
+        <v>44868.375</v>
+      </c>
+      <c r="B6761" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6761" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6762">
+      <c r="A6762" s="6" t="n">
+        <v>44868.385416666664</v>
+      </c>
+      <c r="B6762" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6762" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6763">
+      <c r="A6763" s="6" t="n">
+        <v>44868.395833333336</v>
+      </c>
+      <c r="B6763" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6763" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6764">
+      <c r="A6764" s="6" t="n">
+        <v>44868.40625</v>
+      </c>
+      <c r="B6764" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6764" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6765">
+      <c r="A6765" s="6" t="n">
+        <v>44868.416666666664</v>
+      </c>
+      <c r="B6765" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6765" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6766">
+      <c r="A6766" s="6" t="n">
+        <v>44868.427083333336</v>
+      </c>
+      <c r="B6766" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6766" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6767">
+      <c r="A6767" s="6" t="n">
+        <v>44868.4375</v>
+      </c>
+      <c r="B6767" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6767" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="6768">
+      <c r="A6768" s="6" t="n">
+        <v>44868.447916666664</v>
+      </c>
+      <c r="B6768" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6768" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6769">
+      <c r="A6769" s="6" t="n">
+        <v>44868.458333333336</v>
+      </c>
+      <c r="B6769" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6769" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6770">
+      <c r="A6770" s="6" t="n">
+        <v>44868.46875</v>
+      </c>
+      <c r="B6770" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6770" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6771">
+      <c r="A6771" s="6" t="n">
+        <v>44868.479166666664</v>
+      </c>
+      <c r="B6771" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6771" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6772">
+      <c r="A6772" s="6" t="n">
+        <v>44868.489583333336</v>
+      </c>
+      <c r="B6772" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6772" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6773">
+      <c r="A6773" s="6" t="n">
+        <v>44868.5</v>
+      </c>
+      <c r="B6773" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6773" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6774">
+      <c r="A6774" s="6" t="n">
+        <v>44868.510416666664</v>
+      </c>
+      <c r="B6774" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6774" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="6775">
+      <c r="A6775" s="6" t="n">
+        <v>44868.520833333336</v>
+      </c>
+      <c r="B6775" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6775" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6776">
+      <c r="A6776" s="6" t="n">
+        <v>44868.53125</v>
+      </c>
+      <c r="B6776" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6776" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6777">
+      <c r="A6777" s="6" t="n">
+        <v>44868.541666666664</v>
+      </c>
+      <c r="B6777" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C6777" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6778">
+      <c r="A6778" s="6" t="n">
+        <v>44868.552083333336</v>
+      </c>
+      <c r="B6778" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6778" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6779">
+      <c r="A6779" s="6" t="n">
+        <v>44868.5625</v>
+      </c>
+      <c r="B6779" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6779" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6780">
+      <c r="A6780" s="6" t="n">
+        <v>44868.572916666664</v>
+      </c>
+      <c r="B6780" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6780" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6781">
+      <c r="A6781" s="6" t="n">
+        <v>44868.583333333336</v>
+      </c>
+      <c r="B6781" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6781" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6782">
+      <c r="A6782" s="6" t="n">
+        <v>44868.59375</v>
+      </c>
+      <c r="B6782" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C6782" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="6783">
+      <c r="A6783" s="6" t="n">
+        <v>44868.604166666664</v>
+      </c>
+      <c r="B6783" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6783" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6784">
+      <c r="A6784" s="6" t="n">
+        <v>44868.614583333336</v>
+      </c>
+      <c r="B6784" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6784" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6785">
+      <c r="A6785" s="6" t="n">
+        <v>44868.625</v>
+      </c>
+      <c r="B6785" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6785" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6786">
+      <c r="A6786" s="6" t="n">
+        <v>44868.635416666664</v>
+      </c>
+      <c r="B6786" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C6786" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6787">
+      <c r="A6787" s="6" t="n">
+        <v>44868.645833333336</v>
+      </c>
+      <c r="B6787" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6787" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6788">
+      <c r="A6788" s="6" t="n">
+        <v>44868.65625</v>
+      </c>
+      <c r="B6788" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C6788" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6789">
+      <c r="A6789" s="6" t="n">
+        <v>44868.666666666664</v>
+      </c>
+      <c r="B6789" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C6789" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="6790">
+      <c r="A6790" s="6" t="n">
+        <v>44868.677083333336</v>
+      </c>
+      <c r="B6790" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C6790" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6791">
+      <c r="A6791" s="6" t="n">
+        <v>44868.6875</v>
+      </c>
+      <c r="B6791" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6791" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="6792">
+      <c r="A6792" s="6" t="n">
+        <v>44868.697916666664</v>
+      </c>
+      <c r="B6792" s="1" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="C6792" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6793">
+      <c r="A6793" s="6" t="n">
+        <v>44868.708333333336</v>
+      </c>
+      <c r="B6793" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C6793" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="6794">
+      <c r="A6794" s="6" t="n">
+        <v>44868.71875</v>
+      </c>
+      <c r="B6794" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C6794" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="6795">
+      <c r="A6795" s="6" t="n">
+        <v>44868.729166666664</v>
+      </c>
+      <c r="B6795" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C6795" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6796">
+      <c r="A6796" s="6" t="n">
+        <v>44868.739583333336</v>
+      </c>
+      <c r="B6796" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C6796" s="1" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="6797">
+      <c r="A6797" s="6" t="n">
+        <v>44868.75</v>
+      </c>
+      <c r="B6797" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6797" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="6798">
+      <c r="A6798" s="6" t="n">
+        <v>44868.760416666664</v>
+      </c>
+      <c r="B6798" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6798" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6799">
+      <c r="A6799" s="6" t="n">
+        <v>44868.770833333336</v>
+      </c>
+      <c r="B6799" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C6799" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6800">
+      <c r="A6800" s="6" t="n">
+        <v>44868.78125</v>
+      </c>
+      <c r="B6800" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6800" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="6801">
+      <c r="A6801" s="6" t="n">
+        <v>44868.791666666664</v>
+      </c>
+      <c r="B6801" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6801" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6802">
+      <c r="A6802" s="6" t="n">
+        <v>44868.802083333336</v>
+      </c>
+      <c r="B6802" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C6802" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6803">
+      <c r="A6803" s="6" t="n">
+        <v>44868.8125</v>
+      </c>
+      <c r="B6803" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C6803" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6804">
+      <c r="A6804" s="6" t="n">
+        <v>44868.822916666664</v>
+      </c>
+      <c r="B6804" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6804" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6805">
+      <c r="A6805" s="6" t="n">
+        <v>44868.833333333336</v>
+      </c>
+      <c r="B6805" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6805" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6806">
+      <c r="A6806" s="6" t="n">
+        <v>44868.84375</v>
+      </c>
+      <c r="B6806" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6806" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6807">
+      <c r="A6807" s="6" t="n">
+        <v>44868.854166666664</v>
+      </c>
+      <c r="B6807" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6807" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6808">
+      <c r="A6808" s="6" t="n">
+        <v>44868.864583333336</v>
+      </c>
+      <c r="B6808" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C6808" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6809">
+      <c r="A6809" s="6" t="n">
+        <v>44868.875</v>
+      </c>
+      <c r="B6809" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6809" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6810">
+      <c r="A6810" s="6" t="n">
+        <v>44868.885416666664</v>
+      </c>
+      <c r="B6810" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6810" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6811">
+      <c r="A6811" s="6" t="n">
+        <v>44868.895833333336</v>
+      </c>
+      <c r="B6811" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6811" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6812">
+      <c r="A6812" s="6" t="n">
+        <v>44868.90625</v>
+      </c>
+      <c r="B6812" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6812" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6813">
+      <c r="A6813" s="6" t="n">
+        <v>44868.916666666664</v>
+      </c>
+      <c r="B6813" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6813" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6814">
+      <c r="A6814" s="6" t="n">
+        <v>44868.927083333336</v>
+      </c>
+      <c r="B6814" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6814" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6815">
+      <c r="A6815" s="6" t="n">
+        <v>44868.9375</v>
+      </c>
+      <c r="B6815" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6815" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6816">
+      <c r="A6816" s="6" t="n">
+        <v>44868.947916666664</v>
+      </c>
+      <c r="B6816" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6816" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6817">
+      <c r="A6817" s="6" t="n">
+        <v>44868.958333333336</v>
+      </c>
+      <c r="B6817" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6817" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6818">
+      <c r="A6818" s="6" t="n">
+        <v>44868.96875</v>
+      </c>
+      <c r="B6818" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6818" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6819">
+      <c r="A6819" s="6" t="n">
+        <v>44868.979166666664</v>
+      </c>
+      <c r="B6819" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6819" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6820">
+      <c r="A6820" s="6" t="n">
+        <v>44868.989583333336</v>
+      </c>
+      <c r="B6820" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6820" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6821">
+      <c r="A6821" s="6" t="n">
+        <v>44869.0</v>
+      </c>
+      <c r="B6821" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6821" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6822">
+      <c r="A6822" s="6" t="n">
+        <v>44869.010416666664</v>
+      </c>
+      <c r="B6822" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6822" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6823">
+      <c r="A6823" s="6" t="n">
+        <v>44869.020833333336</v>
+      </c>
+      <c r="B6823" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6823" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6824">
+      <c r="A6824" s="6" t="n">
+        <v>44869.03125</v>
+      </c>
+      <c r="B6824" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6824" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6825">
+      <c r="A6825" s="6" t="n">
+        <v>44869.041666666664</v>
+      </c>
+      <c r="B6825" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6825" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6826">
+      <c r="A6826" s="6" t="n">
+        <v>44869.052083333336</v>
+      </c>
+      <c r="B6826" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6826" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6827">
+      <c r="A6827" s="6" t="n">
+        <v>44869.0625</v>
+      </c>
+      <c r="B6827" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6827" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6828">
+      <c r="A6828" s="6" t="n">
+        <v>44869.072916666664</v>
+      </c>
+      <c r="B6828" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6828" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6829">
+      <c r="A6829" s="6" t="n">
+        <v>44869.083333333336</v>
+      </c>
+      <c r="B6829" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6829" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6830">
+      <c r="A6830" s="6" t="n">
+        <v>44869.09375</v>
+      </c>
+      <c r="B6830" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6830" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6831">
+      <c r="A6831" s="6" t="n">
+        <v>44869.104166666664</v>
+      </c>
+      <c r="B6831" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6831" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6832">
+      <c r="A6832" s="6" t="n">
+        <v>44869.114583333336</v>
+      </c>
+      <c r="B6832" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6832" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6833">
+      <c r="A6833" s="6" t="n">
+        <v>44869.125</v>
+      </c>
+      <c r="B6833" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6833" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6834">
+      <c r="A6834" s="6" t="n">
+        <v>44869.135416666664</v>
+      </c>
+      <c r="B6834" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6834" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6835">
+      <c r="A6835" s="6" t="n">
+        <v>44869.145833333336</v>
+      </c>
+      <c r="B6835" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6835" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6836">
+      <c r="A6836" s="6" t="n">
+        <v>44869.15625</v>
+      </c>
+      <c r="B6836" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6836" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6837">
+      <c r="A6837" s="6" t="n">
+        <v>44869.166666666664</v>
+      </c>
+      <c r="B6837" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6837" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6838">
+      <c r="A6838" s="6" t="n">
+        <v>44869.177083333336</v>
+      </c>
+      <c r="B6838" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6838" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6839">
+      <c r="A6839" s="6" t="n">
+        <v>44869.1875</v>
+      </c>
+      <c r="B6839" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6839" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6840">
+      <c r="A6840" s="6" t="n">
+        <v>44869.197916666664</v>
+      </c>
+      <c r="B6840" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6840" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6841">
+      <c r="A6841" s="6" t="n">
+        <v>44869.208333333336</v>
+      </c>
+      <c r="B6841" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6841" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6842">
+      <c r="A6842" s="6" t="n">
+        <v>44869.21875</v>
+      </c>
+      <c r="B6842" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6842" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6843">
+      <c r="A6843" s="6" t="n">
+        <v>44869.229166666664</v>
+      </c>
+      <c r="B6843" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6843" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6844">
+      <c r="A6844" s="6" t="n">
+        <v>44869.239583333336</v>
+      </c>
+      <c r="B6844" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6844" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6845">
+      <c r="A6845" s="6" t="n">
+        <v>44869.25</v>
+      </c>
+      <c r="B6845" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6845" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6846">
+      <c r="A6846" s="6" t="n">
+        <v>44869.260416666664</v>
+      </c>
+      <c r="B6846" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6846" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6847">
+      <c r="A6847" s="6" t="n">
+        <v>44869.270833333336</v>
+      </c>
+      <c r="B6847" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6847" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6848">
+      <c r="A6848" s="6" t="n">
+        <v>44869.28125</v>
+      </c>
+      <c r="B6848" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6848" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6849">
+      <c r="A6849" s="6" t="n">
+        <v>44869.291666666664</v>
+      </c>
+      <c r="B6849" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6849" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6850">
+      <c r="A6850" s="6" t="n">
+        <v>44869.302083333336</v>
+      </c>
+      <c r="B6850" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6850" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6851">
+      <c r="A6851" s="6" t="n">
+        <v>44869.3125</v>
+      </c>
+      <c r="B6851" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6851" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6852">
+      <c r="A6852" s="6" t="n">
+        <v>44869.322916666664</v>
+      </c>
+      <c r="B6852" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C6852" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6853">
+      <c r="A6853" s="6" t="n">
+        <v>44869.333333333336</v>
+      </c>
+      <c r="B6853" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6853" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6854">
+      <c r="A6854" s="6" t="n">
+        <v>44869.34375</v>
+      </c>
+      <c r="B6854" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6854" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6855">
+      <c r="A6855" s="6" t="n">
+        <v>44869.354166666664</v>
+      </c>
+      <c r="B6855" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6855" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6856">
+      <c r="A6856" s="6" t="n">
+        <v>44869.364583333336</v>
+      </c>
+      <c r="B6856" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6856" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6857">
+      <c r="A6857" s="6" t="n">
+        <v>44869.375</v>
+      </c>
+      <c r="B6857" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6857" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6858">
+      <c r="A6858" s="6" t="n">
+        <v>44869.385416666664</v>
+      </c>
+      <c r="B6858" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6858" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6859">
+      <c r="A6859" s="6" t="n">
+        <v>44869.395833333336</v>
+      </c>
+      <c r="B6859" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6859" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6860">
+      <c r="A6860" s="6" t="n">
+        <v>44869.40625</v>
+      </c>
+      <c r="B6860" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6860" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="6861">
+      <c r="A6861" s="6" t="n">
+        <v>44869.416666666664</v>
+      </c>
+      <c r="B6861" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6861" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6862">
+      <c r="A6862" s="6" t="n">
+        <v>44869.427083333336</v>
+      </c>
+      <c r="B6862" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6862" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6863">
+      <c r="A6863" s="6" t="n">
+        <v>44869.4375</v>
+      </c>
+      <c r="B6863" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6863" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6864">
+      <c r="A6864" s="6" t="n">
+        <v>44869.447916666664</v>
+      </c>
+      <c r="B6864" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6864" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6865">
+      <c r="A6865" s="6" t="n">
+        <v>44869.458333333336</v>
+      </c>
+      <c r="B6865" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6865" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6866">
+      <c r="A6866" s="6" t="n">
+        <v>44869.46875</v>
+      </c>
+      <c r="B6866" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6866" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6867">
+      <c r="A6867" s="6" t="n">
+        <v>44869.479166666664</v>
+      </c>
+      <c r="B6867" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C6867" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6868">
+      <c r="A6868" s="6" t="n">
+        <v>44869.489583333336</v>
+      </c>
+      <c r="B6868" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6868" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6869">
+      <c r="A6869" s="6" t="n">
+        <v>44869.5</v>
+      </c>
+      <c r="B6869" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6869" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6870">
+      <c r="A6870" s="6" t="n">
+        <v>44869.510416666664</v>
+      </c>
+      <c r="B6870" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6870" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6871">
+      <c r="A6871" s="6" t="n">
+        <v>44869.520833333336</v>
+      </c>
+      <c r="B6871" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6871" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6872">
+      <c r="A6872" s="6" t="n">
+        <v>44869.53125</v>
+      </c>
+      <c r="B6872" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6872" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6873">
+      <c r="A6873" s="6" t="n">
+        <v>44869.541666666664</v>
+      </c>
+      <c r="B6873" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6873" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6874">
+      <c r="A6874" s="6" t="n">
+        <v>44869.552083333336</v>
+      </c>
+      <c r="B6874" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6874" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6875">
+      <c r="A6875" s="6" t="n">
+        <v>44869.5625</v>
+      </c>
+      <c r="B6875" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C6875" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6876">
+      <c r="A6876" s="6" t="n">
+        <v>44869.572916666664</v>
+      </c>
+      <c r="B6876" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6876" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6877">
+      <c r="A6877" s="6" t="n">
+        <v>44869.583333333336</v>
+      </c>
+      <c r="B6877" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6877" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6878">
+      <c r="A6878" s="6" t="n">
+        <v>44869.59375</v>
+      </c>
+      <c r="B6878" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6878" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6879">
+      <c r="A6879" s="6" t="n">
+        <v>44869.604166666664</v>
+      </c>
+      <c r="B6879" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6879" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6880">
+      <c r="A6880" s="6" t="n">
+        <v>44869.614583333336</v>
+      </c>
+      <c r="B6880" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6880" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6881">
+      <c r="A6881" s="6" t="n">
+        <v>44869.625</v>
+      </c>
+      <c r="B6881" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6881" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6882">
+      <c r="A6882" s="6" t="n">
+        <v>44869.635416666664</v>
+      </c>
+      <c r="B6882" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C6882" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6883">
+      <c r="A6883" s="6" t="n">
+        <v>44869.645833333336</v>
+      </c>
+      <c r="B6883" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C6883" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6884">
+      <c r="A6884" s="6" t="n">
+        <v>44869.65625</v>
+      </c>
+      <c r="B6884" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C6884" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6885">
+      <c r="A6885" s="6" t="n">
+        <v>44869.666666666664</v>
+      </c>
+      <c r="B6885" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C6885" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6886">
+      <c r="A6886" s="6" t="n">
+        <v>44869.677083333336</v>
+      </c>
+      <c r="B6886" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6886" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6887">
+      <c r="A6887" s="6" t="n">
+        <v>44869.6875</v>
+      </c>
+      <c r="B6887" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6887" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6888">
+      <c r="A6888" s="6" t="n">
+        <v>44869.697916666664</v>
+      </c>
+      <c r="B6888" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C6888" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="6889">
+      <c r="A6889" s="6" t="n">
+        <v>44869.708333333336</v>
+      </c>
+      <c r="B6889" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C6889" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="6890">
+      <c r="A6890" s="6" t="n">
+        <v>44869.71875</v>
+      </c>
+      <c r="B6890" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C6890" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="6891">
+      <c r="A6891" s="6" t="n">
+        <v>44869.729166666664</v>
+      </c>
+      <c r="B6891" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C6891" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="6892">
+      <c r="A6892" s="6" t="n">
+        <v>44869.739583333336</v>
+      </c>
+      <c r="B6892" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6892" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6893">
+      <c r="A6893" s="6" t="n">
+        <v>44869.75</v>
+      </c>
+      <c r="B6893" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C6893" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6894">
+      <c r="A6894" s="6" t="n">
+        <v>44869.760416666664</v>
+      </c>
+      <c r="B6894" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6894" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="6895">
+      <c r="A6895" s="6" t="n">
+        <v>44869.770833333336</v>
+      </c>
+      <c r="B6895" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6895" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6896">
+      <c r="A6896" s="6" t="n">
+        <v>44869.78125</v>
+      </c>
+      <c r="B6896" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6896" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="6897">
+      <c r="A6897" s="6" t="n">
+        <v>44869.791666666664</v>
+      </c>
+      <c r="B6897" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6897" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6898">
+      <c r="A6898" s="6" t="n">
+        <v>44869.802083333336</v>
+      </c>
+      <c r="B6898" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6898" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6899">
+      <c r="A6899" s="6" t="n">
+        <v>44869.8125</v>
+      </c>
+      <c r="B6899" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6899" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6900">
+      <c r="A6900" s="6" t="n">
+        <v>44869.822916666664</v>
+      </c>
+      <c r="B6900" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C6900" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6901">
+      <c r="A6901" s="6" t="n">
+        <v>44869.833333333336</v>
+      </c>
+      <c r="B6901" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6901" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6902">
+      <c r="A6902" s="6" t="n">
+        <v>44869.84375</v>
+      </c>
+      <c r="B6902" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6902" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6903">
+      <c r="A6903" s="6" t="n">
+        <v>44869.854166666664</v>
+      </c>
+      <c r="B6903" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6903" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6904">
+      <c r="A6904" s="6" t="n">
+        <v>44869.864583333336</v>
+      </c>
+      <c r="B6904" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6904" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6905">
+      <c r="A6905" s="6" t="n">
+        <v>44869.875</v>
+      </c>
+      <c r="B6905" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6905" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6906">
+      <c r="A6906" s="6" t="n">
+        <v>44869.885416666664</v>
+      </c>
+      <c r="B6906" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6906" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6907">
+      <c r="A6907" s="6" t="n">
+        <v>44869.895833333336</v>
+      </c>
+      <c r="B6907" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6907" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6908">
+      <c r="A6908" s="6" t="n">
+        <v>44869.90625</v>
+      </c>
+      <c r="B6908" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6908" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6909">
+      <c r="A6909" s="6" t="n">
+        <v>44869.916666666664</v>
+      </c>
+      <c r="B6909" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6909" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6910">
+      <c r="A6910" s="6" t="n">
+        <v>44869.927083333336</v>
+      </c>
+      <c r="B6910" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6910" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6911">
+      <c r="A6911" s="6" t="n">
+        <v>44869.9375</v>
+      </c>
+      <c r="B6911" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C6911" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6912">
+      <c r="A6912" s="6" t="n">
+        <v>44869.947916666664</v>
+      </c>
+      <c r="B6912" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6912" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6913">
+      <c r="A6913" s="6" t="n">
+        <v>44869.958333333336</v>
+      </c>
+      <c r="B6913" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6913" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6914">
+      <c r="A6914" s="6" t="n">
+        <v>44869.96875</v>
+      </c>
+      <c r="B6914" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6914" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6915">
+      <c r="A6915" s="6" t="n">
+        <v>44869.979166666664</v>
+      </c>
+      <c r="B6915" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6915" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6916">
+      <c r="A6916" s="6" t="n">
+        <v>44869.989583333336</v>
+      </c>
+      <c r="B6916" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6916" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6917">
+      <c r="A6917" s="6" t="n">
+        <v>44870.0</v>
+      </c>
+      <c r="B6917" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6917" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6918">
+      <c r="A6918" s="6" t="n">
+        <v>44870.010416666664</v>
+      </c>
+      <c r="B6918" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6918" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6919">
+      <c r="A6919" s="6" t="n">
+        <v>44870.020833333336</v>
+      </c>
+      <c r="B6919" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6919" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6920">
+      <c r="A6920" s="6" t="n">
+        <v>44870.03125</v>
+      </c>
+      <c r="B6920" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6920" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6921">
+      <c r="A6921" s="6" t="n">
+        <v>44870.041666666664</v>
+      </c>
+      <c r="B6921" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6921" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6922">
+      <c r="A6922" s="6" t="n">
+        <v>44870.052083333336</v>
+      </c>
+      <c r="B6922" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6922" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6923">
+      <c r="A6923" s="6" t="n">
+        <v>44870.0625</v>
+      </c>
+      <c r="B6923" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6923" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6924">
+      <c r="A6924" s="6" t="n">
+        <v>44870.072916666664</v>
+      </c>
+      <c r="B6924" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6924" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6925">
+      <c r="A6925" s="6" t="n">
+        <v>44870.083333333336</v>
+      </c>
+      <c r="B6925" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6925" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6926">
+      <c r="A6926" s="6" t="n">
+        <v>44870.09375</v>
+      </c>
+      <c r="B6926" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6926" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6927">
+      <c r="A6927" s="6" t="n">
+        <v>44870.104166666664</v>
+      </c>
+      <c r="B6927" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6927" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6928">
+      <c r="A6928" s="6" t="n">
+        <v>44870.114583333336</v>
+      </c>
+      <c r="B6928" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6928" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6929">
+      <c r="A6929" s="6" t="n">
+        <v>44870.125</v>
+      </c>
+      <c r="B6929" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6929" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6930">
+      <c r="A6930" s="6" t="n">
+        <v>44870.135416666664</v>
+      </c>
+      <c r="B6930" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6930" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6931">
+      <c r="A6931" s="6" t="n">
+        <v>44870.145833333336</v>
+      </c>
+      <c r="B6931" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6931" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6932">
+      <c r="A6932" s="6" t="n">
+        <v>44870.15625</v>
+      </c>
+      <c r="B6932" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6932" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6933">
+      <c r="A6933" s="6" t="n">
+        <v>44870.166666666664</v>
+      </c>
+      <c r="B6933" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6933" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6934">
+      <c r="A6934" s="6" t="n">
+        <v>44870.177083333336</v>
+      </c>
+      <c r="B6934" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6934" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6935">
+      <c r="A6935" s="6" t="n">
+        <v>44870.1875</v>
+      </c>
+      <c r="B6935" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6935" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6936">
+      <c r="A6936" s="6" t="n">
+        <v>44870.197916666664</v>
+      </c>
+      <c r="B6936" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6936" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6937">
+      <c r="A6937" s="6" t="n">
+        <v>44870.208333333336</v>
+      </c>
+      <c r="B6937" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6937" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6938">
+      <c r="A6938" s="6" t="n">
+        <v>44870.21875</v>
+      </c>
+      <c r="B6938" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6938" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6939">
+      <c r="A6939" s="6" t="n">
+        <v>44870.229166666664</v>
+      </c>
+      <c r="B6939" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6939" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6940">
+      <c r="A6940" s="6" t="n">
+        <v>44870.239583333336</v>
+      </c>
+      <c r="B6940" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6940" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6941">
+      <c r="A6941" s="6" t="n">
+        <v>44870.25</v>
+      </c>
+      <c r="B6941" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6941" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6942">
+      <c r="A6942" s="6" t="n">
+        <v>44870.260416666664</v>
+      </c>
+      <c r="B6942" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6942" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6943">
+      <c r="A6943" s="6" t="n">
+        <v>44870.270833333336</v>
+      </c>
+      <c r="B6943" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6943" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6944">
+      <c r="A6944" s="6" t="n">
+        <v>44870.28125</v>
+      </c>
+      <c r="B6944" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6944" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6945">
+      <c r="A6945" s="6" t="n">
+        <v>44870.291666666664</v>
+      </c>
+      <c r="B6945" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6945" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6946">
+      <c r="A6946" s="6" t="n">
+        <v>44870.302083333336</v>
+      </c>
+      <c r="B6946" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C6946" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6947">
+      <c r="A6947" s="6" t="n">
+        <v>44870.3125</v>
+      </c>
+      <c r="B6947" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6947" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6948">
+      <c r="A6948" s="6" t="n">
+        <v>44870.322916666664</v>
+      </c>
+      <c r="B6948" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6948" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6949">
+      <c r="A6949" s="6" t="n">
+        <v>44870.333333333336</v>
+      </c>
+      <c r="B6949" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6949" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6950">
+      <c r="A6950" s="6" t="n">
+        <v>44870.34375</v>
+      </c>
+      <c r="B6950" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6950" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6951">
+      <c r="A6951" s="6" t="n">
+        <v>44870.354166666664</v>
+      </c>
+      <c r="B6951" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6951" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6952">
+      <c r="A6952" s="6" t="n">
+        <v>44870.364583333336</v>
+      </c>
+      <c r="B6952" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6952" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6953">
+      <c r="A6953" s="6" t="n">
+        <v>44870.375</v>
+      </c>
+      <c r="B6953" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6953" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6954">
+      <c r="A6954" s="6" t="n">
+        <v>44870.385416666664</v>
+      </c>
+      <c r="B6954" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C6954" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6955">
+      <c r="A6955" s="6" t="n">
+        <v>44870.395833333336</v>
+      </c>
+      <c r="B6955" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C6955" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6956">
+      <c r="A6956" s="6" t="n">
+        <v>44870.40625</v>
+      </c>
+      <c r="B6956" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6956" s="1" t="n">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="6957">
+      <c r="A6957" s="6" t="n">
+        <v>44870.416666666664</v>
+      </c>
+      <c r="B6957" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6957" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6958">
+      <c r="A6958" s="6" t="n">
+        <v>44870.427083333336</v>
+      </c>
+      <c r="B6958" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C6958" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6959">
+      <c r="A6959" s="6" t="n">
+        <v>44870.4375</v>
+      </c>
+      <c r="B6959" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6959" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6960">
+      <c r="A6960" s="6" t="n">
+        <v>44870.447916666664</v>
+      </c>
+      <c r="B6960" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6960" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6961">
+      <c r="A6961" s="6" t="n">
+        <v>44870.458333333336</v>
+      </c>
+      <c r="B6961" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6961" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="6962">
+      <c r="A6962" s="6" t="n">
+        <v>44870.46875</v>
+      </c>
+      <c r="B6962" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6962" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="6963">
+      <c r="A6963" s="6" t="n">
+        <v>44870.479166666664</v>
+      </c>
+      <c r="B6963" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6963" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6964">
+      <c r="A6964" s="6" t="n">
+        <v>44870.489583333336</v>
+      </c>
+      <c r="B6964" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6964" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6965">
+      <c r="A6965" s="6" t="n">
+        <v>44870.5</v>
+      </c>
+      <c r="B6965" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6965" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6966">
+      <c r="A6966" s="6" t="n">
+        <v>44870.510416666664</v>
+      </c>
+      <c r="B6966" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6966" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6967">
+      <c r="A6967" s="6" t="n">
+        <v>44870.520833333336</v>
+      </c>
+      <c r="B6967" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6967" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6968">
+      <c r="A6968" s="6" t="n">
+        <v>44870.53125</v>
+      </c>
+      <c r="B6968" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6968" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6969">
+      <c r="A6969" s="6" t="n">
+        <v>44870.541666666664</v>
+      </c>
+      <c r="B6969" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6969" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6970">
+      <c r="A6970" s="6" t="n">
+        <v>44870.552083333336</v>
+      </c>
+      <c r="B6970" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6970" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6971">
+      <c r="A6971" s="6" t="n">
+        <v>44870.5625</v>
+      </c>
+      <c r="B6971" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6971" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6972">
+      <c r="A6972" s="6" t="n">
+        <v>44870.572916666664</v>
+      </c>
+      <c r="B6972" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6972" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6973">
+      <c r="A6973" s="6" t="n">
+        <v>44870.583333333336</v>
+      </c>
+      <c r="B6973" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6973" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6974">
+      <c r="A6974" s="6" t="n">
+        <v>44870.59375</v>
+      </c>
+      <c r="B6974" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6974" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6975">
+      <c r="A6975" s="6" t="n">
+        <v>44870.604166666664</v>
+      </c>
+      <c r="B6975" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6975" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6976">
+      <c r="A6976" s="6" t="n">
+        <v>44870.614583333336</v>
+      </c>
+      <c r="B6976" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C6976" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6977">
+      <c r="A6977" s="6" t="n">
+        <v>44870.625</v>
+      </c>
+      <c r="B6977" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6977" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6978">
+      <c r="A6978" s="6" t="n">
+        <v>44870.635416666664</v>
+      </c>
+      <c r="B6978" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6978" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6979">
+      <c r="A6979" s="6" t="n">
+        <v>44870.645833333336</v>
+      </c>
+      <c r="B6979" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6979" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6980">
+      <c r="A6980" s="6" t="n">
+        <v>44870.65625</v>
+      </c>
+      <c r="B6980" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6980" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6981">
+      <c r="A6981" s="6" t="n">
+        <v>44870.666666666664</v>
+      </c>
+      <c r="B6981" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6981" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6982">
+      <c r="A6982" s="6" t="n">
+        <v>44870.677083333336</v>
+      </c>
+      <c r="B6982" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6982" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6983">
+      <c r="A6983" s="6" t="n">
+        <v>44870.6875</v>
+      </c>
+      <c r="B6983" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6983" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6984">
+      <c r="A6984" s="6" t="n">
+        <v>44870.697916666664</v>
+      </c>
+      <c r="B6984" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6984" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6985">
+      <c r="A6985" s="6" t="n">
+        <v>44870.708333333336</v>
+      </c>
+      <c r="B6985" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6985" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6986">
+      <c r="A6986" s="6" t="n">
+        <v>44870.71875</v>
+      </c>
+      <c r="B6986" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6986" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6987">
+      <c r="A6987" s="6" t="n">
+        <v>44870.729166666664</v>
+      </c>
+      <c r="B6987" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6987" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6988">
+      <c r="A6988" s="6" t="n">
+        <v>44870.739583333336</v>
+      </c>
+      <c r="B6988" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C6988" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6989">
+      <c r="A6989" s="6" t="n">
+        <v>44870.75</v>
+      </c>
+      <c r="B6989" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6989" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6990">
+      <c r="A6990" s="6" t="n">
+        <v>44870.760416666664</v>
+      </c>
+      <c r="B6990" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6990" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6991">
+      <c r="A6991" s="6" t="n">
+        <v>44870.770833333336</v>
+      </c>
+      <c r="B6991" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6991" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6992">
+      <c r="A6992" s="6" t="n">
+        <v>44870.78125</v>
+      </c>
+      <c r="B6992" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6992" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6993">
+      <c r="A6993" s="6" t="n">
+        <v>44870.791666666664</v>
+      </c>
+      <c r="B6993" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6993" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6994">
+      <c r="A6994" s="6" t="n">
+        <v>44870.802083333336</v>
+      </c>
+      <c r="B6994" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6994" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6995">
+      <c r="A6995" s="6" t="n">
+        <v>44870.8125</v>
+      </c>
+      <c r="B6995" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6995" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6996">
+      <c r="A6996" s="6" t="n">
+        <v>44870.822916666664</v>
+      </c>
+      <c r="B6996" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6996" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6997">
+      <c r="A6997" s="6" t="n">
+        <v>44870.833333333336</v>
+      </c>
+      <c r="B6997" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6997" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6998">
+      <c r="A6998" s="6" t="n">
+        <v>44870.84375</v>
+      </c>
+      <c r="B6998" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6998" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6999">
+      <c r="A6999" s="6" t="n">
+        <v>44870.854166666664</v>
+      </c>
+      <c r="B6999" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6999" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7000">
+      <c r="A7000" s="6" t="n">
+        <v>44870.864583333336</v>
+      </c>
+      <c r="B7000" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7000" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7001">
+      <c r="A7001" s="6" t="n">
+        <v>44870.875</v>
+      </c>
+      <c r="B7001" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7001" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="7002">
+      <c r="A7002" s="6" t="n">
+        <v>44870.885416666664</v>
+      </c>
+      <c r="B7002" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7002" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7003">
+      <c r="A7003" s="6" t="n">
+        <v>44870.895833333336</v>
+      </c>
+      <c r="B7003" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7003" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7004">
+      <c r="A7004" s="6" t="n">
+        <v>44870.90625</v>
+      </c>
+      <c r="B7004" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7004" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7005">
+      <c r="A7005" s="6" t="n">
+        <v>44870.916666666664</v>
+      </c>
+      <c r="B7005" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7005" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7006">
+      <c r="A7006" s="6" t="n">
+        <v>44870.927083333336</v>
+      </c>
+      <c r="B7006" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7006" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7007">
+      <c r="A7007" s="6" t="n">
+        <v>44870.9375</v>
+      </c>
+      <c r="B7007" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7007" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="7008">
+      <c r="A7008" s="6" t="n">
+        <v>44870.947916666664</v>
+      </c>
+      <c r="B7008" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7008" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7009">
+      <c r="A7009" s="6" t="n">
+        <v>44870.958333333336</v>
+      </c>
+      <c r="B7009" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7009" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7010">
+      <c r="A7010" s="6" t="n">
+        <v>44870.96875</v>
+      </c>
+      <c r="B7010" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7010" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7011">
+      <c r="A7011" s="6" t="n">
+        <v>44870.979166666664</v>
+      </c>
+      <c r="B7011" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7011" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7012">
+      <c r="A7012" s="6" t="n">
+        <v>44870.989583333336</v>
+      </c>
+      <c r="B7012" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7012" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7013">
+      <c r="A7013" s="6" t="n">
+        <v>44871.0</v>
+      </c>
+      <c r="B7013" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7013" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7014">
+      <c r="A7014" s="6" t="n">
+        <v>44871.010416666664</v>
+      </c>
+      <c r="B7014" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7014" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7015">
+      <c r="A7015" s="6" t="n">
+        <v>44871.020833333336</v>
+      </c>
+      <c r="B7015" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7015" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7016">
+      <c r="A7016" s="6" t="n">
+        <v>44871.03125</v>
+      </c>
+      <c r="B7016" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7016" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7017">
+      <c r="A7017" s="6" t="n">
+        <v>44871.041666666664</v>
+      </c>
+      <c r="B7017" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7017" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7018">
+      <c r="A7018" s="6" t="n">
+        <v>44871.052083333336</v>
+      </c>
+      <c r="B7018" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7018" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7019">
+      <c r="A7019" s="6" t="n">
+        <v>44871.0625</v>
+      </c>
+      <c r="B7019" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7019" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7020">
+      <c r="A7020" s="6" t="n">
+        <v>44871.072916666664</v>
+      </c>
+      <c r="B7020" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7020" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7021">
+      <c r="A7021" s="6" t="n">
+        <v>44871.083333333336</v>
+      </c>
+      <c r="B7021" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7021" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7022">
+      <c r="A7022" s="6" t="n">
+        <v>44871.09375</v>
+      </c>
+      <c r="B7022" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7022" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7023">
+      <c r="A7023" s="6" t="n">
+        <v>44871.104166666664</v>
+      </c>
+      <c r="B7023" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7023" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7024">
+      <c r="A7024" s="6" t="n">
+        <v>44871.114583333336</v>
+      </c>
+      <c r="B7024" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7024" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7025">
+      <c r="A7025" s="6" t="n">
+        <v>44871.125</v>
+      </c>
+      <c r="B7025" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7025" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7026">
+      <c r="A7026" s="6" t="n">
+        <v>44871.135416666664</v>
+      </c>
+      <c r="B7026" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7026" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7027">
+      <c r="A7027" s="6" t="n">
+        <v>44871.145833333336</v>
+      </c>
+      <c r="B7027" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7027" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7028">
+      <c r="A7028" s="6" t="n">
+        <v>44871.15625</v>
+      </c>
+      <c r="B7028" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7028" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7029">
+      <c r="A7029" s="6" t="n">
+        <v>44871.166666666664</v>
+      </c>
+      <c r="B7029" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7029" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7030">
+      <c r="A7030" s="6" t="n">
+        <v>44871.177083333336</v>
+      </c>
+      <c r="B7030" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7030" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7031">
+      <c r="A7031" s="6" t="n">
+        <v>44871.1875</v>
+      </c>
+      <c r="B7031" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7031" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7032">
+      <c r="A7032" s="6" t="n">
+        <v>44871.197916666664</v>
+      </c>
+      <c r="B7032" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7032" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7033">
+      <c r="A7033" s="6" t="n">
+        <v>44871.208333333336</v>
+      </c>
+      <c r="B7033" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7033" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7034">
+      <c r="A7034" s="6" t="n">
+        <v>44871.21875</v>
+      </c>
+      <c r="B7034" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7034" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7035">
+      <c r="A7035" s="6" t="n">
+        <v>44871.229166666664</v>
+      </c>
+      <c r="B7035" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7035" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7036">
+      <c r="A7036" s="6" t="n">
+        <v>44871.239583333336</v>
+      </c>
+      <c r="B7036" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7036" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7037">
+      <c r="A7037" s="6" t="n">
+        <v>44871.25</v>
+      </c>
+      <c r="B7037" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7037" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7038">
+      <c r="A7038" s="6" t="n">
+        <v>44871.260416666664</v>
+      </c>
+      <c r="B7038" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7038" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7039">
+      <c r="A7039" s="6" t="n">
+        <v>44871.270833333336</v>
+      </c>
+      <c r="B7039" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7039" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7040">
+      <c r="A7040" s="6" t="n">
+        <v>44871.28125</v>
+      </c>
+      <c r="B7040" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7040" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7041">
+      <c r="A7041" s="6" t="n">
+        <v>44871.291666666664</v>
+      </c>
+      <c r="B7041" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7041" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7042">
+      <c r="A7042" s="6" t="n">
+        <v>44871.302083333336</v>
+      </c>
+      <c r="B7042" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7042" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7043">
+      <c r="A7043" s="6" t="n">
+        <v>44871.3125</v>
+      </c>
+      <c r="B7043" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7043" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7044">
+      <c r="A7044" s="6" t="n">
+        <v>44871.322916666664</v>
+      </c>
+      <c r="B7044" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7044" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7045">
+      <c r="A7045" s="6" t="n">
+        <v>44871.333333333336</v>
+      </c>
+      <c r="B7045" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7045" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7046">
+      <c r="A7046" s="6" t="n">
+        <v>44871.34375</v>
+      </c>
+      <c r="B7046" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7046" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7047">
+      <c r="A7047" s="6" t="n">
+        <v>44871.354166666664</v>
+      </c>
+      <c r="B7047" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7047" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7048">
+      <c r="A7048" s="6" t="n">
+        <v>44871.364583333336</v>
+      </c>
+      <c r="B7048" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7048" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7049">
+      <c r="A7049" s="6" t="n">
+        <v>44871.375</v>
+      </c>
+      <c r="B7049" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7049" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7050">
+      <c r="A7050" s="6" t="n">
+        <v>44871.385416666664</v>
+      </c>
+      <c r="B7050" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7050" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7051">
+      <c r="A7051" s="6" t="n">
+        <v>44871.395833333336</v>
+      </c>
+      <c r="B7051" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7051" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7052">
+      <c r="A7052" s="6" t="n">
+        <v>44871.40625</v>
+      </c>
+      <c r="B7052" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C7052" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7053">
+      <c r="A7053" s="6" t="n">
+        <v>44871.416666666664</v>
+      </c>
+      <c r="B7053" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7053" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7054">
+      <c r="A7054" s="6" t="n">
+        <v>44871.427083333336</v>
+      </c>
+      <c r="B7054" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C7054" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7055">
+      <c r="A7055" s="6" t="n">
+        <v>44871.4375</v>
+      </c>
+      <c r="B7055" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7055" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7056">
+      <c r="A7056" s="6" t="n">
+        <v>44871.447916666664</v>
+      </c>
+      <c r="B7056" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C7056" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7057">
+      <c r="A7057" s="6" t="n">
+        <v>44871.458333333336</v>
+      </c>
+      <c r="B7057" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7057" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7058">
+      <c r="A7058" s="6" t="n">
+        <v>44871.46875</v>
+      </c>
+      <c r="B7058" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C7058" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7059">
+      <c r="A7059" s="6" t="n">
+        <v>44871.479166666664</v>
+      </c>
+      <c r="B7059" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7059" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7060">
+      <c r="A7060" s="6" t="n">
+        <v>44871.489583333336</v>
+      </c>
+      <c r="B7060" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7060" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7061">
+      <c r="A7061" s="6" t="n">
+        <v>44871.5</v>
+      </c>
+      <c r="B7061" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C7061" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7062">
+      <c r="A7062" s="6" t="n">
+        <v>44871.510416666664</v>
+      </c>
+      <c r="B7062" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7062" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7063">
+      <c r="A7063" s="6" t="n">
+        <v>44871.520833333336</v>
+      </c>
+      <c r="B7063" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7063" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7064">
+      <c r="A7064" s="6" t="n">
+        <v>44871.53125</v>
+      </c>
+      <c r="B7064" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7064" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="7065">
+      <c r="A7065" s="6" t="n">
+        <v>44871.541666666664</v>
+      </c>
+      <c r="B7065" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C7065" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7066">
+      <c r="A7066" s="6" t="n">
+        <v>44871.552083333336</v>
+      </c>
+      <c r="B7066" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C7066" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="7067">
+      <c r="A7067" s="6" t="n">
+        <v>44871.5625</v>
+      </c>
+      <c r="B7067" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C7067" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7068">
+      <c r="A7068" s="6" t="n">
+        <v>44871.572916666664</v>
+      </c>
+      <c r="B7068" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C7068" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7069">
+      <c r="A7069" s="6" t="n">
+        <v>44871.583333333336</v>
+      </c>
+      <c r="B7069" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7069" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7070">
+      <c r="A7070" s="6" t="n">
+        <v>44871.59375</v>
+      </c>
+      <c r="B7070" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7070" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7071">
+      <c r="A7071" s="6" t="n">
+        <v>44871.604166666664</v>
+      </c>
+      <c r="B7071" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C7071" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="7072">
+      <c r="A7072" s="6" t="n">
+        <v>44871.614583333336</v>
+      </c>
+      <c r="B7072" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C7072" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7073">
+      <c r="A7073" s="6" t="n">
+        <v>44871.625</v>
+      </c>
+      <c r="B7073" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7073" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7074">
+      <c r="A7074" s="6" t="n">
+        <v>44871.635416666664</v>
+      </c>
+      <c r="B7074" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7074" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7075">
+      <c r="A7075" s="6" t="n">
+        <v>44871.645833333336</v>
+      </c>
+      <c r="B7075" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C7075" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7076">
+      <c r="A7076" s="6" t="n">
+        <v>44871.65625</v>
+      </c>
+      <c r="B7076" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7076" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7077">
+      <c r="A7077" s="6" t="n">
+        <v>44871.666666666664</v>
+      </c>
+      <c r="B7077" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7077" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="7078">
+      <c r="A7078" s="6" t="n">
+        <v>44871.677083333336</v>
+      </c>
+      <c r="B7078" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7078" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7079">
+      <c r="A7079" s="6" t="n">
+        <v>44871.6875</v>
+      </c>
+      <c r="B7079" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7079" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7080">
+      <c r="A7080" s="6" t="n">
+        <v>44871.697916666664</v>
+      </c>
+      <c r="B7080" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7080" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7081">
+      <c r="A7081" s="6" t="n">
+        <v>44871.708333333336</v>
+      </c>
+      <c r="B7081" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7081" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7082">
+      <c r="A7082" s="6" t="n">
+        <v>44871.71875</v>
+      </c>
+      <c r="B7082" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7082" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7083">
+      <c r="A7083" s="6" t="n">
+        <v>44871.729166666664</v>
+      </c>
+      <c r="B7083" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7083" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7084">
+      <c r="A7084" s="6" t="n">
+        <v>44871.739583333336</v>
+      </c>
+      <c r="B7084" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7084" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7085">
+      <c r="A7085" s="6" t="n">
+        <v>44871.75</v>
+      </c>
+      <c r="B7085" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7085" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7086">
+      <c r="A7086" s="6" t="n">
+        <v>44871.760416666664</v>
+      </c>
+      <c r="B7086" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7086" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7087">
+      <c r="A7087" s="6" t="n">
+        <v>44871.770833333336</v>
+      </c>
+      <c r="B7087" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7087" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7088">
+      <c r="A7088" s="6" t="n">
+        <v>44871.78125</v>
+      </c>
+      <c r="B7088" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7088" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7089">
+      <c r="A7089" s="6" t="n">
+        <v>44871.791666666664</v>
+      </c>
+      <c r="B7089" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7089" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7090">
+      <c r="A7090" s="6" t="n">
+        <v>44871.802083333336</v>
+      </c>
+      <c r="B7090" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7090" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="7091">
+      <c r="A7091" s="6" t="n">
+        <v>44871.8125</v>
+      </c>
+      <c r="B7091" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7091" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7092">
+      <c r="A7092" s="6" t="n">
+        <v>44871.822916666664</v>
+      </c>
+      <c r="B7092" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7092" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7093">
+      <c r="A7093" s="6" t="n">
+        <v>44871.833333333336</v>
+      </c>
+      <c r="B7093" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7093" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7094">
+      <c r="A7094" s="6" t="n">
+        <v>44871.84375</v>
+      </c>
+      <c r="B7094" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7094" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7095">
+      <c r="A7095" s="6" t="n">
+        <v>44871.854166666664</v>
+      </c>
+      <c r="B7095" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7095" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7096">
+      <c r="A7096" s="6" t="n">
+        <v>44871.864583333336</v>
+      </c>
+      <c r="B7096" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7096" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7097">
+      <c r="A7097" s="6" t="n">
+        <v>44871.875</v>
+      </c>
+      <c r="B7097" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7097" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7098">
+      <c r="A7098" s="6" t="n">
+        <v>44871.885416666664</v>
+      </c>
+      <c r="B7098" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7098" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7099">
+      <c r="A7099" s="6" t="n">
+        <v>44871.895833333336</v>
+      </c>
+      <c r="B7099" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7099" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7100">
+      <c r="A7100" s="6" t="n">
+        <v>44871.90625</v>
+      </c>
+      <c r="B7100" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7100" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7101">
+      <c r="A7101" s="6" t="n">
+        <v>44871.916666666664</v>
+      </c>
+      <c r="B7101" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7101" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7102">
+      <c r="A7102" s="6" t="n">
+        <v>44871.927083333336</v>
+      </c>
+      <c r="B7102" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7102" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7103">
+      <c r="A7103" s="6" t="n">
+        <v>44871.9375</v>
+      </c>
+      <c r="B7103" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7103" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7104">
+      <c r="A7104" s="6" t="n">
+        <v>44871.947916666664</v>
+      </c>
+      <c r="B7104" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7104" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7105">
+      <c r="A7105" s="6" t="n">
+        <v>44871.958333333336</v>
+      </c>
+      <c r="B7105" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7105" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7106">
+      <c r="A7106" s="6" t="n">
+        <v>44871.96875</v>
+      </c>
+      <c r="B7106" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7106" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7107">
+      <c r="A7107" s="6" t="n">
+        <v>44871.979166666664</v>
+      </c>
+      <c r="B7107" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7107" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7108">
+      <c r="A7108" s="6" t="n">
+        <v>44871.989583333336</v>
+      </c>
+      <c r="B7108" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7108" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7109">
+      <c r="A7109" s="6" t="n">
+        <v>44872.0</v>
+      </c>
+      <c r="B7109" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7109" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7110">
+      <c r="A7110" s="6" t="n">
+        <v>44872.010416666664</v>
+      </c>
+      <c r="B7110" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7110" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7111">
+      <c r="A7111" s="6" t="n">
+        <v>44872.020833333336</v>
+      </c>
+      <c r="B7111" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7111" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7112">
+      <c r="A7112" s="6" t="n">
+        <v>44872.03125</v>
+      </c>
+      <c r="B7112" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7112" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7113">
+      <c r="A7113" s="6" t="n">
+        <v>44872.041666666664</v>
+      </c>
+      <c r="B7113" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7113" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7114">
+      <c r="A7114" s="6" t="n">
+        <v>44872.052083333336</v>
+      </c>
+      <c r="B7114" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7114" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7115">
+      <c r="A7115" s="6" t="n">
+        <v>44872.0625</v>
+      </c>
+      <c r="B7115" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7115" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7116">
+      <c r="A7116" s="6" t="n">
+        <v>44872.072916666664</v>
+      </c>
+      <c r="B7116" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7116" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7117">
+      <c r="A7117" s="6" t="n">
+        <v>44872.083333333336</v>
+      </c>
+      <c r="B7117" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7117" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7118">
+      <c r="A7118" s="6" t="n">
+        <v>44872.09375</v>
+      </c>
+      <c r="B7118" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7118" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7119">
+      <c r="A7119" s="6" t="n">
+        <v>44872.104166666664</v>
+      </c>
+      <c r="B7119" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7119" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7120">
+      <c r="A7120" s="6" t="n">
+        <v>44872.114583333336</v>
+      </c>
+      <c r="B7120" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7120" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7121">
+      <c r="A7121" s="6" t="n">
+        <v>44872.125</v>
+      </c>
+      <c r="B7121" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7121" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7122">
+      <c r="A7122" s="6" t="n">
+        <v>44872.135416666664</v>
+      </c>
+      <c r="B7122" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7122" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7123">
+      <c r="A7123" s="6" t="n">
+        <v>44872.145833333336</v>
+      </c>
+      <c r="B7123" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7123" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7124">
+      <c r="A7124" s="6" t="n">
+        <v>44872.15625</v>
+      </c>
+      <c r="B7124" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7124" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7125">
+      <c r="A7125" s="6" t="n">
+        <v>44872.166666666664</v>
+      </c>
+      <c r="B7125" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7125" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7126">
+      <c r="A7126" s="6" t="n">
+        <v>44872.177083333336</v>
+      </c>
+      <c r="B7126" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7126" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7127">
+      <c r="A7127" s="6" t="n">
+        <v>44872.1875</v>
+      </c>
+      <c r="B7127" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7127" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7128">
+      <c r="A7128" s="6" t="n">
+        <v>44872.197916666664</v>
+      </c>
+      <c r="B7128" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7128" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7129">
+      <c r="A7129" s="6" t="n">
+        <v>44872.208333333336</v>
+      </c>
+      <c r="B7129" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7129" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7130">
+      <c r="A7130" s="6" t="n">
+        <v>44872.21875</v>
+      </c>
+      <c r="B7130" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7130" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7131">
+      <c r="A7131" s="6" t="n">
+        <v>44872.229166666664</v>
+      </c>
+      <c r="B7131" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7131" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7132">
+      <c r="A7132" s="6" t="n">
+        <v>44872.239583333336</v>
+      </c>
+      <c r="B7132" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7132" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7133">
+      <c r="A7133" s="6" t="n">
+        <v>44872.25</v>
+      </c>
+      <c r="B7133" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7133" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7134">
+      <c r="A7134" s="6" t="n">
+        <v>44872.260416666664</v>
+      </c>
+      <c r="B7134" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7134" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7135">
+      <c r="A7135" s="6" t="n">
+        <v>44872.270833333336</v>
+      </c>
+      <c r="B7135" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7135" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7136">
+      <c r="A7136" s="6" t="n">
+        <v>44872.28125</v>
+      </c>
+      <c r="B7136" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7136" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7137">
+      <c r="A7137" s="6" t="n">
+        <v>44872.291666666664</v>
+      </c>
+      <c r="B7137" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7137" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7138">
+      <c r="A7138" s="6" t="n">
+        <v>44872.302083333336</v>
+      </c>
+      <c r="B7138" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7138" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7139">
+      <c r="A7139" s="6" t="n">
+        <v>44872.3125</v>
+      </c>
+      <c r="B7139" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C7139" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7140">
+      <c r="A7140" s="6" t="n">
+        <v>44872.322916666664</v>
+      </c>
+      <c r="B7140" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C7140" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7141">
+      <c r="A7141" s="6" t="n">
+        <v>44872.333333333336</v>
+      </c>
+      <c r="B7141" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7141" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7142">
+      <c r="A7142" s="6" t="n">
+        <v>44872.34375</v>
+      </c>
+      <c r="B7142" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C7142" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="7143">
+      <c r="A7143" s="6" t="n">
+        <v>44872.354166666664</v>
+      </c>
+      <c r="B7143" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7143" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7144">
+      <c r="A7144" s="6" t="n">
+        <v>44872.364583333336</v>
+      </c>
+      <c r="B7144" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C7144" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7145">
+      <c r="A7145" s="6" t="n">
+        <v>44872.375</v>
+      </c>
+      <c r="B7145" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7145" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7146">
+      <c r="A7146" s="6" t="n">
+        <v>44872.385416666664</v>
+      </c>
+      <c r="B7146" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7146" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="7147">
+      <c r="A7147" s="6" t="n">
+        <v>44872.395833333336</v>
+      </c>
+      <c r="B7147" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7147" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7148">
+      <c r="A7148" s="6" t="n">
+        <v>44872.40625</v>
+      </c>
+      <c r="B7148" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7148" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7149">
+      <c r="A7149" s="6" t="n">
+        <v>44872.416666666664</v>
+      </c>
+      <c r="B7149" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C7149" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7150">
+      <c r="A7150" s="6" t="n">
+        <v>44872.427083333336</v>
+      </c>
+      <c r="B7150" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7150" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7151">
+      <c r="A7151" s="6" t="n">
+        <v>44872.4375</v>
+      </c>
+      <c r="B7151" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7151" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7152">
+      <c r="A7152" s="6" t="n">
+        <v>44872.447916666664</v>
+      </c>
+      <c r="B7152" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7152" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7153">
+      <c r="A7153" s="6" t="n">
+        <v>44872.458333333336</v>
+      </c>
+      <c r="B7153" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7153" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7154">
+      <c r="A7154" s="6" t="n">
+        <v>44872.46875</v>
+      </c>
+      <c r="B7154" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7154" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7155">
+      <c r="A7155" s="6" t="n">
+        <v>44872.479166666664</v>
+      </c>
+      <c r="B7155" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C7155" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7156">
+      <c r="A7156" s="6" t="n">
+        <v>44872.489583333336</v>
+      </c>
+      <c r="B7156" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7156" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7157">
+      <c r="A7157" s="6" t="n">
+        <v>44872.5</v>
+      </c>
+      <c r="B7157" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7157" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7158">
+      <c r="A7158" s="6" t="n">
+        <v>44872.510416666664</v>
+      </c>
+      <c r="B7158" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7158" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7159">
+      <c r="A7159" s="6" t="n">
+        <v>44872.520833333336</v>
+      </c>
+      <c r="B7159" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7159" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7160">
+      <c r="A7160" s="6" t="n">
+        <v>44872.53125</v>
+      </c>
+      <c r="B7160" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7160" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="7161">
+      <c r="A7161" s="6" t="n">
+        <v>44872.541666666664</v>
+      </c>
+      <c r="B7161" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C7161" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7162">
+      <c r="A7162" s="6" t="n">
+        <v>44872.552083333336</v>
+      </c>
+      <c r="B7162" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7162" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7163">
+      <c r="A7163" s="6" t="n">
+        <v>44872.5625</v>
+      </c>
+      <c r="B7163" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7163" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7164">
+      <c r="A7164" s="6" t="n">
+        <v>44872.572916666664</v>
+      </c>
+      <c r="B7164" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7164" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7165">
+      <c r="A7165" s="6" t="n">
+        <v>44872.583333333336</v>
+      </c>
+      <c r="B7165" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7165" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7166">
+      <c r="A7166" s="6" t="n">
+        <v>44872.59375</v>
+      </c>
+      <c r="B7166" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7166" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7167">
+      <c r="A7167" s="6" t="n">
+        <v>44872.604166666664</v>
+      </c>
+      <c r="B7167" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7167" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7168">
+      <c r="A7168" s="6" t="n">
+        <v>44872.614583333336</v>
+      </c>
+      <c r="B7168" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C7168" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7169">
+      <c r="A7169" s="6" t="n">
+        <v>44872.625</v>
+      </c>
+      <c r="B7169" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7169" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7170">
+      <c r="A7170" s="6" t="n">
+        <v>44872.635416666664</v>
+      </c>
+      <c r="B7170" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7170" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7171">
+      <c r="A7171" s="6" t="n">
+        <v>44872.645833333336</v>
+      </c>
+      <c r="B7171" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7171" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7172">
+      <c r="A7172" s="6" t="n">
+        <v>44872.65625</v>
+      </c>
+      <c r="B7172" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7172" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7173">
+      <c r="A7173" s="6" t="n">
+        <v>44872.666666666664</v>
+      </c>
+      <c r="B7173" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C7173" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7174">
+      <c r="A7174" s="6" t="n">
+        <v>44872.677083333336</v>
+      </c>
+      <c r="B7174" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7174" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="7175">
+      <c r="A7175" s="6" t="n">
+        <v>44872.6875</v>
+      </c>
+      <c r="B7175" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7175" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="7176">
+      <c r="A7176" s="6" t="n">
+        <v>44872.697916666664</v>
+      </c>
+      <c r="B7176" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C7176" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7177">
+      <c r="A7177" s="6" t="n">
+        <v>44872.708333333336</v>
+      </c>
+      <c r="B7177" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C7177" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7178">
+      <c r="A7178" s="6" t="n">
+        <v>44872.71875</v>
+      </c>
+      <c r="B7178" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7178" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="7179">
+      <c r="A7179" s="6" t="n">
+        <v>44872.729166666664</v>
+      </c>
+      <c r="B7179" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C7179" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7180">
+      <c r="A7180" s="6" t="n">
+        <v>44872.739583333336</v>
+      </c>
+      <c r="B7180" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7180" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="7181">
+      <c r="A7181" s="6" t="n">
+        <v>44872.75</v>
+      </c>
+      <c r="B7181" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7181" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7182">
+      <c r="A7182" s="6" t="n">
+        <v>44872.760416666664</v>
+      </c>
+      <c r="B7182" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C7182" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7183">
+      <c r="A7183" s="6" t="n">
+        <v>44872.770833333336</v>
+      </c>
+      <c r="B7183" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7183" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7184">
+      <c r="A7184" s="6" t="n">
+        <v>44872.78125</v>
+      </c>
+      <c r="B7184" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C7184" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7185">
+      <c r="A7185" s="6" t="n">
+        <v>44872.791666666664</v>
+      </c>
+      <c r="B7185" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7185" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7186">
+      <c r="A7186" s="6" t="n">
+        <v>44872.802083333336</v>
+      </c>
+      <c r="B7186" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7186" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7187">
+      <c r="A7187" s="6" t="n">
+        <v>44872.8125</v>
+      </c>
+      <c r="B7187" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7187" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7188">
+      <c r="A7188" s="6" t="n">
+        <v>44872.822916666664</v>
+      </c>
+      <c r="B7188" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7188" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7189">
+      <c r="A7189" s="6" t="n">
+        <v>44872.833333333336</v>
+      </c>
+      <c r="B7189" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7189" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7190">
+      <c r="A7190" s="6" t="n">
+        <v>44872.84375</v>
+      </c>
+      <c r="B7190" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7190" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7191">
+      <c r="A7191" s="6" t="n">
+        <v>44872.854166666664</v>
+      </c>
+      <c r="B7191" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C7191" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7192">
+      <c r="A7192" s="6" t="n">
+        <v>44872.864583333336</v>
+      </c>
+      <c r="B7192" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7192" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7193">
+      <c r="A7193" s="6" t="n">
+        <v>44872.875</v>
+      </c>
+      <c r="B7193" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7193" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7194">
+      <c r="A7194" s="6" t="n">
+        <v>44872.885416666664</v>
+      </c>
+      <c r="B7194" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7194" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7195">
+      <c r="A7195" s="6" t="n">
+        <v>44872.895833333336</v>
+      </c>
+      <c r="B7195" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7195" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7196">
+      <c r="A7196" s="6" t="n">
+        <v>44872.90625</v>
+      </c>
+      <c r="B7196" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7196" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7197">
+      <c r="A7197" s="6" t="n">
+        <v>44872.916666666664</v>
+      </c>
+      <c r="B7197" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7197" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7198">
+      <c r="A7198" s="6" t="n">
+        <v>44872.927083333336</v>
+      </c>
+      <c r="B7198" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7198" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7199">
+      <c r="A7199" s="6" t="n">
+        <v>44872.9375</v>
+      </c>
+      <c r="B7199" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7199" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7200">
+      <c r="A7200" s="6" t="n">
+        <v>44872.947916666664</v>
+      </c>
+      <c r="B7200" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7200" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7201">
+      <c r="A7201" s="6" t="n">
+        <v>44872.958333333336</v>
+      </c>
+      <c r="B7201" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7201" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7202">
+      <c r="A7202" s="6" t="n">
+        <v>44872.96875</v>
+      </c>
+      <c r="B7202" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7202" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7203">
+      <c r="A7203" s="6" t="n">
+        <v>44872.979166666664</v>
+      </c>
+      <c r="B7203" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7203" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7204">
+      <c r="A7204" s="6" t="n">
+        <v>44872.989583333336</v>
+      </c>
+      <c r="B7204" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7204" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7205">
+      <c r="A7205" s="6" t="n">
+        <v>44873.0</v>
+      </c>
+      <c r="B7205" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7205" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7206">
+      <c r="A7206" s="6" t="n">
+        <v>44873.010416666664</v>
+      </c>
+      <c r="B7206" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7206" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7207">
+      <c r="A7207" s="6" t="n">
+        <v>44873.020833333336</v>
+      </c>
+      <c r="B7207" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7207" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7208">
+      <c r="A7208" s="6" t="n">
+        <v>44873.03125</v>
+      </c>
+      <c r="B7208" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7208" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7209">
+      <c r="A7209" s="6" t="n">
+        <v>44873.041666666664</v>
+      </c>
+      <c r="B7209" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7209" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7210">
+      <c r="A7210" s="6" t="n">
+        <v>44873.052083333336</v>
+      </c>
+      <c r="B7210" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7210" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7211">
+      <c r="A7211" s="6" t="n">
+        <v>44873.0625</v>
+      </c>
+      <c r="B7211" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7211" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7212">
+      <c r="A7212" s="6" t="n">
+        <v>44873.072916666664</v>
+      </c>
+      <c r="B7212" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7212" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7213">
+      <c r="A7213" s="6" t="n">
+        <v>44873.083333333336</v>
+      </c>
+      <c r="B7213" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7213" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7214">
+      <c r="A7214" s="6" t="n">
+        <v>44873.09375</v>
+      </c>
+      <c r="B7214" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7214" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7215">
+      <c r="A7215" s="6" t="n">
+        <v>44873.104166666664</v>
+      </c>
+      <c r="B7215" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7215" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7216">
+      <c r="A7216" s="6" t="n">
+        <v>44873.114583333336</v>
+      </c>
+      <c r="B7216" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7216" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7217">
+      <c r="A7217" s="6" t="n">
+        <v>44873.125</v>
+      </c>
+      <c r="B7217" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7217" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7218">
+      <c r="A7218" s="6" t="n">
+        <v>44873.135416666664</v>
+      </c>
+      <c r="B7218" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7218" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7219">
+      <c r="A7219" s="6" t="n">
+        <v>44873.145833333336</v>
+      </c>
+      <c r="B7219" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7219" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7220">
+      <c r="A7220" s="6" t="n">
+        <v>44873.15625</v>
+      </c>
+      <c r="B7220" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7220" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7221">
+      <c r="A7221" s="6" t="n">
+        <v>44873.166666666664</v>
+      </c>
+      <c r="B7221" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7221" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7222">
+      <c r="A7222" s="6" t="n">
+        <v>44873.177083333336</v>
+      </c>
+      <c r="B7222" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7222" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7223">
+      <c r="A7223" s="6" t="n">
+        <v>44873.1875</v>
+      </c>
+      <c r="B7223" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7223" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7224">
+      <c r="A7224" s="6" t="n">
+        <v>44873.197916666664</v>
+      </c>
+      <c r="B7224" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7224" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7225">
+      <c r="A7225" s="6" t="n">
+        <v>44873.208333333336</v>
+      </c>
+      <c r="B7225" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7225" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7226">
+      <c r="A7226" s="6" t="n">
+        <v>44873.21875</v>
+      </c>
+      <c r="B7226" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7226" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7227">
+      <c r="A7227" s="6" t="n">
+        <v>44873.229166666664</v>
+      </c>
+      <c r="B7227" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7227" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7228">
+      <c r="A7228" s="6" t="n">
+        <v>44873.239583333336</v>
+      </c>
+      <c r="B7228" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7228" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7229">
+      <c r="A7229" s="6" t="n">
+        <v>44873.25</v>
+      </c>
+      <c r="B7229" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7229" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7230">
+      <c r="A7230" s="6" t="n">
+        <v>44873.260416666664</v>
+      </c>
+      <c r="B7230" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7230" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7231">
+      <c r="A7231" s="6" t="n">
+        <v>44873.270833333336</v>
+      </c>
+      <c r="B7231" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7231" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7232">
+      <c r="A7232" s="6" t="n">
+        <v>44873.28125</v>
+      </c>
+      <c r="B7232" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7232" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7233">
+      <c r="A7233" s="6" t="n">
+        <v>44873.291666666664</v>
+      </c>
+      <c r="B7233" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7233" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7234">
+      <c r="A7234" s="6" t="n">
+        <v>44873.302083333336</v>
+      </c>
+      <c r="B7234" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7234" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7235">
+      <c r="A7235" s="6" t="n">
+        <v>44873.3125</v>
+      </c>
+      <c r="B7235" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7235" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7236">
+      <c r="A7236" s="6" t="n">
+        <v>44873.322916666664</v>
+      </c>
+      <c r="B7236" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7236" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7237">
+      <c r="A7237" s="6" t="n">
+        <v>44873.333333333336</v>
+      </c>
+      <c r="B7237" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7237" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7238">
+      <c r="A7238" s="6" t="n">
+        <v>44873.34375</v>
+      </c>
+      <c r="B7238" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7238" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7239">
+      <c r="A7239" s="6" t="n">
+        <v>44873.354166666664</v>
+      </c>
+      <c r="B7239" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7239" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7240">
+      <c r="A7240" s="6" t="n">
+        <v>44873.364583333336</v>
+      </c>
+      <c r="B7240" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7240" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="7241">
+      <c r="A7241" s="6" t="n">
+        <v>44873.375</v>
+      </c>
+      <c r="B7241" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7241" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7242">
+      <c r="A7242" s="6" t="n">
+        <v>44873.385416666664</v>
+      </c>
+      <c r="B7242" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7242" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7243">
+      <c r="A7243" s="6" t="n">
+        <v>44873.395833333336</v>
+      </c>
+      <c r="B7243" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7243" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="7244">
+      <c r="A7244" s="6" t="n">
+        <v>44873.40625</v>
+      </c>
+      <c r="B7244" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7244" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="7245">
+      <c r="A7245" s="6" t="n">
+        <v>44873.416666666664</v>
+      </c>
+      <c r="B7245" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7245" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7246">
+      <c r="A7246" s="6" t="n">
+        <v>44873.427083333336</v>
+      </c>
+      <c r="B7246" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7246" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7247">
+      <c r="A7247" s="6" t="n">
+        <v>44873.4375</v>
+      </c>
+      <c r="B7247" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7247" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7248">
+      <c r="A7248" s="6" t="n">
+        <v>44873.447916666664</v>
+      </c>
+      <c r="B7248" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7248" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7249">
+      <c r="A7249" s="6" t="n">
+        <v>44873.458333333336</v>
+      </c>
+      <c r="B7249" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7249" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7250">
+      <c r="A7250" s="6" t="n">
+        <v>44873.46875</v>
+      </c>
+      <c r="B7250" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7250" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7251">
+      <c r="A7251" s="6" t="n">
+        <v>44873.479166666664</v>
+      </c>
+      <c r="B7251" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7251" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7252">
+      <c r="A7252" s="6" t="n">
+        <v>44873.489583333336</v>
+      </c>
+      <c r="B7252" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7252" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7253">
+      <c r="A7253" s="6" t="n">
+        <v>44873.5</v>
+      </c>
+      <c r="B7253" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7253" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7254">
+      <c r="A7254" s="6" t="n">
+        <v>44873.510416666664</v>
+      </c>
+      <c r="B7254" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7254" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7255">
+      <c r="A7255" s="6" t="n">
+        <v>44873.520833333336</v>
+      </c>
+      <c r="B7255" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7255" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7256">
+      <c r="A7256" s="6" t="n">
+        <v>44873.53125</v>
+      </c>
+      <c r="B7256" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7256" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7257">
+      <c r="A7257" s="6" t="n">
+        <v>44873.541666666664</v>
+      </c>
+      <c r="B7257" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7257" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7258">
+      <c r="A7258" s="6" t="n">
+        <v>44873.552083333336</v>
+      </c>
+      <c r="B7258" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7258" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7259">
+      <c r="A7259" s="6" t="n">
+        <v>44873.5625</v>
+      </c>
+      <c r="B7259" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7259" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7260">
+      <c r="A7260" s="6" t="n">
+        <v>44873.572916666664</v>
+      </c>
+      <c r="B7260" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7260" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="7261">
+      <c r="A7261" s="6" t="n">
+        <v>44873.583333333336</v>
+      </c>
+      <c r="B7261" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7261" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7262">
+      <c r="A7262" s="6" t="n">
+        <v>44873.59375</v>
+      </c>
+      <c r="B7262" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C7262" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7263">
+      <c r="A7263" s="6" t="n">
+        <v>44873.604166666664</v>
+      </c>
+      <c r="B7263" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C7263" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7264">
+      <c r="A7264" s="6" t="n">
+        <v>44873.614583333336</v>
+      </c>
+      <c r="B7264" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7264" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7265">
+      <c r="A7265" s="6" t="n">
+        <v>44873.625</v>
+      </c>
+      <c r="B7265" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7265" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="7266">
+      <c r="A7266" s="6" t="n">
+        <v>44873.635416666664</v>
+      </c>
+      <c r="B7266" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C7266" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="7267">
+      <c r="A7267" s="6" t="n">
+        <v>44873.645833333336</v>
+      </c>
+      <c r="B7267" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7267" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7268">
+      <c r="A7268" s="6" t="n">
+        <v>44873.65625</v>
+      </c>
+      <c r="B7268" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C7268" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7269">
+      <c r="A7269" s="6" t="n">
+        <v>44873.666666666664</v>
+      </c>
+      <c r="B7269" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7269" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7270">
+      <c r="A7270" s="6" t="n">
+        <v>44873.677083333336</v>
+      </c>
+      <c r="B7270" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7270" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="7271">
+      <c r="A7271" s="6" t="n">
+        <v>44873.6875</v>
+      </c>
+      <c r="B7271" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C7271" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7272">
+      <c r="A7272" s="6" t="n">
+        <v>44873.697916666664</v>
+      </c>
+      <c r="B7272" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C7272" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7273">
+      <c r="A7273" s="6" t="n">
+        <v>44873.708333333336</v>
+      </c>
+      <c r="B7273" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C7273" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7274">
+      <c r="A7274" s="6" t="n">
+        <v>44873.71875</v>
+      </c>
+      <c r="B7274" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C7274" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="7275">
+      <c r="A7275" s="6" t="n">
+        <v>44873.729166666664</v>
+      </c>
+      <c r="B7275" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7275" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="7276">
+      <c r="A7276" s="6" t="n">
+        <v>44873.739583333336</v>
+      </c>
+      <c r="B7276" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7276" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7277">
+      <c r="A7277" s="6" t="n">
+        <v>44873.75</v>
+      </c>
+      <c r="B7277" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C7277" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7278">
+      <c r="A7278" s="6" t="n">
+        <v>44873.760416666664</v>
+      </c>
+      <c r="B7278" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7278" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7279">
+      <c r="A7279" s="6" t="n">
+        <v>44873.770833333336</v>
+      </c>
+      <c r="B7279" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C7279" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7280">
+      <c r="A7280" s="6" t="n">
+        <v>44873.78125</v>
+      </c>
+      <c r="B7280" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C7280" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7281">
+      <c r="A7281" s="6" t="n">
+        <v>44873.791666666664</v>
+      </c>
+      <c r="B7281" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C7281" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7282">
+      <c r="A7282" s="6" t="n">
+        <v>44873.802083333336</v>
+      </c>
+      <c r="B7282" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7282" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7283">
+      <c r="A7283" s="6" t="n">
+        <v>44873.8125</v>
+      </c>
+      <c r="B7283" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7283" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7284">
+      <c r="A7284" s="6" t="n">
+        <v>44873.822916666664</v>
+      </c>
+      <c r="B7284" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C7284" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7285">
+      <c r="A7285" s="6" t="n">
+        <v>44873.833333333336</v>
+      </c>
+      <c r="B7285" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7285" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7286">
+      <c r="A7286" s="6" t="n">
+        <v>44873.84375</v>
+      </c>
+      <c r="B7286" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7286" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7287">
+      <c r="A7287" s="6" t="n">
+        <v>44873.854166666664</v>
+      </c>
+      <c r="B7287" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7287" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7288">
+      <c r="A7288" s="6" t="n">
+        <v>44873.864583333336</v>
+      </c>
+      <c r="B7288" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7288" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7289">
+      <c r="A7289" s="6" t="n">
+        <v>44873.875</v>
+      </c>
+      <c r="B7289" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7289" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7290">
+      <c r="A7290" s="6" t="n">
+        <v>44873.885416666664</v>
+      </c>
+      <c r="B7290" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7290" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7291">
+      <c r="A7291" s="6" t="n">
+        <v>44873.895833333336</v>
+      </c>
+      <c r="B7291" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7291" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7292">
+      <c r="A7292" s="6" t="n">
+        <v>44873.90625</v>
+      </c>
+      <c r="B7292" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7292" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7293">
+      <c r="A7293" s="6" t="n">
+        <v>44873.916666666664</v>
+      </c>
+      <c r="B7293" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7293" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7294">
+      <c r="A7294" s="6" t="n">
+        <v>44873.927083333336</v>
+      </c>
+      <c r="B7294" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7294" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7295">
+      <c r="A7295" s="6" t="n">
+        <v>44873.9375</v>
+      </c>
+      <c r="B7295" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7295" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7296">
+      <c r="A7296" s="6" t="n">
+        <v>44873.947916666664</v>
+      </c>
+      <c r="B7296" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7296" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7297">
+      <c r="A7297" s="6" t="n">
+        <v>44873.958333333336</v>
+      </c>
+      <c r="B7297" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7297" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7298">
+      <c r="A7298" s="6" t="n">
+        <v>44873.96875</v>
+      </c>
+      <c r="B7298" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7298" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7299">
+      <c r="A7299" s="6" t="n">
+        <v>44873.979166666664</v>
+      </c>
+      <c r="B7299" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7299" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7300">
+      <c r="A7300" s="6" t="n">
+        <v>44873.989583333336</v>
+      </c>
+      <c r="B7300" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7300" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7301">
+      <c r="A7301" s="6" t="n">
+        <v>44874.0</v>
+      </c>
+      <c r="B7301" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7301" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7302">
+      <c r="A7302" s="6" t="n">
+        <v>44874.010416666664</v>
+      </c>
+      <c r="B7302" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7302" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7303">
+      <c r="A7303" s="6" t="n">
+        <v>44874.020833333336</v>
+      </c>
+      <c r="B7303" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7303" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7304">
+      <c r="A7304" s="6" t="n">
+        <v>44874.03125</v>
+      </c>
+      <c r="B7304" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7304" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7305">
+      <c r="A7305" s="6" t="n">
+        <v>44874.041666666664</v>
+      </c>
+      <c r="B7305" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7305" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7306">
+      <c r="A7306" s="6" t="n">
+        <v>44874.052083333336</v>
+      </c>
+      <c r="B7306" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7306" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7307">
+      <c r="A7307" s="6" t="n">
+        <v>44874.0625</v>
+      </c>
+      <c r="B7307" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7307" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7308">
+      <c r="A7308" s="6" t="n">
+        <v>44874.072916666664</v>
+      </c>
+      <c r="B7308" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7308" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7309">
+      <c r="A7309" s="6" t="n">
+        <v>44874.083333333336</v>
+      </c>
+      <c r="B7309" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7309" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7310">
+      <c r="A7310" s="6" t="n">
+        <v>44874.09375</v>
+      </c>
+      <c r="B7310" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7310" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7311">
+      <c r="A7311" s="6" t="n">
+        <v>44874.104166666664</v>
+      </c>
+      <c r="B7311" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7311" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7312">
+      <c r="A7312" s="6" t="n">
+        <v>44874.114583333336</v>
+      </c>
+      <c r="B7312" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7312" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7313">
+      <c r="A7313" s="6" t="n">
+        <v>44874.125</v>
+      </c>
+      <c r="B7313" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7313" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7314">
+      <c r="A7314" s="6" t="n">
+        <v>44874.135416666664</v>
+      </c>
+      <c r="B7314" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7314" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7315">
+      <c r="A7315" s="6" t="n">
+        <v>44874.145833333336</v>
+      </c>
+      <c r="B7315" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7315" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7316">
+      <c r="A7316" s="6" t="n">
+        <v>44874.15625</v>
+      </c>
+      <c r="B7316" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7316" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7317">
+      <c r="A7317" s="6" t="n">
+        <v>44874.166666666664</v>
+      </c>
+      <c r="B7317" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7317" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7318">
+      <c r="A7318" s="6" t="n">
+        <v>44874.177083333336</v>
+      </c>
+      <c r="B7318" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7318" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7319">
+      <c r="A7319" s="6" t="n">
+        <v>44874.1875</v>
+      </c>
+      <c r="B7319" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7319" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7320">
+      <c r="A7320" s="6" t="n">
+        <v>44874.197916666664</v>
+      </c>
+      <c r="B7320" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7320" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7321">
+      <c r="A7321" s="6" t="n">
+        <v>44874.208333333336</v>
+      </c>
+      <c r="B7321" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7321" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7322">
+      <c r="A7322" s="6" t="n">
+        <v>44874.21875</v>
+      </c>
+      <c r="B7322" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7322" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7323">
+      <c r="A7323" s="6" t="n">
+        <v>44874.229166666664</v>
+      </c>
+      <c r="B7323" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7323" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7324">
+      <c r="A7324" s="6" t="n">
+        <v>44874.239583333336</v>
+      </c>
+      <c r="B7324" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7324" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7325">
+      <c r="A7325" s="6" t="n">
+        <v>44874.25</v>
+      </c>
+      <c r="B7325" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7325" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7326">
+      <c r="A7326" s="6" t="n">
+        <v>44874.260416666664</v>
+      </c>
+      <c r="B7326" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7326" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7327">
+      <c r="A7327" s="6" t="n">
+        <v>44874.270833333336</v>
+      </c>
+      <c r="B7327" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7327" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7328">
+      <c r="A7328" s="6" t="n">
+        <v>44874.28125</v>
+      </c>
+      <c r="B7328" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7328" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7329">
+      <c r="A7329" s="6" t="n">
+        <v>44874.291666666664</v>
+      </c>
+      <c r="B7329" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7329" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7330">
+      <c r="A7330" s="6" t="n">
+        <v>44874.302083333336</v>
+      </c>
+      <c r="B7330" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7330" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7331">
+      <c r="A7331" s="6" t="n">
+        <v>44874.3125</v>
+      </c>
+      <c r="B7331" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7331" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7332">
+      <c r="A7332" s="6" t="n">
+        <v>44874.322916666664</v>
+      </c>
+      <c r="B7332" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C7332" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7333">
+      <c r="A7333" s="6" t="n">
+        <v>44874.333333333336</v>
+      </c>
+      <c r="B7333" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7333" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7334">
+      <c r="A7334" s="6" t="n">
+        <v>44874.34375</v>
+      </c>
+      <c r="B7334" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7334" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7335">
+      <c r="A7335" s="6" t="n">
+        <v>44874.354166666664</v>
+      </c>
+      <c r="B7335" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7335" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="7336">
+      <c r="A7336" s="6" t="n">
+        <v>44874.364583333336</v>
+      </c>
+      <c r="B7336" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7336" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="7337">
+      <c r="A7337" s="6" t="n">
+        <v>44874.375</v>
+      </c>
+      <c r="B7337" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7337" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7338">
+      <c r="A7338" s="6" t="n">
+        <v>44874.385416666664</v>
+      </c>
+      <c r="B7338" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7338" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7339">
+      <c r="A7339" s="6" t="n">
+        <v>44874.395833333336</v>
+      </c>
+      <c r="B7339" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7339" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7340">
+      <c r="A7340" s="6" t="n">
+        <v>44874.40625</v>
+      </c>
+      <c r="B7340" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7340" s="1" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="7341">
+      <c r="A7341" s="6" t="n">
+        <v>44874.416666666664</v>
+      </c>
+      <c r="B7341" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7341" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="7342">
+      <c r="A7342" s="6" t="n">
+        <v>44874.427083333336</v>
+      </c>
+      <c r="B7342" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7342" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7343">
+      <c r="A7343" s="6" t="n">
+        <v>44874.4375</v>
+      </c>
+      <c r="B7343" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7343" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7344">
+      <c r="A7344" s="6" t="n">
+        <v>44874.447916666664</v>
+      </c>
+      <c r="B7344" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7344" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7345">
+      <c r="A7345" s="6" t="n">
+        <v>44874.458333333336</v>
+      </c>
+      <c r="B7345" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7345" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7346">
+      <c r="A7346" s="6" t="n">
+        <v>44874.46875</v>
+      </c>
+      <c r="B7346" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C7346" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7347">
+      <c r="A7347" s="6" t="n">
+        <v>44874.479166666664</v>
+      </c>
+      <c r="B7347" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7347" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7348">
+      <c r="A7348" s="6" t="n">
+        <v>44874.489583333336</v>
+      </c>
+      <c r="B7348" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7348" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7349">
+      <c r="A7349" s="6" t="n">
+        <v>44874.5</v>
+      </c>
+      <c r="B7349" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7349" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7350">
+      <c r="A7350" s="6" t="n">
+        <v>44874.510416666664</v>
+      </c>
+      <c r="B7350" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7350" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7351">
+      <c r="A7351" s="6" t="n">
+        <v>44874.520833333336</v>
+      </c>
+      <c r="B7351" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7351" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7352">
+      <c r="A7352" s="6" t="n">
+        <v>44874.53125</v>
+      </c>
+      <c r="B7352" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7352" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7353">
+      <c r="A7353" s="6" t="n">
+        <v>44874.541666666664</v>
+      </c>
+      <c r="B7353" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7353" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7354">
+      <c r="A7354" s="6" t="n">
+        <v>44874.552083333336</v>
+      </c>
+      <c r="B7354" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7354" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7355">
+      <c r="A7355" s="6" t="n">
+        <v>44874.5625</v>
+      </c>
+      <c r="B7355" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7355" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7356">
+      <c r="A7356" s="6" t="n">
+        <v>44874.572916666664</v>
+      </c>
+      <c r="B7356" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7356" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7357">
+      <c r="A7357" s="6" t="n">
+        <v>44874.583333333336</v>
+      </c>
+      <c r="B7357" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7357" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7358">
+      <c r="A7358" s="6" t="n">
+        <v>44874.59375</v>
+      </c>
+      <c r="B7358" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7358" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7359">
+      <c r="A7359" s="6" t="n">
+        <v>44874.604166666664</v>
+      </c>
+      <c r="B7359" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7359" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7360">
+      <c r="A7360" s="6" t="n">
+        <v>44874.614583333336</v>
+      </c>
+      <c r="B7360" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C7360" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7361">
+      <c r="A7361" s="6" t="n">
+        <v>44874.625</v>
+      </c>
+      <c r="B7361" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C7361" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7362">
+      <c r="A7362" s="6" t="n">
+        <v>44874.635416666664</v>
+      </c>
+      <c r="B7362" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7362" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7363">
+      <c r="A7363" s="6" t="n">
+        <v>44874.645833333336</v>
+      </c>
+      <c r="B7363" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7363" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7364">
+      <c r="A7364" s="6" t="n">
+        <v>44874.65625</v>
+      </c>
+      <c r="B7364" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7364" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7365">
+      <c r="A7365" s="6" t="n">
+        <v>44874.666666666664</v>
+      </c>
+      <c r="B7365" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7365" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7366">
+      <c r="A7366" s="6" t="n">
+        <v>44874.677083333336</v>
+      </c>
+      <c r="B7366" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C7366" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="7367">
+      <c r="A7367" s="6" t="n">
+        <v>44874.6875</v>
+      </c>
+      <c r="B7367" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C7367" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7368">
+      <c r="A7368" s="6" t="n">
+        <v>44874.697916666664</v>
+      </c>
+      <c r="B7368" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7368" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="7369">
+      <c r="A7369" s="6" t="n">
+        <v>44874.708333333336</v>
+      </c>
+      <c r="B7369" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C7369" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7370">
+      <c r="A7370" s="6" t="n">
+        <v>44874.71875</v>
+      </c>
+      <c r="B7370" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C7370" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="7371">
+      <c r="A7371" s="6" t="n">
+        <v>44874.729166666664</v>
+      </c>
+      <c r="B7371" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C7371" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="7372">
+      <c r="A7372" s="6" t="n">
+        <v>44874.739583333336</v>
+      </c>
+      <c r="B7372" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7372" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7373">
+      <c r="A7373" s="6" t="n">
+        <v>44874.75</v>
+      </c>
+      <c r="B7373" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C7373" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="7374">
+      <c r="A7374" s="6" t="n">
+        <v>44874.760416666664</v>
+      </c>
+      <c r="B7374" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C7374" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7375">
+      <c r="A7375" s="6" t="n">
+        <v>44874.770833333336</v>
+      </c>
+      <c r="B7375" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7375" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7376">
+      <c r="A7376" s="6" t="n">
+        <v>44874.78125</v>
+      </c>
+      <c r="B7376" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7376" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7377">
+      <c r="A7377" s="6" t="n">
+        <v>44874.791666666664</v>
+      </c>
+      <c r="B7377" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7377" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7378">
+      <c r="A7378" s="6" t="n">
+        <v>44874.802083333336</v>
+      </c>
+      <c r="B7378" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7378" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7379">
+      <c r="A7379" s="6" t="n">
+        <v>44874.8125</v>
+      </c>
+      <c r="B7379" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7379" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7380">
+      <c r="A7380" s="6" t="n">
+        <v>44874.822916666664</v>
+      </c>
+      <c r="B7380" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7380" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7381">
+      <c r="A7381" s="6" t="n">
+        <v>44874.833333333336</v>
+      </c>
+      <c r="B7381" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C7381" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7382">
+      <c r="A7382" s="6" t="n">
+        <v>44874.84375</v>
+      </c>
+      <c r="B7382" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7382" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7383">
+      <c r="A7383" s="6" t="n">
+        <v>44874.854166666664</v>
+      </c>
+      <c r="B7383" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7383" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7384">
+      <c r="A7384" s="6" t="n">
+        <v>44874.864583333336</v>
+      </c>
+      <c r="B7384" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7384" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7385">
+      <c r="A7385" s="6" t="n">
+        <v>44874.875</v>
+      </c>
+      <c r="B7385" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7385" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7386">
+      <c r="A7386" s="6" t="n">
+        <v>44874.885416666664</v>
+      </c>
+      <c r="B7386" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7386" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7387">
+      <c r="A7387" s="6" t="n">
+        <v>44874.895833333336</v>
+      </c>
+      <c r="B7387" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7387" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7388">
+      <c r="A7388" s="6" t="n">
+        <v>44874.90625</v>
+      </c>
+      <c r="B7388" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7388" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7389">
+      <c r="A7389" s="6" t="n">
+        <v>44874.916666666664</v>
+      </c>
+      <c r="B7389" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7389" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7390">
+      <c r="A7390" s="6" t="n">
+        <v>44874.927083333336</v>
+      </c>
+      <c r="B7390" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7390" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7391">
+      <c r="A7391" s="6" t="n">
+        <v>44874.9375</v>
+      </c>
+      <c r="B7391" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7391" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7392">
+      <c r="A7392" s="6" t="n">
+        <v>44874.947916666664</v>
+      </c>
+      <c r="B7392" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7392" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7393">
+      <c r="A7393" s="6" t="n">
+        <v>44874.958333333336</v>
+      </c>
+      <c r="B7393" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7393" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7394">
+      <c r="A7394" s="6" t="n">
+        <v>44874.96875</v>
+      </c>
+      <c r="B7394" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7394" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7395">
+      <c r="A7395" s="6" t="n">
+        <v>44874.979166666664</v>
+      </c>
+      <c r="B7395" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7395" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7396">
+      <c r="A7396" s="6" t="n">
+        <v>44874.989583333336</v>
+      </c>
+      <c r="B7396" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7396" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7397">
+      <c r="A7397" s="6" t="n">
+        <v>44875.0</v>
+      </c>
+      <c r="B7397" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7397" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7398">
+      <c r="A7398" s="6" t="n">
+        <v>44875.010416666664</v>
+      </c>
+      <c r="B7398" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7398" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7399">
+      <c r="A7399" s="6" t="n">
+        <v>44875.020833333336</v>
+      </c>
+      <c r="B7399" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7399" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7400">
+      <c r="A7400" s="6" t="n">
+        <v>44875.03125</v>
+      </c>
+      <c r="B7400" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7400" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7401">
+      <c r="A7401" s="6" t="n">
+        <v>44875.041666666664</v>
+      </c>
+      <c r="B7401" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7401" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7402">
+      <c r="A7402" s="6" t="n">
+        <v>44875.052083333336</v>
+      </c>
+      <c r="B7402" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7402" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7403">
+      <c r="A7403" s="6" t="n">
+        <v>44875.0625</v>
+      </c>
+      <c r="B7403" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7403" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7404">
+      <c r="A7404" s="6" t="n">
+        <v>44875.072916666664</v>
+      </c>
+      <c r="B7404" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7404" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7405">
+      <c r="A7405" s="6" t="n">
+        <v>44875.083333333336</v>
+      </c>
+      <c r="B7405" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7405" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7406">
+      <c r="A7406" s="6" t="n">
+        <v>44875.09375</v>
+      </c>
+      <c r="B7406" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7406" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7407">
+      <c r="A7407" s="6" t="n">
+        <v>44875.104166666664</v>
+      </c>
+      <c r="B7407" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7407" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7408">
+      <c r="A7408" s="6" t="n">
+        <v>44875.114583333336</v>
+      </c>
+      <c r="B7408" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7408" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7409">
+      <c r="A7409" s="6" t="n">
+        <v>44875.125</v>
+      </c>
+      <c r="B7409" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7409" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7410">
+      <c r="A7410" s="6" t="n">
+        <v>44875.135416666664</v>
+      </c>
+      <c r="B7410" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7410" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7411">
+      <c r="A7411" s="6" t="n">
+        <v>44875.145833333336</v>
+      </c>
+      <c r="B7411" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7411" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7412">
+      <c r="A7412" s="6" t="n">
+        <v>44875.15625</v>
+      </c>
+      <c r="B7412" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7412" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7413">
+      <c r="A7413" s="6" t="n">
+        <v>44875.166666666664</v>
+      </c>
+      <c r="B7413" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7413" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7414">
+      <c r="A7414" s="6" t="n">
+        <v>44875.177083333336</v>
+      </c>
+      <c r="B7414" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7414" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7415">
+      <c r="A7415" s="6" t="n">
+        <v>44875.1875</v>
+      </c>
+      <c r="B7415" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7415" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7416">
+      <c r="A7416" s="6" t="n">
+        <v>44875.197916666664</v>
+      </c>
+      <c r="B7416" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7416" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7417">
+      <c r="A7417" s="6" t="n">
+        <v>44875.208333333336</v>
+      </c>
+      <c r="B7417" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7417" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7418">
+      <c r="A7418" s="6" t="n">
+        <v>44875.21875</v>
+      </c>
+      <c r="B7418" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7418" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7419">
+      <c r="A7419" s="6" t="n">
+        <v>44875.229166666664</v>
+      </c>
+      <c r="B7419" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7419" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7420">
+      <c r="A7420" s="6" t="n">
+        <v>44875.239583333336</v>
+      </c>
+      <c r="B7420" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7420" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7421">
+      <c r="A7421" s="6" t="n">
+        <v>44875.25</v>
+      </c>
+      <c r="B7421" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7421" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7422">
+      <c r="A7422" s="6" t="n">
+        <v>44875.260416666664</v>
+      </c>
+      <c r="B7422" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7422" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7423">
+      <c r="A7423" s="6" t="n">
+        <v>44875.270833333336</v>
+      </c>
+      <c r="B7423" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7423" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7424">
+      <c r="A7424" s="6" t="n">
+        <v>44875.28125</v>
+      </c>
+      <c r="B7424" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7424" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7425">
+      <c r="A7425" s="6" t="n">
+        <v>44875.291666666664</v>
+      </c>
+      <c r="B7425" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7425" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7426">
+      <c r="A7426" s="6" t="n">
+        <v>44875.302083333336</v>
+      </c>
+      <c r="B7426" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7426" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7427">
+      <c r="A7427" s="6" t="n">
+        <v>44875.3125</v>
+      </c>
+      <c r="B7427" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7427" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7428">
+      <c r="A7428" s="6" t="n">
+        <v>44875.322916666664</v>
+      </c>
+      <c r="B7428" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C7428" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="7429">
+      <c r="A7429" s="6" t="n">
+        <v>44875.333333333336</v>
+      </c>
+      <c r="B7429" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C7429" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7430">
+      <c r="A7430" s="6" t="n">
+        <v>44875.34375</v>
+      </c>
+      <c r="B7430" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7430" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7431">
+      <c r="A7431" s="6" t="n">
+        <v>44875.354166666664</v>
+      </c>
+      <c r="B7431" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7431" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7432">
+      <c r="A7432" s="6" t="n">
+        <v>44875.364583333336</v>
+      </c>
+      <c r="B7432" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7432" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7433">
+      <c r="A7433" s="6" t="n">
+        <v>44875.375</v>
+      </c>
+      <c r="B7433" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7433" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7434">
+      <c r="A7434" s="6" t="n">
+        <v>44875.385416666664</v>
+      </c>
+      <c r="B7434" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7434" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7435">
+      <c r="A7435" s="6" t="n">
+        <v>44875.395833333336</v>
+      </c>
+      <c r="B7435" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7435" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7436">
+      <c r="A7436" s="6" t="n">
+        <v>44875.40625</v>
+      </c>
+      <c r="B7436" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7436" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7437">
+      <c r="A7437" s="6" t="n">
+        <v>44875.416666666664</v>
+      </c>
+      <c r="B7437" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C7437" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="7438">
+      <c r="A7438" s="6" t="n">
+        <v>44875.427083333336</v>
+      </c>
+      <c r="B7438" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7438" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7439">
+      <c r="A7439" s="6" t="n">
+        <v>44875.4375</v>
+      </c>
+      <c r="B7439" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C7439" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7440">
+      <c r="A7440" s="6" t="n">
+        <v>44875.447916666664</v>
+      </c>
+      <c r="B7440" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7440" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7441">
+      <c r="A7441" s="6" t="n">
+        <v>44875.458333333336</v>
+      </c>
+      <c r="B7441" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7441" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="7442">
+      <c r="A7442" s="6" t="n">
+        <v>44875.46875</v>
+      </c>
+      <c r="B7442" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7442" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7443">
+      <c r="A7443" s="6" t="n">
+        <v>44875.479166666664</v>
+      </c>
+      <c r="B7443" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7443" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7444">
+      <c r="A7444" s="6" t="n">
+        <v>44875.489583333336</v>
+      </c>
+      <c r="B7444" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C7444" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7445">
+      <c r="A7445" s="6" t="n">
+        <v>44875.5</v>
+      </c>
+      <c r="B7445" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7445" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7446">
+      <c r="A7446" s="6" t="n">
+        <v>44875.510416666664</v>
+      </c>
+      <c r="B7446" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C7446" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7447">
+      <c r="A7447" s="6" t="n">
+        <v>44875.520833333336</v>
+      </c>
+      <c r="B7447" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7447" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7448">
+      <c r="A7448" s="6" t="n">
+        <v>44875.53125</v>
+      </c>
+      <c r="B7448" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7448" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7449">
+      <c r="A7449" s="6" t="n">
+        <v>44875.541666666664</v>
+      </c>
+      <c r="B7449" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7449" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7450">
+      <c r="A7450" s="6" t="n">
+        <v>44875.552083333336</v>
+      </c>
+      <c r="B7450" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7450" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7451">
+      <c r="A7451" s="6" t="n">
+        <v>44875.5625</v>
+      </c>
+      <c r="B7451" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7451" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7452">
+      <c r="A7452" s="6" t="n">
+        <v>44875.572916666664</v>
+      </c>
+      <c r="B7452" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7452" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7453">
+      <c r="A7453" s="6" t="n">
+        <v>44875.583333333336</v>
+      </c>
+      <c r="B7453" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7453" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="7454">
+      <c r="A7454" s="6" t="n">
+        <v>44875.59375</v>
+      </c>
+      <c r="B7454" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7454" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7455">
+      <c r="A7455" s="6" t="n">
+        <v>44875.604166666664</v>
+      </c>
+      <c r="B7455" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7455" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7456">
+      <c r="A7456" s="6" t="n">
+        <v>44875.614583333336</v>
+      </c>
+      <c r="B7456" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C7456" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7457">
+      <c r="A7457" s="6" t="n">
+        <v>44875.625</v>
+      </c>
+      <c r="B7457" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7457" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="7458">
+      <c r="A7458" s="6" t="n">
+        <v>44875.635416666664</v>
+      </c>
+      <c r="B7458" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C7458" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7459">
+      <c r="A7459" s="6" t="n">
+        <v>44875.645833333336</v>
+      </c>
+      <c r="B7459" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C7459" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7460">
+      <c r="A7460" s="6" t="n">
+        <v>44875.65625</v>
+      </c>
+      <c r="B7460" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C7460" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7461">
+      <c r="A7461" s="6" t="n">
+        <v>44875.666666666664</v>
+      </c>
+      <c r="B7461" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7461" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7462">
+      <c r="A7462" s="6" t="n">
+        <v>44875.677083333336</v>
+      </c>
+      <c r="B7462" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C7462" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="7463">
+      <c r="A7463" s="6" t="n">
+        <v>44875.6875</v>
+      </c>
+      <c r="B7463" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C7463" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7464">
+      <c r="A7464" s="6" t="n">
+        <v>44875.697916666664</v>
+      </c>
+      <c r="B7464" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C7464" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="7465">
+      <c r="A7465" s="6" t="n">
+        <v>44875.708333333336</v>
+      </c>
+      <c r="B7465" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C7465" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7466">
+      <c r="A7466" s="6" t="n">
+        <v>44875.71875</v>
+      </c>
+      <c r="B7466" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C7466" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="7467">
+      <c r="A7467" s="6" t="n">
+        <v>44875.729166666664</v>
+      </c>
+      <c r="B7467" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C7467" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="7468">
+      <c r="A7468" s="6" t="n">
+        <v>44875.739583333336</v>
+      </c>
+      <c r="B7468" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7468" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7469">
+      <c r="A7469" s="6" t="n">
+        <v>44875.75</v>
+      </c>
+      <c r="B7469" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7469" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7470">
+      <c r="A7470" s="6" t="n">
+        <v>44875.760416666664</v>
+      </c>
+      <c r="B7470" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7470" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7471">
+      <c r="A7471" s="6" t="n">
+        <v>44875.770833333336</v>
+      </c>
+      <c r="B7471" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7471" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7472">
+      <c r="A7472" s="6" t="n">
+        <v>44875.78125</v>
+      </c>
+      <c r="B7472" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C7472" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="7473">
+      <c r="A7473" s="6" t="n">
+        <v>44875.791666666664</v>
+      </c>
+      <c r="B7473" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7473" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7474">
+      <c r="A7474" s="6" t="n">
+        <v>44875.802083333336</v>
+      </c>
+      <c r="B7474" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7474" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7475">
+      <c r="A7475" s="6" t="n">
+        <v>44875.8125</v>
+      </c>
+      <c r="B7475" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7475" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7476">
+      <c r="A7476" s="6" t="n">
+        <v>44875.822916666664</v>
+      </c>
+      <c r="B7476" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C7476" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7477">
+      <c r="A7477" s="6" t="n">
+        <v>44875.833333333336</v>
+      </c>
+      <c r="B7477" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7477" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7478">
+      <c r="A7478" s="6" t="n">
+        <v>44875.84375</v>
+      </c>
+      <c r="B7478" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7478" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7479">
+      <c r="A7479" s="6" t="n">
+        <v>44875.854166666664</v>
+      </c>
+      <c r="B7479" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7479" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7480">
+      <c r="A7480" s="6" t="n">
+        <v>44875.864583333336</v>
+      </c>
+      <c r="B7480" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7480" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7481">
+      <c r="A7481" s="6" t="n">
+        <v>44875.875</v>
+      </c>
+      <c r="B7481" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7481" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7482">
+      <c r="A7482" s="6" t="n">
+        <v>44875.885416666664</v>
+      </c>
+      <c r="B7482" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7482" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7483">
+      <c r="A7483" s="6" t="n">
+        <v>44875.895833333336</v>
+      </c>
+      <c r="B7483" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7483" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7484">
+      <c r="A7484" s="6" t="n">
+        <v>44875.90625</v>
+      </c>
+      <c r="B7484" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C7484" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7485">
+      <c r="A7485" s="6" t="n">
+        <v>44875.916666666664</v>
+      </c>
+      <c r="B7485" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7485" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7486">
+      <c r="A7486" s="6" t="n">
+        <v>44875.927083333336</v>
+      </c>
+      <c r="B7486" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7486" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7487">
+      <c r="A7487" s="6" t="n">
+        <v>44875.9375</v>
+      </c>
+      <c r="B7487" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7487" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7488">
+      <c r="A7488" s="6" t="n">
+        <v>44875.947916666664</v>
+      </c>
+      <c r="B7488" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7488" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7489">
+      <c r="A7489" s="6" t="n">
+        <v>44875.958333333336</v>
+      </c>
+      <c r="B7489" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7489" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7490">
+      <c r="A7490" s="6" t="n">
+        <v>44875.96875</v>
+      </c>
+      <c r="B7490" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7490" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7491">
+      <c r="A7491" s="6" t="n">
+        <v>44875.979166666664</v>
+      </c>
+      <c r="B7491" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7491" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7492">
+      <c r="A7492" s="6" t="n">
+        <v>44875.989583333336</v>
+      </c>
+      <c r="B7492" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7492" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7493">
+      <c r="A7493" s="6" t="n">
+        <v>44876.0</v>
+      </c>
+      <c r="B7493" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7493" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7494">
+      <c r="A7494" s="6" t="n">
+        <v>44876.010416666664</v>
+      </c>
+      <c r="B7494" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7494" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7495">
+      <c r="A7495" s="6" t="n">
+        <v>44876.020833333336</v>
+      </c>
+      <c r="B7495" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7495" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7496">
+      <c r="A7496" s="6" t="n">
+        <v>44876.03125</v>
+      </c>
+      <c r="B7496" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7496" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7497">
+      <c r="A7497" s="6" t="n">
+        <v>44876.041666666664</v>
+      </c>
+      <c r="B7497" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7497" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7498">
+      <c r="A7498" s="6" t="n">
+        <v>44876.052083333336</v>
+      </c>
+      <c r="B7498" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7498" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7499">
+      <c r="A7499" s="6" t="n">
+        <v>44876.0625</v>
+      </c>
+      <c r="B7499" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7499" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7500">
+      <c r="A7500" s="6" t="n">
+        <v>44876.072916666664</v>
+      </c>
+      <c r="B7500" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7500" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7501">
+      <c r="A7501" s="6" t="n">
+        <v>44876.083333333336</v>
+      </c>
+      <c r="B7501" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7501" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7502">
+      <c r="A7502" s="6" t="n">
+        <v>44876.09375</v>
+      </c>
+      <c r="B7502" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7502" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7503">
+      <c r="A7503" s="6" t="n">
+        <v>44876.104166666664</v>
+      </c>
+      <c r="B7503" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7503" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7504">
+      <c r="A7504" s="6" t="n">
+        <v>44876.114583333336</v>
+      </c>
+      <c r="B7504" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7504" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7505">
+      <c r="A7505" s="6" t="n">
+        <v>44876.125</v>
+      </c>
+      <c r="B7505" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7505" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7506">
+      <c r="A7506" s="6" t="n">
+        <v>44876.135416666664</v>
+      </c>
+      <c r="B7506" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7506" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7507">
+      <c r="A7507" s="6" t="n">
+        <v>44876.145833333336</v>
+      </c>
+      <c r="B7507" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7507" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7508">
+      <c r="A7508" s="6" t="n">
+        <v>44876.15625</v>
+      </c>
+      <c r="B7508" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7508" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7509">
+      <c r="A7509" s="6" t="n">
+        <v>44876.166666666664</v>
+      </c>
+      <c r="B7509" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7509" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7510">
+      <c r="A7510" s="6" t="n">
+        <v>44876.177083333336</v>
+      </c>
+      <c r="B7510" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7510" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7511">
+      <c r="A7511" s="6" t="n">
+        <v>44876.1875</v>
+      </c>
+      <c r="B7511" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7511" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7512">
+      <c r="A7512" s="6" t="n">
+        <v>44876.197916666664</v>
+      </c>
+      <c r="B7512" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7512" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7513">
+      <c r="A7513" s="6" t="n">
+        <v>44876.208333333336</v>
+      </c>
+      <c r="B7513" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7513" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7514">
+      <c r="A7514" s="6" t="n">
+        <v>44876.21875</v>
+      </c>
+      <c r="B7514" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7514" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7515">
+      <c r="A7515" s="6" t="n">
+        <v>44876.229166666664</v>
+      </c>
+      <c r="B7515" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7515" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7516">
+      <c r="A7516" s="6" t="n">
+        <v>44876.239583333336</v>
+      </c>
+      <c r="B7516" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7516" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7517">
+      <c r="A7517" s="6" t="n">
+        <v>44876.25</v>
+      </c>
+      <c r="B7517" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7517" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7518">
+      <c r="A7518" s="6" t="n">
+        <v>44876.260416666664</v>
+      </c>
+      <c r="B7518" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7518" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7519">
+      <c r="A7519" s="6" t="n">
+        <v>44876.270833333336</v>
+      </c>
+      <c r="B7519" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7519" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7520">
+      <c r="A7520" s="6" t="n">
+        <v>44876.28125</v>
+      </c>
+      <c r="B7520" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7520" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7521">
+      <c r="A7521" s="6" t="n">
+        <v>44876.291666666664</v>
+      </c>
+      <c r="B7521" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7521" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7522">
+      <c r="A7522" s="6" t="n">
+        <v>44876.302083333336</v>
+      </c>
+      <c r="B7522" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7522" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7523">
+      <c r="A7523" s="6" t="n">
+        <v>44876.3125</v>
+      </c>
+      <c r="B7523" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7523" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7524">
+      <c r="A7524" s="6" t="n">
+        <v>44876.322916666664</v>
+      </c>
+      <c r="B7524" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C7524" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7525">
+      <c r="A7525" s="6" t="n">
+        <v>44876.333333333336</v>
+      </c>
+      <c r="B7525" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C7525" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7526">
+      <c r="A7526" s="6" t="n">
+        <v>44876.34375</v>
+      </c>
+      <c r="B7526" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7526" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7527">
+      <c r="A7527" s="6" t="n">
+        <v>44876.354166666664</v>
+      </c>
+      <c r="B7527" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7527" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7528">
+      <c r="A7528" s="6" t="n">
+        <v>44876.364583333336</v>
+      </c>
+      <c r="B7528" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7528" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="7529">
+      <c r="A7529" s="6" t="n">
+        <v>44876.375</v>
+      </c>
+      <c r="B7529" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7529" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7530">
+      <c r="A7530" s="6" t="n">
+        <v>44876.385416666664</v>
+      </c>
+      <c r="B7530" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7530" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="7531">
+      <c r="A7531" s="6" t="n">
+        <v>44876.395833333336</v>
+      </c>
+      <c r="B7531" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7531" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7532">
+      <c r="A7532" s="6" t="n">
+        <v>44876.40625</v>
+      </c>
+      <c r="B7532" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7532" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="7533">
+      <c r="A7533" s="6" t="n">
+        <v>44876.416666666664</v>
+      </c>
+      <c r="B7533" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7533" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7534">
+      <c r="A7534" s="6" t="n">
+        <v>44876.427083333336</v>
+      </c>
+      <c r="B7534" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7534" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7535">
+      <c r="A7535" s="6" t="n">
+        <v>44876.4375</v>
+      </c>
+      <c r="B7535" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7535" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="7536">
+      <c r="A7536" s="6" t="n">
+        <v>44876.447916666664</v>
+      </c>
+      <c r="B7536" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7536" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7537">
+      <c r="A7537" s="6" t="n">
+        <v>44876.458333333336</v>
+      </c>
+      <c r="B7537" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7537" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7538">
+      <c r="A7538" s="6" t="n">
+        <v>44876.46875</v>
+      </c>
+      <c r="B7538" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7538" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7539">
+      <c r="A7539" s="6" t="n">
+        <v>44876.479166666664</v>
+      </c>
+      <c r="B7539" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C7539" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7540">
+      <c r="A7540" s="6" t="n">
+        <v>44876.489583333336</v>
+      </c>
+      <c r="B7540" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7540" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="7541">
+      <c r="A7541" s="6" t="n">
+        <v>44876.5</v>
+      </c>
+      <c r="B7541" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7541" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7542">
+      <c r="A7542" s="6" t="n">
+        <v>44876.510416666664</v>
+      </c>
+      <c r="B7542" s="1"/>
+      <c r="C7542" s="1"/>
+    </row>
+    <row r="7543">
+      <c r="A7543" s="6" t="n">
+        <v>44876.520833333336</v>
+      </c>
+      <c r="B7543" s="1"/>
+      <c r="C7543" s="1"/>
+    </row>
+    <row r="7544">
+      <c r="A7544" s="6" t="n">
+        <v>44876.53125</v>
+      </c>
+      <c r="B7544" s="1"/>
+      <c r="C7544" s="1"/>
+    </row>
+    <row r="7545">
+      <c r="A7545" s="6" t="n">
+        <v>44876.541666666664</v>
+      </c>
+      <c r="B7545" s="1"/>
+      <c r="C7545" s="1"/>
+    </row>
+    <row r="7546">
+      <c r="A7546" s="6" t="n">
+        <v>44876.552083333336</v>
+      </c>
+      <c r="B7546" s="1"/>
+      <c r="C7546" s="1"/>
+    </row>
+    <row r="7547">
+      <c r="A7547" s="6" t="n">
+        <v>44876.5625</v>
+      </c>
+      <c r="B7547" s="1"/>
+      <c r="C7547" s="1"/>
+    </row>
+    <row r="7548">
+      <c r="A7548" s="6" t="n">
+        <v>44876.572916666664</v>
+      </c>
+      <c r="B7548" s="1"/>
+      <c r="C7548" s="1"/>
+    </row>
+    <row r="7549">
+      <c r="A7549" s="6" t="n">
+        <v>44876.583333333336</v>
+      </c>
+      <c r="B7549" s="1"/>
+      <c r="C7549" s="1"/>
+    </row>
+    <row r="7550">
+      <c r="A7550" s="6" t="n">
+        <v>44876.59375</v>
+      </c>
+      <c r="B7550" s="1"/>
+      <c r="C7550" s="1"/>
+    </row>
+    <row r="7551">
+      <c r="A7551" s="6" t="n">
+        <v>44876.604166666664</v>
+      </c>
+      <c r="B7551" s="1"/>
+      <c r="C7551" s="1"/>
+    </row>
+    <row r="7552">
+      <c r="A7552" s="6" t="n">
+        <v>44876.614583333336</v>
+      </c>
+      <c r="B7552" s="1"/>
+      <c r="C7552" s="1"/>
+    </row>
+    <row r="7553">
+      <c r="A7553" s="6" t="n">
+        <v>44876.625</v>
+      </c>
+      <c r="B7553" s="1"/>
+      <c r="C7553" s="1"/>
+    </row>
+    <row r="7554">
+      <c r="A7554" s="6" t="n">
+        <v>44876.635416666664</v>
+      </c>
+      <c r="B7554" s="1"/>
+      <c r="C7554" s="1"/>
+    </row>
+    <row r="7555">
+      <c r="A7555" s="6" t="n">
+        <v>44876.645833333336</v>
+      </c>
+      <c r="B7555" s="1"/>
+      <c r="C7555" s="1"/>
+    </row>
+    <row r="7556">
+      <c r="A7556" s="6" t="n">
+        <v>44876.65625</v>
+      </c>
+      <c r="B7556" s="1"/>
+      <c r="C7556" s="1"/>
+    </row>
+    <row r="7557">
+      <c r="A7557" s="6" t="n">
+        <v>44876.666666666664</v>
+      </c>
+      <c r="B7557" s="1"/>
+      <c r="C7557" s="1"/>
+    </row>
+    <row r="7558">
+      <c r="A7558" s="6" t="n">
+        <v>44876.677083333336</v>
+      </c>
+      <c r="B7558" s="1"/>
+      <c r="C7558" s="1"/>
+    </row>
+    <row r="7559">
+      <c r="A7559" s="6" t="n">
+        <v>44876.6875</v>
+      </c>
+      <c r="B7559" s="1"/>
+      <c r="C7559" s="1"/>
+    </row>
+    <row r="7560">
+      <c r="A7560" s="6" t="n">
+        <v>44876.697916666664</v>
+      </c>
+      <c r="B7560" s="1"/>
+      <c r="C7560" s="1"/>
+    </row>
+    <row r="7561">
+      <c r="A7561" s="6" t="n">
+        <v>44876.708333333336</v>
+      </c>
+      <c r="B7561" s="1"/>
+      <c r="C7561" s="1"/>
+    </row>
+    <row r="7562">
+      <c r="A7562" s="6" t="n">
+        <v>44876.71875</v>
+      </c>
+      <c r="B7562" s="1"/>
+      <c r="C7562" s="1"/>
+    </row>
+    <row r="7563">
+      <c r="A7563" s="6" t="n">
+        <v>44876.729166666664</v>
+      </c>
+      <c r="B7563" s="1"/>
+      <c r="C7563" s="1"/>
+    </row>
+    <row r="7564">
+      <c r="A7564" s="6" t="n">
+        <v>44876.739583333336</v>
+      </c>
+      <c r="B7564" s="1"/>
+      <c r="C7564" s="1"/>
+    </row>
+    <row r="7565">
+      <c r="A7565" s="6" t="n">
+        <v>44876.75</v>
+      </c>
+      <c r="B7565" s="1"/>
+      <c r="C7565" s="1"/>
+    </row>
+    <row r="7566">
+      <c r="A7566" s="6" t="n">
+        <v>44876.760416666664</v>
+      </c>
+      <c r="B7566" s="1"/>
+      <c r="C7566" s="1"/>
+    </row>
+    <row r="7567">
+      <c r="A7567" s="6" t="n">
+        <v>44876.770833333336</v>
+      </c>
+      <c r="B7567" s="1"/>
+      <c r="C7567" s="1"/>
+    </row>
+    <row r="7568">
+      <c r="A7568" s="6" t="n">
+        <v>44876.78125</v>
+      </c>
+      <c r="B7568" s="1"/>
+      <c r="C7568" s="1"/>
+    </row>
+    <row r="7569">
+      <c r="A7569" s="6" t="n">
+        <v>44876.791666666664</v>
+      </c>
+      <c r="B7569" s="1"/>
+      <c r="C7569" s="1"/>
+    </row>
+    <row r="7570">
+      <c r="A7570" s="6" t="n">
+        <v>44876.802083333336</v>
+      </c>
+      <c r="B7570" s="1"/>
+      <c r="C7570" s="1"/>
+    </row>
+    <row r="7571">
+      <c r="A7571" s="6" t="n">
+        <v>44876.8125</v>
+      </c>
+      <c r="B7571" s="1"/>
+      <c r="C7571" s="1"/>
+    </row>
+    <row r="7572">
+      <c r="A7572" s="6" t="n">
+        <v>44876.822916666664</v>
+      </c>
+      <c r="B7572" s="1"/>
+      <c r="C7572" s="1"/>
+    </row>
+    <row r="7573">
+      <c r="A7573" s="6" t="n">
+        <v>44876.833333333336</v>
+      </c>
+      <c r="B7573" s="1"/>
+      <c r="C7573" s="1"/>
+    </row>
+    <row r="7574">
+      <c r="A7574" s="6" t="n">
+        <v>44876.84375</v>
+      </c>
+      <c r="B7574" s="1"/>
+      <c r="C7574" s="1"/>
+    </row>
+    <row r="7575">
+      <c r="A7575" s="6" t="n">
+        <v>44876.854166666664</v>
+      </c>
+      <c r="B7575" s="1"/>
+      <c r="C7575" s="1"/>
+    </row>
+    <row r="7576">
+      <c r="A7576" s="6" t="n">
+        <v>44876.864583333336</v>
+      </c>
+      <c r="B7576" s="1"/>
+      <c r="C7576" s="1"/>
+    </row>
+    <row r="7577">
+      <c r="A7577" s="6" t="n">
+        <v>44876.875</v>
+      </c>
+      <c r="B7577" s="1"/>
+      <c r="C7577" s="1"/>
+    </row>
+    <row r="7578">
+      <c r="A7578" s="6" t="n">
+        <v>44876.885416666664</v>
+      </c>
+      <c r="B7578" s="1"/>
+      <c r="C7578" s="1"/>
+    </row>
+    <row r="7579">
+      <c r="A7579" s="6" t="n">
+        <v>44876.895833333336</v>
+      </c>
+      <c r="B7579" s="1"/>
+      <c r="C7579" s="1"/>
+    </row>
+    <row r="7580">
+      <c r="A7580" s="6" t="n">
+        <v>44876.90625</v>
+      </c>
+      <c r="B7580" s="1"/>
+      <c r="C7580" s="1"/>
+    </row>
+    <row r="7581">
+      <c r="A7581" s="6" t="n">
+        <v>44876.916666666664</v>
+      </c>
+      <c r="B7581" s="1"/>
+      <c r="C7581" s="1"/>
+    </row>
+    <row r="7582">
+      <c r="A7582" s="6" t="n">
+        <v>44876.927083333336</v>
+      </c>
+      <c r="B7582" s="1"/>
+      <c r="C7582" s="1"/>
+    </row>
+    <row r="7583">
+      <c r="A7583" s="6" t="n">
+        <v>44876.9375</v>
+      </c>
+      <c r="B7583" s="1"/>
+      <c r="C7583" s="1"/>
+    </row>
+    <row r="7584">
+      <c r="A7584" s="6" t="n">
+        <v>44876.947916666664</v>
+      </c>
+      <c r="B7584" s="1"/>
+      <c r="C7584" s="1"/>
+    </row>
+    <row r="7585">
+      <c r="A7585" s="6" t="n">
+        <v>44876.958333333336</v>
+      </c>
+      <c r="B7585" s="1"/>
+      <c r="C7585" s="1"/>
+    </row>
+    <row r="7586">
+      <c r="A7586" s="6" t="n">
+        <v>44876.96875</v>
+      </c>
+      <c r="B7586" s="1"/>
+      <c r="C7586" s="1"/>
+    </row>
+    <row r="7587">
+      <c r="A7587" s="6" t="n">
+        <v>44876.979166666664</v>
+      </c>
+      <c r="B7587" s="1"/>
+      <c r="C7587" s="1"/>
+    </row>
+    <row r="7588">
+      <c r="A7588" s="6" t="n">
+        <v>44876.989583333336</v>
+      </c>
+      <c r="B7588" s="1"/>
+      <c r="C7588" s="1"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/data/counter/export_data_domain_7992.xlsx
+++ b/data/counter/export_data_domain_7992.xlsx
@@ -83082,330 +83082,5602 @@
       <c r="A7542" s="6" t="n">
         <v>44876.510416666664</v>
       </c>
-      <c r="B7542" s="1"/>
-      <c r="C7542" s="1"/>
+      <c r="B7542" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7542" s="1" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="7543">
       <c r="A7543" s="6" t="n">
         <v>44876.520833333336</v>
       </c>
-      <c r="B7543" s="1"/>
-      <c r="C7543" s="1"/>
+      <c r="B7543" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7543" s="1" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="7544">
       <c r="A7544" s="6" t="n">
         <v>44876.53125</v>
       </c>
-      <c r="B7544" s="1"/>
-      <c r="C7544" s="1"/>
+      <c r="B7544" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7544" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="7545">
       <c r="A7545" s="6" t="n">
         <v>44876.541666666664</v>
       </c>
-      <c r="B7545" s="1"/>
-      <c r="C7545" s="1"/>
+      <c r="B7545" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C7545" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="7546">
       <c r="A7546" s="6" t="n">
         <v>44876.552083333336</v>
       </c>
-      <c r="B7546" s="1"/>
-      <c r="C7546" s="1"/>
+      <c r="B7546" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7546" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="7547">
       <c r="A7547" s="6" t="n">
         <v>44876.5625</v>
       </c>
-      <c r="B7547" s="1"/>
-      <c r="C7547" s="1"/>
+      <c r="B7547" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7547" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="7548">
       <c r="A7548" s="6" t="n">
         <v>44876.572916666664</v>
       </c>
-      <c r="B7548" s="1"/>
-      <c r="C7548" s="1"/>
+      <c r="B7548" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7548" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="7549">
       <c r="A7549" s="6" t="n">
         <v>44876.583333333336</v>
       </c>
-      <c r="B7549" s="1"/>
-      <c r="C7549" s="1"/>
+      <c r="B7549" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C7549" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="7550">
       <c r="A7550" s="6" t="n">
         <v>44876.59375</v>
       </c>
-      <c r="B7550" s="1"/>
-      <c r="C7550" s="1"/>
+      <c r="B7550" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7550" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="7551">
       <c r="A7551" s="6" t="n">
         <v>44876.604166666664</v>
       </c>
-      <c r="B7551" s="1"/>
-      <c r="C7551" s="1"/>
+      <c r="B7551" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7551" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="7552">
       <c r="A7552" s="6" t="n">
         <v>44876.614583333336</v>
       </c>
-      <c r="B7552" s="1"/>
-      <c r="C7552" s="1"/>
+      <c r="B7552" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7552" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="7553">
       <c r="A7553" s="6" t="n">
         <v>44876.625</v>
       </c>
-      <c r="B7553" s="1"/>
-      <c r="C7553" s="1"/>
+      <c r="B7553" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7553" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="7554">
       <c r="A7554" s="6" t="n">
         <v>44876.635416666664</v>
       </c>
-      <c r="B7554" s="1"/>
-      <c r="C7554" s="1"/>
+      <c r="B7554" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C7554" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="7555">
       <c r="A7555" s="6" t="n">
         <v>44876.645833333336</v>
       </c>
-      <c r="B7555" s="1"/>
-      <c r="C7555" s="1"/>
+      <c r="B7555" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7555" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="7556">
       <c r="A7556" s="6" t="n">
         <v>44876.65625</v>
       </c>
-      <c r="B7556" s="1"/>
-      <c r="C7556" s="1"/>
+      <c r="B7556" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C7556" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="7557">
       <c r="A7557" s="6" t="n">
         <v>44876.666666666664</v>
       </c>
-      <c r="B7557" s="1"/>
-      <c r="C7557" s="1"/>
+      <c r="B7557" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C7557" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="7558">
       <c r="A7558" s="6" t="n">
         <v>44876.677083333336</v>
       </c>
-      <c r="B7558" s="1"/>
-      <c r="C7558" s="1"/>
+      <c r="B7558" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C7558" s="1" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="7559">
       <c r="A7559" s="6" t="n">
         <v>44876.6875</v>
       </c>
-      <c r="B7559" s="1"/>
-      <c r="C7559" s="1"/>
+      <c r="B7559" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C7559" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="7560">
       <c r="A7560" s="6" t="n">
         <v>44876.697916666664</v>
       </c>
-      <c r="B7560" s="1"/>
-      <c r="C7560" s="1"/>
+      <c r="B7560" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7560" s="1" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="7561">
       <c r="A7561" s="6" t="n">
         <v>44876.708333333336</v>
       </c>
-      <c r="B7561" s="1"/>
-      <c r="C7561" s="1"/>
+      <c r="B7561" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C7561" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="7562">
       <c r="A7562" s="6" t="n">
         <v>44876.71875</v>
       </c>
-      <c r="B7562" s="1"/>
-      <c r="C7562" s="1"/>
+      <c r="B7562" s="1" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C7562" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="7563">
       <c r="A7563" s="6" t="n">
         <v>44876.729166666664</v>
       </c>
-      <c r="B7563" s="1"/>
-      <c r="C7563" s="1"/>
+      <c r="B7563" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C7563" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="7564">
       <c r="A7564" s="6" t="n">
         <v>44876.739583333336</v>
       </c>
-      <c r="B7564" s="1"/>
-      <c r="C7564" s="1"/>
+      <c r="B7564" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7564" s="1" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="7565">
       <c r="A7565" s="6" t="n">
         <v>44876.75</v>
       </c>
-      <c r="B7565" s="1"/>
-      <c r="C7565" s="1"/>
+      <c r="B7565" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7565" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="7566">
       <c r="A7566" s="6" t="n">
         <v>44876.760416666664</v>
       </c>
-      <c r="B7566" s="1"/>
-      <c r="C7566" s="1"/>
+      <c r="B7566" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7566" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="7567">
       <c r="A7567" s="6" t="n">
         <v>44876.770833333336</v>
       </c>
-      <c r="B7567" s="1"/>
-      <c r="C7567" s="1"/>
+      <c r="B7567" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7567" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="7568">
       <c r="A7568" s="6" t="n">
         <v>44876.78125</v>
       </c>
-      <c r="B7568" s="1"/>
-      <c r="C7568" s="1"/>
+      <c r="B7568" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7568" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="7569">
       <c r="A7569" s="6" t="n">
         <v>44876.791666666664</v>
       </c>
-      <c r="B7569" s="1"/>
-      <c r="C7569" s="1"/>
+      <c r="B7569" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7569" s="1" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="7570">
       <c r="A7570" s="6" t="n">
         <v>44876.802083333336</v>
       </c>
-      <c r="B7570" s="1"/>
-      <c r="C7570" s="1"/>
+      <c r="B7570" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7570" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="7571">
       <c r="A7571" s="6" t="n">
         <v>44876.8125</v>
       </c>
-      <c r="B7571" s="1"/>
-      <c r="C7571" s="1"/>
+      <c r="B7571" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7571" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="7572">
       <c r="A7572" s="6" t="n">
         <v>44876.822916666664</v>
       </c>
-      <c r="B7572" s="1"/>
-      <c r="C7572" s="1"/>
+      <c r="B7572" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7572" s="1" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="7573">
       <c r="A7573" s="6" t="n">
         <v>44876.833333333336</v>
       </c>
-      <c r="B7573" s="1"/>
-      <c r="C7573" s="1"/>
+      <c r="B7573" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7573" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="7574">
       <c r="A7574" s="6" t="n">
         <v>44876.84375</v>
       </c>
-      <c r="B7574" s="1"/>
-      <c r="C7574" s="1"/>
+      <c r="B7574" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7574" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="7575">
       <c r="A7575" s="6" t="n">
         <v>44876.854166666664</v>
       </c>
-      <c r="B7575" s="1"/>
-      <c r="C7575" s="1"/>
+      <c r="B7575" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7575" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="7576">
       <c r="A7576" s="6" t="n">
         <v>44876.864583333336</v>
       </c>
-      <c r="B7576" s="1"/>
-      <c r="C7576" s="1"/>
+      <c r="B7576" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7576" s="1" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="7577">
       <c r="A7577" s="6" t="n">
         <v>44876.875</v>
       </c>
-      <c r="B7577" s="1"/>
-      <c r="C7577" s="1"/>
+      <c r="B7577" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7577" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="7578">
       <c r="A7578" s="6" t="n">
         <v>44876.885416666664</v>
       </c>
-      <c r="B7578" s="1"/>
-      <c r="C7578" s="1"/>
+      <c r="B7578" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7578" s="1" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="7579">
       <c r="A7579" s="6" t="n">
         <v>44876.895833333336</v>
       </c>
-      <c r="B7579" s="1"/>
-      <c r="C7579" s="1"/>
+      <c r="B7579" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7579" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="7580">
       <c r="A7580" s="6" t="n">
         <v>44876.90625</v>
       </c>
-      <c r="B7580" s="1"/>
-      <c r="C7580" s="1"/>
+      <c r="B7580" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7580" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="7581">
       <c r="A7581" s="6" t="n">
         <v>44876.916666666664</v>
       </c>
-      <c r="B7581" s="1"/>
-      <c r="C7581" s="1"/>
+      <c r="B7581" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7581" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="7582">
       <c r="A7582" s="6" t="n">
         <v>44876.927083333336</v>
       </c>
-      <c r="B7582" s="1"/>
-      <c r="C7582" s="1"/>
+      <c r="B7582" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7582" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="7583">
       <c r="A7583" s="6" t="n">
         <v>44876.9375</v>
       </c>
-      <c r="B7583" s="1"/>
-      <c r="C7583" s="1"/>
+      <c r="B7583" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7583" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="7584">
       <c r="A7584" s="6" t="n">
         <v>44876.947916666664</v>
       </c>
-      <c r="B7584" s="1"/>
-      <c r="C7584" s="1"/>
+      <c r="B7584" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7584" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="7585">
       <c r="A7585" s="6" t="n">
         <v>44876.958333333336</v>
       </c>
-      <c r="B7585" s="1"/>
-      <c r="C7585" s="1"/>
+      <c r="B7585" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7585" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="7586">
       <c r="A7586" s="6" t="n">
         <v>44876.96875</v>
       </c>
-      <c r="B7586" s="1"/>
-      <c r="C7586" s="1"/>
+      <c r="B7586" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7586" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="7587">
       <c r="A7587" s="6" t="n">
         <v>44876.979166666664</v>
       </c>
-      <c r="B7587" s="1"/>
-      <c r="C7587" s="1"/>
+      <c r="B7587" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7587" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="7588">
       <c r="A7588" s="6" t="n">
         <v>44876.989583333336</v>
       </c>
-      <c r="B7588" s="1"/>
-      <c r="C7588" s="1"/>
+      <c r="B7588" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7588" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7589">
+      <c r="A7589" s="6" t="n">
+        <v>44877.0</v>
+      </c>
+      <c r="B7589" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7589" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7590">
+      <c r="A7590" s="6" t="n">
+        <v>44877.010416666664</v>
+      </c>
+      <c r="B7590" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7590" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7591">
+      <c r="A7591" s="6" t="n">
+        <v>44877.020833333336</v>
+      </c>
+      <c r="B7591" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7591" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7592">
+      <c r="A7592" s="6" t="n">
+        <v>44877.03125</v>
+      </c>
+      <c r="B7592" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7592" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7593">
+      <c r="A7593" s="6" t="n">
+        <v>44877.041666666664</v>
+      </c>
+      <c r="B7593" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7593" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7594">
+      <c r="A7594" s="6" t="n">
+        <v>44877.052083333336</v>
+      </c>
+      <c r="B7594" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7594" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7595">
+      <c r="A7595" s="6" t="n">
+        <v>44877.0625</v>
+      </c>
+      <c r="B7595" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7595" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7596">
+      <c r="A7596" s="6" t="n">
+        <v>44877.072916666664</v>
+      </c>
+      <c r="B7596" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7596" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7597">
+      <c r="A7597" s="6" t="n">
+        <v>44877.083333333336</v>
+      </c>
+      <c r="B7597" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7597" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7598">
+      <c r="A7598" s="6" t="n">
+        <v>44877.09375</v>
+      </c>
+      <c r="B7598" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7598" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7599">
+      <c r="A7599" s="6" t="n">
+        <v>44877.104166666664</v>
+      </c>
+      <c r="B7599" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7599" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7600">
+      <c r="A7600" s="6" t="n">
+        <v>44877.114583333336</v>
+      </c>
+      <c r="B7600" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7600" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7601">
+      <c r="A7601" s="6" t="n">
+        <v>44877.125</v>
+      </c>
+      <c r="B7601" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7601" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7602">
+      <c r="A7602" s="6" t="n">
+        <v>44877.135416666664</v>
+      </c>
+      <c r="B7602" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7602" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7603">
+      <c r="A7603" s="6" t="n">
+        <v>44877.145833333336</v>
+      </c>
+      <c r="B7603" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7603" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7604">
+      <c r="A7604" s="6" t="n">
+        <v>44877.15625</v>
+      </c>
+      <c r="B7604" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7604" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7605">
+      <c r="A7605" s="6" t="n">
+        <v>44877.166666666664</v>
+      </c>
+      <c r="B7605" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7605" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7606">
+      <c r="A7606" s="6" t="n">
+        <v>44877.177083333336</v>
+      </c>
+      <c r="B7606" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7606" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7607">
+      <c r="A7607" s="6" t="n">
+        <v>44877.1875</v>
+      </c>
+      <c r="B7607" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7607" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7608">
+      <c r="A7608" s="6" t="n">
+        <v>44877.197916666664</v>
+      </c>
+      <c r="B7608" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7608" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7609">
+      <c r="A7609" s="6" t="n">
+        <v>44877.208333333336</v>
+      </c>
+      <c r="B7609" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7609" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7610">
+      <c r="A7610" s="6" t="n">
+        <v>44877.21875</v>
+      </c>
+      <c r="B7610" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7610" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7611">
+      <c r="A7611" s="6" t="n">
+        <v>44877.229166666664</v>
+      </c>
+      <c r="B7611" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7611" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7612">
+      <c r="A7612" s="6" t="n">
+        <v>44877.239583333336</v>
+      </c>
+      <c r="B7612" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7612" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7613">
+      <c r="A7613" s="6" t="n">
+        <v>44877.25</v>
+      </c>
+      <c r="B7613" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7613" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7614">
+      <c r="A7614" s="6" t="n">
+        <v>44877.260416666664</v>
+      </c>
+      <c r="B7614" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7614" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7615">
+      <c r="A7615" s="6" t="n">
+        <v>44877.270833333336</v>
+      </c>
+      <c r="B7615" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7615" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7616">
+      <c r="A7616" s="6" t="n">
+        <v>44877.28125</v>
+      </c>
+      <c r="B7616" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7616" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7617">
+      <c r="A7617" s="6" t="n">
+        <v>44877.291666666664</v>
+      </c>
+      <c r="B7617" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7617" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7618">
+      <c r="A7618" s="6" t="n">
+        <v>44877.302083333336</v>
+      </c>
+      <c r="B7618" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7618" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7619">
+      <c r="A7619" s="6" t="n">
+        <v>44877.3125</v>
+      </c>
+      <c r="B7619" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7619" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7620">
+      <c r="A7620" s="6" t="n">
+        <v>44877.322916666664</v>
+      </c>
+      <c r="B7620" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7620" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7621">
+      <c r="A7621" s="6" t="n">
+        <v>44877.333333333336</v>
+      </c>
+      <c r="B7621" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7621" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7622">
+      <c r="A7622" s="6" t="n">
+        <v>44877.34375</v>
+      </c>
+      <c r="B7622" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7622" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7623">
+      <c r="A7623" s="6" t="n">
+        <v>44877.354166666664</v>
+      </c>
+      <c r="B7623" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7623" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7624">
+      <c r="A7624" s="6" t="n">
+        <v>44877.364583333336</v>
+      </c>
+      <c r="B7624" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7624" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7625">
+      <c r="A7625" s="6" t="n">
+        <v>44877.375</v>
+      </c>
+      <c r="B7625" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C7625" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7626">
+      <c r="A7626" s="6" t="n">
+        <v>44877.385416666664</v>
+      </c>
+      <c r="B7626" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7626" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7627">
+      <c r="A7627" s="6" t="n">
+        <v>44877.395833333336</v>
+      </c>
+      <c r="B7627" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C7627" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7628">
+      <c r="A7628" s="6" t="n">
+        <v>44877.40625</v>
+      </c>
+      <c r="B7628" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7628" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7629">
+      <c r="A7629" s="6" t="n">
+        <v>44877.416666666664</v>
+      </c>
+      <c r="B7629" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7629" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7630">
+      <c r="A7630" s="6" t="n">
+        <v>44877.427083333336</v>
+      </c>
+      <c r="B7630" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7630" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="7631">
+      <c r="A7631" s="6" t="n">
+        <v>44877.4375</v>
+      </c>
+      <c r="B7631" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7631" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7632">
+      <c r="A7632" s="6" t="n">
+        <v>44877.447916666664</v>
+      </c>
+      <c r="B7632" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7632" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7633">
+      <c r="A7633" s="6" t="n">
+        <v>44877.458333333336</v>
+      </c>
+      <c r="B7633" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7633" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7634">
+      <c r="A7634" s="6" t="n">
+        <v>44877.46875</v>
+      </c>
+      <c r="B7634" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7634" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7635">
+      <c r="A7635" s="6" t="n">
+        <v>44877.479166666664</v>
+      </c>
+      <c r="B7635" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7635" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7636">
+      <c r="A7636" s="6" t="n">
+        <v>44877.489583333336</v>
+      </c>
+      <c r="B7636" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7636" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7637">
+      <c r="A7637" s="6" t="n">
+        <v>44877.5</v>
+      </c>
+      <c r="B7637" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7637" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7638">
+      <c r="A7638" s="6" t="n">
+        <v>44877.510416666664</v>
+      </c>
+      <c r="B7638" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7638" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7639">
+      <c r="A7639" s="6" t="n">
+        <v>44877.520833333336</v>
+      </c>
+      <c r="B7639" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7639" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7640">
+      <c r="A7640" s="6" t="n">
+        <v>44877.53125</v>
+      </c>
+      <c r="B7640" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7640" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7641">
+      <c r="A7641" s="6" t="n">
+        <v>44877.541666666664</v>
+      </c>
+      <c r="B7641" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7641" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7642">
+      <c r="A7642" s="6" t="n">
+        <v>44877.552083333336</v>
+      </c>
+      <c r="B7642" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7642" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7643">
+      <c r="A7643" s="6" t="n">
+        <v>44877.5625</v>
+      </c>
+      <c r="B7643" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7643" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7644">
+      <c r="A7644" s="6" t="n">
+        <v>44877.572916666664</v>
+      </c>
+      <c r="B7644" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7644" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7645">
+      <c r="A7645" s="6" t="n">
+        <v>44877.583333333336</v>
+      </c>
+      <c r="B7645" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7645" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7646">
+      <c r="A7646" s="6" t="n">
+        <v>44877.59375</v>
+      </c>
+      <c r="B7646" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7646" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7647">
+      <c r="A7647" s="6" t="n">
+        <v>44877.604166666664</v>
+      </c>
+      <c r="B7647" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7647" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7648">
+      <c r="A7648" s="6" t="n">
+        <v>44877.614583333336</v>
+      </c>
+      <c r="B7648" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7648" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7649">
+      <c r="A7649" s="6" t="n">
+        <v>44877.625</v>
+      </c>
+      <c r="B7649" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7649" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7650">
+      <c r="A7650" s="6" t="n">
+        <v>44877.635416666664</v>
+      </c>
+      <c r="B7650" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7650" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7651">
+      <c r="A7651" s="6" t="n">
+        <v>44877.645833333336</v>
+      </c>
+      <c r="B7651" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7651" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7652">
+      <c r="A7652" s="6" t="n">
+        <v>44877.65625</v>
+      </c>
+      <c r="B7652" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7652" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7653">
+      <c r="A7653" s="6" t="n">
+        <v>44877.666666666664</v>
+      </c>
+      <c r="B7653" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7653" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7654">
+      <c r="A7654" s="6" t="n">
+        <v>44877.677083333336</v>
+      </c>
+      <c r="B7654" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7654" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7655">
+      <c r="A7655" s="6" t="n">
+        <v>44877.6875</v>
+      </c>
+      <c r="B7655" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7655" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7656">
+      <c r="A7656" s="6" t="n">
+        <v>44877.697916666664</v>
+      </c>
+      <c r="B7656" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7656" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7657">
+      <c r="A7657" s="6" t="n">
+        <v>44877.708333333336</v>
+      </c>
+      <c r="B7657" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7657" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7658">
+      <c r="A7658" s="6" t="n">
+        <v>44877.71875</v>
+      </c>
+      <c r="B7658" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C7658" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7659">
+      <c r="A7659" s="6" t="n">
+        <v>44877.729166666664</v>
+      </c>
+      <c r="B7659" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7659" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7660">
+      <c r="A7660" s="6" t="n">
+        <v>44877.739583333336</v>
+      </c>
+      <c r="B7660" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7660" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7661">
+      <c r="A7661" s="6" t="n">
+        <v>44877.75</v>
+      </c>
+      <c r="B7661" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7661" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7662">
+      <c r="A7662" s="6" t="n">
+        <v>44877.760416666664</v>
+      </c>
+      <c r="B7662" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7662" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7663">
+      <c r="A7663" s="6" t="n">
+        <v>44877.770833333336</v>
+      </c>
+      <c r="B7663" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7663" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7664">
+      <c r="A7664" s="6" t="n">
+        <v>44877.78125</v>
+      </c>
+      <c r="B7664" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7664" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7665">
+      <c r="A7665" s="6" t="n">
+        <v>44877.791666666664</v>
+      </c>
+      <c r="B7665" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7665" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7666">
+      <c r="A7666" s="6" t="n">
+        <v>44877.802083333336</v>
+      </c>
+      <c r="B7666" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7666" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7667">
+      <c r="A7667" s="6" t="n">
+        <v>44877.8125</v>
+      </c>
+      <c r="B7667" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7667" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7668">
+      <c r="A7668" s="6" t="n">
+        <v>44877.822916666664</v>
+      </c>
+      <c r="B7668" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7668" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7669">
+      <c r="A7669" s="6" t="n">
+        <v>44877.833333333336</v>
+      </c>
+      <c r="B7669" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7669" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7670">
+      <c r="A7670" s="6" t="n">
+        <v>44877.84375</v>
+      </c>
+      <c r="B7670" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7670" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7671">
+      <c r="A7671" s="6" t="n">
+        <v>44877.854166666664</v>
+      </c>
+      <c r="B7671" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7671" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7672">
+      <c r="A7672" s="6" t="n">
+        <v>44877.864583333336</v>
+      </c>
+      <c r="B7672" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7672" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7673">
+      <c r="A7673" s="6" t="n">
+        <v>44877.875</v>
+      </c>
+      <c r="B7673" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7673" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7674">
+      <c r="A7674" s="6" t="n">
+        <v>44877.885416666664</v>
+      </c>
+      <c r="B7674" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7674" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7675">
+      <c r="A7675" s="6" t="n">
+        <v>44877.895833333336</v>
+      </c>
+      <c r="B7675" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7675" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7676">
+      <c r="A7676" s="6" t="n">
+        <v>44877.90625</v>
+      </c>
+      <c r="B7676" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7676" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7677">
+      <c r="A7677" s="6" t="n">
+        <v>44877.916666666664</v>
+      </c>
+      <c r="B7677" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7677" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7678">
+      <c r="A7678" s="6" t="n">
+        <v>44877.927083333336</v>
+      </c>
+      <c r="B7678" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7678" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7679">
+      <c r="A7679" s="6" t="n">
+        <v>44877.9375</v>
+      </c>
+      <c r="B7679" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7679" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7680">
+      <c r="A7680" s="6" t="n">
+        <v>44877.947916666664</v>
+      </c>
+      <c r="B7680" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7680" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7681">
+      <c r="A7681" s="6" t="n">
+        <v>44877.958333333336</v>
+      </c>
+      <c r="B7681" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7681" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7682">
+      <c r="A7682" s="6" t="n">
+        <v>44877.96875</v>
+      </c>
+      <c r="B7682" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7682" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7683">
+      <c r="A7683" s="6" t="n">
+        <v>44877.979166666664</v>
+      </c>
+      <c r="B7683" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7683" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7684">
+      <c r="A7684" s="6" t="n">
+        <v>44877.989583333336</v>
+      </c>
+      <c r="B7684" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7684" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7685">
+      <c r="A7685" s="6" t="n">
+        <v>44878.0</v>
+      </c>
+      <c r="B7685" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7685" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7686">
+      <c r="A7686" s="6" t="n">
+        <v>44878.010416666664</v>
+      </c>
+      <c r="B7686" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7686" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7687">
+      <c r="A7687" s="6" t="n">
+        <v>44878.020833333336</v>
+      </c>
+      <c r="B7687" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7687" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7688">
+      <c r="A7688" s="6" t="n">
+        <v>44878.03125</v>
+      </c>
+      <c r="B7688" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7688" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7689">
+      <c r="A7689" s="6" t="n">
+        <v>44878.041666666664</v>
+      </c>
+      <c r="B7689" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7689" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7690">
+      <c r="A7690" s="6" t="n">
+        <v>44878.052083333336</v>
+      </c>
+      <c r="B7690" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7690" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7691">
+      <c r="A7691" s="6" t="n">
+        <v>44878.0625</v>
+      </c>
+      <c r="B7691" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7691" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7692">
+      <c r="A7692" s="6" t="n">
+        <v>44878.072916666664</v>
+      </c>
+      <c r="B7692" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7692" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7693">
+      <c r="A7693" s="6" t="n">
+        <v>44878.083333333336</v>
+      </c>
+      <c r="B7693" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7693" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7694">
+      <c r="A7694" s="6" t="n">
+        <v>44878.09375</v>
+      </c>
+      <c r="B7694" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7694" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7695">
+      <c r="A7695" s="6" t="n">
+        <v>44878.104166666664</v>
+      </c>
+      <c r="B7695" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7695" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7696">
+      <c r="A7696" s="6" t="n">
+        <v>44878.114583333336</v>
+      </c>
+      <c r="B7696" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7696" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7697">
+      <c r="A7697" s="6" t="n">
+        <v>44878.125</v>
+      </c>
+      <c r="B7697" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7697" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7698">
+      <c r="A7698" s="6" t="n">
+        <v>44878.135416666664</v>
+      </c>
+      <c r="B7698" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7698" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7699">
+      <c r="A7699" s="6" t="n">
+        <v>44878.145833333336</v>
+      </c>
+      <c r="B7699" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7699" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7700">
+      <c r="A7700" s="6" t="n">
+        <v>44878.15625</v>
+      </c>
+      <c r="B7700" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7700" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7701">
+      <c r="A7701" s="6" t="n">
+        <v>44878.166666666664</v>
+      </c>
+      <c r="B7701" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7701" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7702">
+      <c r="A7702" s="6" t="n">
+        <v>44878.177083333336</v>
+      </c>
+      <c r="B7702" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7702" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7703">
+      <c r="A7703" s="6" t="n">
+        <v>44878.1875</v>
+      </c>
+      <c r="B7703" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7703" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7704">
+      <c r="A7704" s="6" t="n">
+        <v>44878.197916666664</v>
+      </c>
+      <c r="B7704" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7704" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7705">
+      <c r="A7705" s="6" t="n">
+        <v>44878.208333333336</v>
+      </c>
+      <c r="B7705" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7705" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7706">
+      <c r="A7706" s="6" t="n">
+        <v>44878.21875</v>
+      </c>
+      <c r="B7706" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7706" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7707">
+      <c r="A7707" s="6" t="n">
+        <v>44878.229166666664</v>
+      </c>
+      <c r="B7707" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7707" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7708">
+      <c r="A7708" s="6" t="n">
+        <v>44878.239583333336</v>
+      </c>
+      <c r="B7708" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7708" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7709">
+      <c r="A7709" s="6" t="n">
+        <v>44878.25</v>
+      </c>
+      <c r="B7709" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7709" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7710">
+      <c r="A7710" s="6" t="n">
+        <v>44878.260416666664</v>
+      </c>
+      <c r="B7710" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7710" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7711">
+      <c r="A7711" s="6" t="n">
+        <v>44878.270833333336</v>
+      </c>
+      <c r="B7711" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7711" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7712">
+      <c r="A7712" s="6" t="n">
+        <v>44878.28125</v>
+      </c>
+      <c r="B7712" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7712" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7713">
+      <c r="A7713" s="6" t="n">
+        <v>44878.291666666664</v>
+      </c>
+      <c r="B7713" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7713" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7714">
+      <c r="A7714" s="6" t="n">
+        <v>44878.302083333336</v>
+      </c>
+      <c r="B7714" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7714" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7715">
+      <c r="A7715" s="6" t="n">
+        <v>44878.3125</v>
+      </c>
+      <c r="B7715" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7715" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7716">
+      <c r="A7716" s="6" t="n">
+        <v>44878.322916666664</v>
+      </c>
+      <c r="B7716" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7716" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7717">
+      <c r="A7717" s="6" t="n">
+        <v>44878.333333333336</v>
+      </c>
+      <c r="B7717" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7717" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7718">
+      <c r="A7718" s="6" t="n">
+        <v>44878.34375</v>
+      </c>
+      <c r="B7718" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7718" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7719">
+      <c r="A7719" s="6" t="n">
+        <v>44878.354166666664</v>
+      </c>
+      <c r="B7719" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7719" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7720">
+      <c r="A7720" s="6" t="n">
+        <v>44878.364583333336</v>
+      </c>
+      <c r="B7720" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7720" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7721">
+      <c r="A7721" s="6" t="n">
+        <v>44878.375</v>
+      </c>
+      <c r="B7721" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7721" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7722">
+      <c r="A7722" s="6" t="n">
+        <v>44878.385416666664</v>
+      </c>
+      <c r="B7722" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7722" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7723">
+      <c r="A7723" s="6" t="n">
+        <v>44878.395833333336</v>
+      </c>
+      <c r="B7723" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7723" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7724">
+      <c r="A7724" s="6" t="n">
+        <v>44878.40625</v>
+      </c>
+      <c r="B7724" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7724" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7725">
+      <c r="A7725" s="6" t="n">
+        <v>44878.416666666664</v>
+      </c>
+      <c r="B7725" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7725" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7726">
+      <c r="A7726" s="6" t="n">
+        <v>44878.427083333336</v>
+      </c>
+      <c r="B7726" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7726" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7727">
+      <c r="A7727" s="6" t="n">
+        <v>44878.4375</v>
+      </c>
+      <c r="B7727" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7727" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7728">
+      <c r="A7728" s="6" t="n">
+        <v>44878.447916666664</v>
+      </c>
+      <c r="B7728" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7728" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7729">
+      <c r="A7729" s="6" t="n">
+        <v>44878.458333333336</v>
+      </c>
+      <c r="B7729" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C7729" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7730">
+      <c r="A7730" s="6" t="n">
+        <v>44878.46875</v>
+      </c>
+      <c r="B7730" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7730" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7731">
+      <c r="A7731" s="6" t="n">
+        <v>44878.479166666664</v>
+      </c>
+      <c r="B7731" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7731" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7732">
+      <c r="A7732" s="6" t="n">
+        <v>44878.489583333336</v>
+      </c>
+      <c r="B7732" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7732" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7733">
+      <c r="A7733" s="6" t="n">
+        <v>44878.5</v>
+      </c>
+      <c r="B7733" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7733" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7734">
+      <c r="A7734" s="6" t="n">
+        <v>44878.510416666664</v>
+      </c>
+      <c r="B7734" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7734" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7735">
+      <c r="A7735" s="6" t="n">
+        <v>44878.520833333336</v>
+      </c>
+      <c r="B7735" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7735" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7736">
+      <c r="A7736" s="6" t="n">
+        <v>44878.53125</v>
+      </c>
+      <c r="B7736" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7736" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7737">
+      <c r="A7737" s="6" t="n">
+        <v>44878.541666666664</v>
+      </c>
+      <c r="B7737" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7737" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7738">
+      <c r="A7738" s="6" t="n">
+        <v>44878.552083333336</v>
+      </c>
+      <c r="B7738" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7738" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7739">
+      <c r="A7739" s="6" t="n">
+        <v>44878.5625</v>
+      </c>
+      <c r="B7739" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7739" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7740">
+      <c r="A7740" s="6" t="n">
+        <v>44878.572916666664</v>
+      </c>
+      <c r="B7740" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7740" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7741">
+      <c r="A7741" s="6" t="n">
+        <v>44878.583333333336</v>
+      </c>
+      <c r="B7741" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7741" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7742">
+      <c r="A7742" s="6" t="n">
+        <v>44878.59375</v>
+      </c>
+      <c r="B7742" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7742" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7743">
+      <c r="A7743" s="6" t="n">
+        <v>44878.604166666664</v>
+      </c>
+      <c r="B7743" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7743" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7744">
+      <c r="A7744" s="6" t="n">
+        <v>44878.614583333336</v>
+      </c>
+      <c r="B7744" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7744" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7745">
+      <c r="A7745" s="6" t="n">
+        <v>44878.625</v>
+      </c>
+      <c r="B7745" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7745" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7746">
+      <c r="A7746" s="6" t="n">
+        <v>44878.635416666664</v>
+      </c>
+      <c r="B7746" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7746" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7747">
+      <c r="A7747" s="6" t="n">
+        <v>44878.645833333336</v>
+      </c>
+      <c r="B7747" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C7747" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7748">
+      <c r="A7748" s="6" t="n">
+        <v>44878.65625</v>
+      </c>
+      <c r="B7748" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7748" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7749">
+      <c r="A7749" s="6" t="n">
+        <v>44878.666666666664</v>
+      </c>
+      <c r="B7749" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7749" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7750">
+      <c r="A7750" s="6" t="n">
+        <v>44878.677083333336</v>
+      </c>
+      <c r="B7750" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7750" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7751">
+      <c r="A7751" s="6" t="n">
+        <v>44878.6875</v>
+      </c>
+      <c r="B7751" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7751" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7752">
+      <c r="A7752" s="6" t="n">
+        <v>44878.697916666664</v>
+      </c>
+      <c r="B7752" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7752" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7753">
+      <c r="A7753" s="6" t="n">
+        <v>44878.708333333336</v>
+      </c>
+      <c r="B7753" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7753" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7754">
+      <c r="A7754" s="6" t="n">
+        <v>44878.71875</v>
+      </c>
+      <c r="B7754" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7754" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7755">
+      <c r="A7755" s="6" t="n">
+        <v>44878.729166666664</v>
+      </c>
+      <c r="B7755" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7755" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7756">
+      <c r="A7756" s="6" t="n">
+        <v>44878.739583333336</v>
+      </c>
+      <c r="B7756" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7756" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7757">
+      <c r="A7757" s="6" t="n">
+        <v>44878.75</v>
+      </c>
+      <c r="B7757" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7757" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7758">
+      <c r="A7758" s="6" t="n">
+        <v>44878.760416666664</v>
+      </c>
+      <c r="B7758" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7758" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7759">
+      <c r="A7759" s="6" t="n">
+        <v>44878.770833333336</v>
+      </c>
+      <c r="B7759" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7759" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7760">
+      <c r="A7760" s="6" t="n">
+        <v>44878.78125</v>
+      </c>
+      <c r="B7760" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7760" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7761">
+      <c r="A7761" s="6" t="n">
+        <v>44878.791666666664</v>
+      </c>
+      <c r="B7761" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7761" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7762">
+      <c r="A7762" s="6" t="n">
+        <v>44878.802083333336</v>
+      </c>
+      <c r="B7762" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7762" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7763">
+      <c r="A7763" s="6" t="n">
+        <v>44878.8125</v>
+      </c>
+      <c r="B7763" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7763" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7764">
+      <c r="A7764" s="6" t="n">
+        <v>44878.822916666664</v>
+      </c>
+      <c r="B7764" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7764" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7765">
+      <c r="A7765" s="6" t="n">
+        <v>44878.833333333336</v>
+      </c>
+      <c r="B7765" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7765" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7766">
+      <c r="A7766" s="6" t="n">
+        <v>44878.84375</v>
+      </c>
+      <c r="B7766" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7766" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7767">
+      <c r="A7767" s="6" t="n">
+        <v>44878.854166666664</v>
+      </c>
+      <c r="B7767" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7767" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7768">
+      <c r="A7768" s="6" t="n">
+        <v>44878.864583333336</v>
+      </c>
+      <c r="B7768" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7768" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7769">
+      <c r="A7769" s="6" t="n">
+        <v>44878.875</v>
+      </c>
+      <c r="B7769" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7769" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7770">
+      <c r="A7770" s="6" t="n">
+        <v>44878.885416666664</v>
+      </c>
+      <c r="B7770" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7770" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7771">
+      <c r="A7771" s="6" t="n">
+        <v>44878.895833333336</v>
+      </c>
+      <c r="B7771" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7771" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7772">
+      <c r="A7772" s="6" t="n">
+        <v>44878.90625</v>
+      </c>
+      <c r="B7772" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7772" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7773">
+      <c r="A7773" s="6" t="n">
+        <v>44878.916666666664</v>
+      </c>
+      <c r="B7773" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7773" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7774">
+      <c r="A7774" s="6" t="n">
+        <v>44878.927083333336</v>
+      </c>
+      <c r="B7774" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7774" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7775">
+      <c r="A7775" s="6" t="n">
+        <v>44878.9375</v>
+      </c>
+      <c r="B7775" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7775" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7776">
+      <c r="A7776" s="6" t="n">
+        <v>44878.947916666664</v>
+      </c>
+      <c r="B7776" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7776" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7777">
+      <c r="A7777" s="6" t="n">
+        <v>44878.958333333336</v>
+      </c>
+      <c r="B7777" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7777" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7778">
+      <c r="A7778" s="6" t="n">
+        <v>44878.96875</v>
+      </c>
+      <c r="B7778" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7778" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7779">
+      <c r="A7779" s="6" t="n">
+        <v>44878.979166666664</v>
+      </c>
+      <c r="B7779" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7779" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7780">
+      <c r="A7780" s="6" t="n">
+        <v>44878.989583333336</v>
+      </c>
+      <c r="B7780" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7780" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7781">
+      <c r="A7781" s="6" t="n">
+        <v>44879.0</v>
+      </c>
+      <c r="B7781" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7781" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7782">
+      <c r="A7782" s="6" t="n">
+        <v>44879.010416666664</v>
+      </c>
+      <c r="B7782" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7782" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7783">
+      <c r="A7783" s="6" t="n">
+        <v>44879.020833333336</v>
+      </c>
+      <c r="B7783" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7783" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7784">
+      <c r="A7784" s="6" t="n">
+        <v>44879.03125</v>
+      </c>
+      <c r="B7784" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7784" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7785">
+      <c r="A7785" s="6" t="n">
+        <v>44879.041666666664</v>
+      </c>
+      <c r="B7785" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7785" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7786">
+      <c r="A7786" s="6" t="n">
+        <v>44879.052083333336</v>
+      </c>
+      <c r="B7786" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7786" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7787">
+      <c r="A7787" s="6" t="n">
+        <v>44879.0625</v>
+      </c>
+      <c r="B7787" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7787" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7788">
+      <c r="A7788" s="6" t="n">
+        <v>44879.072916666664</v>
+      </c>
+      <c r="B7788" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7788" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7789">
+      <c r="A7789" s="6" t="n">
+        <v>44879.083333333336</v>
+      </c>
+      <c r="B7789" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7789" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7790">
+      <c r="A7790" s="6" t="n">
+        <v>44879.09375</v>
+      </c>
+      <c r="B7790" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7790" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7791">
+      <c r="A7791" s="6" t="n">
+        <v>44879.104166666664</v>
+      </c>
+      <c r="B7791" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7791" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7792">
+      <c r="A7792" s="6" t="n">
+        <v>44879.114583333336</v>
+      </c>
+      <c r="B7792" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7792" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7793">
+      <c r="A7793" s="6" t="n">
+        <v>44879.125</v>
+      </c>
+      <c r="B7793" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7793" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7794">
+      <c r="A7794" s="6" t="n">
+        <v>44879.135416666664</v>
+      </c>
+      <c r="B7794" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7794" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7795">
+      <c r="A7795" s="6" t="n">
+        <v>44879.145833333336</v>
+      </c>
+      <c r="B7795" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7795" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7796">
+      <c r="A7796" s="6" t="n">
+        <v>44879.15625</v>
+      </c>
+      <c r="B7796" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7796" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7797">
+      <c r="A7797" s="6" t="n">
+        <v>44879.166666666664</v>
+      </c>
+      <c r="B7797" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7797" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7798">
+      <c r="A7798" s="6" t="n">
+        <v>44879.177083333336</v>
+      </c>
+      <c r="B7798" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7798" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7799">
+      <c r="A7799" s="6" t="n">
+        <v>44879.1875</v>
+      </c>
+      <c r="B7799" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7799" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7800">
+      <c r="A7800" s="6" t="n">
+        <v>44879.197916666664</v>
+      </c>
+      <c r="B7800" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7800" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7801">
+      <c r="A7801" s="6" t="n">
+        <v>44879.208333333336</v>
+      </c>
+      <c r="B7801" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7801" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7802">
+      <c r="A7802" s="6" t="n">
+        <v>44879.21875</v>
+      </c>
+      <c r="B7802" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7802" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7803">
+      <c r="A7803" s="6" t="n">
+        <v>44879.229166666664</v>
+      </c>
+      <c r="B7803" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7803" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7804">
+      <c r="A7804" s="6" t="n">
+        <v>44879.239583333336</v>
+      </c>
+      <c r="B7804" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7804" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7805">
+      <c r="A7805" s="6" t="n">
+        <v>44879.25</v>
+      </c>
+      <c r="B7805" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7805" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7806">
+      <c r="A7806" s="6" t="n">
+        <v>44879.260416666664</v>
+      </c>
+      <c r="B7806" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7806" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7807">
+      <c r="A7807" s="6" t="n">
+        <v>44879.270833333336</v>
+      </c>
+      <c r="B7807" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7807" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7808">
+      <c r="A7808" s="6" t="n">
+        <v>44879.28125</v>
+      </c>
+      <c r="B7808" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7808" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7809">
+      <c r="A7809" s="6" t="n">
+        <v>44879.291666666664</v>
+      </c>
+      <c r="B7809" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7809" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7810">
+      <c r="A7810" s="6" t="n">
+        <v>44879.302083333336</v>
+      </c>
+      <c r="B7810" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7810" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7811">
+      <c r="A7811" s="6" t="n">
+        <v>44879.3125</v>
+      </c>
+      <c r="B7811" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7811" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7812">
+      <c r="A7812" s="6" t="n">
+        <v>44879.322916666664</v>
+      </c>
+      <c r="B7812" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C7812" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7813">
+      <c r="A7813" s="6" t="n">
+        <v>44879.333333333336</v>
+      </c>
+      <c r="B7813" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7813" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7814">
+      <c r="A7814" s="6" t="n">
+        <v>44879.34375</v>
+      </c>
+      <c r="B7814" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7814" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7815">
+      <c r="A7815" s="6" t="n">
+        <v>44879.354166666664</v>
+      </c>
+      <c r="B7815" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7815" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7816">
+      <c r="A7816" s="6" t="n">
+        <v>44879.364583333336</v>
+      </c>
+      <c r="B7816" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7816" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7817">
+      <c r="A7817" s="6" t="n">
+        <v>44879.375</v>
+      </c>
+      <c r="B7817" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7817" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7818">
+      <c r="A7818" s="6" t="n">
+        <v>44879.385416666664</v>
+      </c>
+      <c r="B7818" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7818" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7819">
+      <c r="A7819" s="6" t="n">
+        <v>44879.395833333336</v>
+      </c>
+      <c r="B7819" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7819" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="7820">
+      <c r="A7820" s="6" t="n">
+        <v>44879.40625</v>
+      </c>
+      <c r="B7820" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7820" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7821">
+      <c r="A7821" s="6" t="n">
+        <v>44879.416666666664</v>
+      </c>
+      <c r="B7821" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7821" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7822">
+      <c r="A7822" s="6" t="n">
+        <v>44879.427083333336</v>
+      </c>
+      <c r="B7822" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7822" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7823">
+      <c r="A7823" s="6" t="n">
+        <v>44879.4375</v>
+      </c>
+      <c r="B7823" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7823" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7824">
+      <c r="A7824" s="6" t="n">
+        <v>44879.447916666664</v>
+      </c>
+      <c r="B7824" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7824" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7825">
+      <c r="A7825" s="6" t="n">
+        <v>44879.458333333336</v>
+      </c>
+      <c r="B7825" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7825" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7826">
+      <c r="A7826" s="6" t="n">
+        <v>44879.46875</v>
+      </c>
+      <c r="B7826" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7826" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7827">
+      <c r="A7827" s="6" t="n">
+        <v>44879.479166666664</v>
+      </c>
+      <c r="B7827" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7827" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7828">
+      <c r="A7828" s="6" t="n">
+        <v>44879.489583333336</v>
+      </c>
+      <c r="B7828" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7828" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7829">
+      <c r="A7829" s="6" t="n">
+        <v>44879.5</v>
+      </c>
+      <c r="B7829" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7829" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7830">
+      <c r="A7830" s="6" t="n">
+        <v>44879.510416666664</v>
+      </c>
+      <c r="B7830" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7830" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7831">
+      <c r="A7831" s="6" t="n">
+        <v>44879.520833333336</v>
+      </c>
+      <c r="B7831" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7831" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7832">
+      <c r="A7832" s="6" t="n">
+        <v>44879.53125</v>
+      </c>
+      <c r="B7832" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7832" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7833">
+      <c r="A7833" s="6" t="n">
+        <v>44879.541666666664</v>
+      </c>
+      <c r="B7833" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7833" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7834">
+      <c r="A7834" s="6" t="n">
+        <v>44879.552083333336</v>
+      </c>
+      <c r="B7834" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7834" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7835">
+      <c r="A7835" s="6" t="n">
+        <v>44879.5625</v>
+      </c>
+      <c r="B7835" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7835" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7836">
+      <c r="A7836" s="6" t="n">
+        <v>44879.572916666664</v>
+      </c>
+      <c r="B7836" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7836" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7837">
+      <c r="A7837" s="6" t="n">
+        <v>44879.583333333336</v>
+      </c>
+      <c r="B7837" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7837" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7838">
+      <c r="A7838" s="6" t="n">
+        <v>44879.59375</v>
+      </c>
+      <c r="B7838" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7838" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7839">
+      <c r="A7839" s="6" t="n">
+        <v>44879.604166666664</v>
+      </c>
+      <c r="B7839" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7839" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7840">
+      <c r="A7840" s="6" t="n">
+        <v>44879.614583333336</v>
+      </c>
+      <c r="B7840" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7840" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7841">
+      <c r="A7841" s="6" t="n">
+        <v>44879.625</v>
+      </c>
+      <c r="B7841" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7841" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7842">
+      <c r="A7842" s="6" t="n">
+        <v>44879.635416666664</v>
+      </c>
+      <c r="B7842" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7842" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7843">
+      <c r="A7843" s="6" t="n">
+        <v>44879.645833333336</v>
+      </c>
+      <c r="B7843" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7843" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7844">
+      <c r="A7844" s="6" t="n">
+        <v>44879.65625</v>
+      </c>
+      <c r="B7844" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C7844" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7845">
+      <c r="A7845" s="6" t="n">
+        <v>44879.666666666664</v>
+      </c>
+      <c r="B7845" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C7845" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7846">
+      <c r="A7846" s="6" t="n">
+        <v>44879.677083333336</v>
+      </c>
+      <c r="B7846" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7846" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7847">
+      <c r="A7847" s="6" t="n">
+        <v>44879.6875</v>
+      </c>
+      <c r="B7847" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7847" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7848">
+      <c r="A7848" s="6" t="n">
+        <v>44879.697916666664</v>
+      </c>
+      <c r="B7848" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7848" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7849">
+      <c r="A7849" s="6" t="n">
+        <v>44879.708333333336</v>
+      </c>
+      <c r="B7849" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7849" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7850">
+      <c r="A7850" s="6" t="n">
+        <v>44879.71875</v>
+      </c>
+      <c r="B7850" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7850" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7851">
+      <c r="A7851" s="6" t="n">
+        <v>44879.729166666664</v>
+      </c>
+      <c r="B7851" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C7851" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="7852">
+      <c r="A7852" s="6" t="n">
+        <v>44879.739583333336</v>
+      </c>
+      <c r="B7852" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7852" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7853">
+      <c r="A7853" s="6" t="n">
+        <v>44879.75</v>
+      </c>
+      <c r="B7853" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7853" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7854">
+      <c r="A7854" s="6" t="n">
+        <v>44879.760416666664</v>
+      </c>
+      <c r="B7854" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7854" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7855">
+      <c r="A7855" s="6" t="n">
+        <v>44879.770833333336</v>
+      </c>
+      <c r="B7855" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7855" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7856">
+      <c r="A7856" s="6" t="n">
+        <v>44879.78125</v>
+      </c>
+      <c r="B7856" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7856" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7857">
+      <c r="A7857" s="6" t="n">
+        <v>44879.791666666664</v>
+      </c>
+      <c r="B7857" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7857" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="7858">
+      <c r="A7858" s="6" t="n">
+        <v>44879.802083333336</v>
+      </c>
+      <c r="B7858" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7858" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7859">
+      <c r="A7859" s="6" t="n">
+        <v>44879.8125</v>
+      </c>
+      <c r="B7859" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7859" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7860">
+      <c r="A7860" s="6" t="n">
+        <v>44879.822916666664</v>
+      </c>
+      <c r="B7860" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7860" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7861">
+      <c r="A7861" s="6" t="n">
+        <v>44879.833333333336</v>
+      </c>
+      <c r="B7861" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7861" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7862">
+      <c r="A7862" s="6" t="n">
+        <v>44879.84375</v>
+      </c>
+      <c r="B7862" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7862" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7863">
+      <c r="A7863" s="6" t="n">
+        <v>44879.854166666664</v>
+      </c>
+      <c r="B7863" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7863" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7864">
+      <c r="A7864" s="6" t="n">
+        <v>44879.864583333336</v>
+      </c>
+      <c r="B7864" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7864" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7865">
+      <c r="A7865" s="6" t="n">
+        <v>44879.875</v>
+      </c>
+      <c r="B7865" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7865" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7866">
+      <c r="A7866" s="6" t="n">
+        <v>44879.885416666664</v>
+      </c>
+      <c r="B7866" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7866" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7867">
+      <c r="A7867" s="6" t="n">
+        <v>44879.895833333336</v>
+      </c>
+      <c r="B7867" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7867" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7868">
+      <c r="A7868" s="6" t="n">
+        <v>44879.90625</v>
+      </c>
+      <c r="B7868" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7868" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7869">
+      <c r="A7869" s="6" t="n">
+        <v>44879.916666666664</v>
+      </c>
+      <c r="B7869" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7869" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7870">
+      <c r="A7870" s="6" t="n">
+        <v>44879.927083333336</v>
+      </c>
+      <c r="B7870" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7870" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7871">
+      <c r="A7871" s="6" t="n">
+        <v>44879.9375</v>
+      </c>
+      <c r="B7871" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7871" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7872">
+      <c r="A7872" s="6" t="n">
+        <v>44879.947916666664</v>
+      </c>
+      <c r="B7872" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7872" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7873">
+      <c r="A7873" s="6" t="n">
+        <v>44879.958333333336</v>
+      </c>
+      <c r="B7873" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7873" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7874">
+      <c r="A7874" s="6" t="n">
+        <v>44879.96875</v>
+      </c>
+      <c r="B7874" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7874" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7875">
+      <c r="A7875" s="6" t="n">
+        <v>44879.979166666664</v>
+      </c>
+      <c r="B7875" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7875" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7876">
+      <c r="A7876" s="6" t="n">
+        <v>44879.989583333336</v>
+      </c>
+      <c r="B7876" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7876" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7877">
+      <c r="A7877" s="6" t="n">
+        <v>44880.0</v>
+      </c>
+      <c r="B7877" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7877" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7878">
+      <c r="A7878" s="6" t="n">
+        <v>44880.010416666664</v>
+      </c>
+      <c r="B7878" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7878" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7879">
+      <c r="A7879" s="6" t="n">
+        <v>44880.020833333336</v>
+      </c>
+      <c r="B7879" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7879" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7880">
+      <c r="A7880" s="6" t="n">
+        <v>44880.03125</v>
+      </c>
+      <c r="B7880" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7880" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7881">
+      <c r="A7881" s="6" t="n">
+        <v>44880.041666666664</v>
+      </c>
+      <c r="B7881" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7881" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7882">
+      <c r="A7882" s="6" t="n">
+        <v>44880.052083333336</v>
+      </c>
+      <c r="B7882" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7882" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7883">
+      <c r="A7883" s="6" t="n">
+        <v>44880.0625</v>
+      </c>
+      <c r="B7883" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7883" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7884">
+      <c r="A7884" s="6" t="n">
+        <v>44880.072916666664</v>
+      </c>
+      <c r="B7884" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7884" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7885">
+      <c r="A7885" s="6" t="n">
+        <v>44880.083333333336</v>
+      </c>
+      <c r="B7885" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7885" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7886">
+      <c r="A7886" s="6" t="n">
+        <v>44880.09375</v>
+      </c>
+      <c r="B7886" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7886" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7887">
+      <c r="A7887" s="6" t="n">
+        <v>44880.104166666664</v>
+      </c>
+      <c r="B7887" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7887" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7888">
+      <c r="A7888" s="6" t="n">
+        <v>44880.114583333336</v>
+      </c>
+      <c r="B7888" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7888" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7889">
+      <c r="A7889" s="6" t="n">
+        <v>44880.125</v>
+      </c>
+      <c r="B7889" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7889" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7890">
+      <c r="A7890" s="6" t="n">
+        <v>44880.135416666664</v>
+      </c>
+      <c r="B7890" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7890" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7891">
+      <c r="A7891" s="6" t="n">
+        <v>44880.145833333336</v>
+      </c>
+      <c r="B7891" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7891" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7892">
+      <c r="A7892" s="6" t="n">
+        <v>44880.15625</v>
+      </c>
+      <c r="B7892" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7892" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7893">
+      <c r="A7893" s="6" t="n">
+        <v>44880.166666666664</v>
+      </c>
+      <c r="B7893" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7893" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7894">
+      <c r="A7894" s="6" t="n">
+        <v>44880.177083333336</v>
+      </c>
+      <c r="B7894" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7894" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7895">
+      <c r="A7895" s="6" t="n">
+        <v>44880.1875</v>
+      </c>
+      <c r="B7895" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7895" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7896">
+      <c r="A7896" s="6" t="n">
+        <v>44880.197916666664</v>
+      </c>
+      <c r="B7896" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7896" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7897">
+      <c r="A7897" s="6" t="n">
+        <v>44880.208333333336</v>
+      </c>
+      <c r="B7897" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7897" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7898">
+      <c r="A7898" s="6" t="n">
+        <v>44880.21875</v>
+      </c>
+      <c r="B7898" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7898" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7899">
+      <c r="A7899" s="6" t="n">
+        <v>44880.229166666664</v>
+      </c>
+      <c r="B7899" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7899" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7900">
+      <c r="A7900" s="6" t="n">
+        <v>44880.239583333336</v>
+      </c>
+      <c r="B7900" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7900" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7901">
+      <c r="A7901" s="6" t="n">
+        <v>44880.25</v>
+      </c>
+      <c r="B7901" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7901" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7902">
+      <c r="A7902" s="6" t="n">
+        <v>44880.260416666664</v>
+      </c>
+      <c r="B7902" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7902" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7903">
+      <c r="A7903" s="6" t="n">
+        <v>44880.270833333336</v>
+      </c>
+      <c r="B7903" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7903" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7904">
+      <c r="A7904" s="6" t="n">
+        <v>44880.28125</v>
+      </c>
+      <c r="B7904" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7904" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7905">
+      <c r="A7905" s="6" t="n">
+        <v>44880.291666666664</v>
+      </c>
+      <c r="B7905" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7905" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7906">
+      <c r="A7906" s="6" t="n">
+        <v>44880.302083333336</v>
+      </c>
+      <c r="B7906" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7906" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7907">
+      <c r="A7907" s="6" t="n">
+        <v>44880.3125</v>
+      </c>
+      <c r="B7907" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7907" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7908">
+      <c r="A7908" s="6" t="n">
+        <v>44880.322916666664</v>
+      </c>
+      <c r="B7908" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7908" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7909">
+      <c r="A7909" s="6" t="n">
+        <v>44880.333333333336</v>
+      </c>
+      <c r="B7909" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7909" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7910">
+      <c r="A7910" s="6" t="n">
+        <v>44880.34375</v>
+      </c>
+      <c r="B7910" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7910" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7911">
+      <c r="A7911" s="6" t="n">
+        <v>44880.354166666664</v>
+      </c>
+      <c r="B7911" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7911" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7912">
+      <c r="A7912" s="6" t="n">
+        <v>44880.364583333336</v>
+      </c>
+      <c r="B7912" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7912" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7913">
+      <c r="A7913" s="6" t="n">
+        <v>44880.375</v>
+      </c>
+      <c r="B7913" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7913" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7914">
+      <c r="A7914" s="6" t="n">
+        <v>44880.385416666664</v>
+      </c>
+      <c r="B7914" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7914" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7915">
+      <c r="A7915" s="6" t="n">
+        <v>44880.395833333336</v>
+      </c>
+      <c r="B7915" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7915" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7916">
+      <c r="A7916" s="6" t="n">
+        <v>44880.40625</v>
+      </c>
+      <c r="B7916" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7916" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7917">
+      <c r="A7917" s="6" t="n">
+        <v>44880.416666666664</v>
+      </c>
+      <c r="B7917" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7917" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7918">
+      <c r="A7918" s="6" t="n">
+        <v>44880.427083333336</v>
+      </c>
+      <c r="B7918" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7918" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7919">
+      <c r="A7919" s="6" t="n">
+        <v>44880.4375</v>
+      </c>
+      <c r="B7919" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7919" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7920">
+      <c r="A7920" s="6" t="n">
+        <v>44880.447916666664</v>
+      </c>
+      <c r="B7920" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7920" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7921">
+      <c r="A7921" s="6" t="n">
+        <v>44880.458333333336</v>
+      </c>
+      <c r="B7921" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7921" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7922">
+      <c r="A7922" s="6" t="n">
+        <v>44880.46875</v>
+      </c>
+      <c r="B7922" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7922" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7923">
+      <c r="A7923" s="6" t="n">
+        <v>44880.479166666664</v>
+      </c>
+      <c r="B7923" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7923" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7924">
+      <c r="A7924" s="6" t="n">
+        <v>44880.489583333336</v>
+      </c>
+      <c r="B7924" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7924" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7925">
+      <c r="A7925" s="6" t="n">
+        <v>44880.5</v>
+      </c>
+      <c r="B7925" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7925" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7926">
+      <c r="A7926" s="6" t="n">
+        <v>44880.510416666664</v>
+      </c>
+      <c r="B7926" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7926" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7927">
+      <c r="A7927" s="6" t="n">
+        <v>44880.520833333336</v>
+      </c>
+      <c r="B7927" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7927" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7928">
+      <c r="A7928" s="6" t="n">
+        <v>44880.53125</v>
+      </c>
+      <c r="B7928" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7928" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7929">
+      <c r="A7929" s="6" t="n">
+        <v>44880.541666666664</v>
+      </c>
+      <c r="B7929" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7929" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7930">
+      <c r="A7930" s="6" t="n">
+        <v>44880.552083333336</v>
+      </c>
+      <c r="B7930" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7930" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7931">
+      <c r="A7931" s="6" t="n">
+        <v>44880.5625</v>
+      </c>
+      <c r="B7931" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7931" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7932">
+      <c r="A7932" s="6" t="n">
+        <v>44880.572916666664</v>
+      </c>
+      <c r="B7932" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7932" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7933">
+      <c r="A7933" s="6" t="n">
+        <v>44880.583333333336</v>
+      </c>
+      <c r="B7933" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7933" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7934">
+      <c r="A7934" s="6" t="n">
+        <v>44880.59375</v>
+      </c>
+      <c r="B7934" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7934" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7935">
+      <c r="A7935" s="6" t="n">
+        <v>44880.604166666664</v>
+      </c>
+      <c r="B7935" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7935" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7936">
+      <c r="A7936" s="6" t="n">
+        <v>44880.614583333336</v>
+      </c>
+      <c r="B7936" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7936" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7937">
+      <c r="A7937" s="6" t="n">
+        <v>44880.625</v>
+      </c>
+      <c r="B7937" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7937" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7938">
+      <c r="A7938" s="6" t="n">
+        <v>44880.635416666664</v>
+      </c>
+      <c r="B7938" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7938" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7939">
+      <c r="A7939" s="6" t="n">
+        <v>44880.645833333336</v>
+      </c>
+      <c r="B7939" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7939" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7940">
+      <c r="A7940" s="6" t="n">
+        <v>44880.65625</v>
+      </c>
+      <c r="B7940" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7940" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7941">
+      <c r="A7941" s="6" t="n">
+        <v>44880.666666666664</v>
+      </c>
+      <c r="B7941" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7941" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="7942">
+      <c r="A7942" s="6" t="n">
+        <v>44880.677083333336</v>
+      </c>
+      <c r="B7942" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7942" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7943">
+      <c r="A7943" s="6" t="n">
+        <v>44880.6875</v>
+      </c>
+      <c r="B7943" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7943" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7944">
+      <c r="A7944" s="6" t="n">
+        <v>44880.697916666664</v>
+      </c>
+      <c r="B7944" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7944" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7945">
+      <c r="A7945" s="6" t="n">
+        <v>44880.708333333336</v>
+      </c>
+      <c r="B7945" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C7945" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="7946">
+      <c r="A7946" s="6" t="n">
+        <v>44880.71875</v>
+      </c>
+      <c r="B7946" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7946" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7947">
+      <c r="A7947" s="6" t="n">
+        <v>44880.729166666664</v>
+      </c>
+      <c r="B7947" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7947" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7948">
+      <c r="A7948" s="6" t="n">
+        <v>44880.739583333336</v>
+      </c>
+      <c r="B7948" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7948" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7949">
+      <c r="A7949" s="6" t="n">
+        <v>44880.75</v>
+      </c>
+      <c r="B7949" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C7949" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7950">
+      <c r="A7950" s="6" t="n">
+        <v>44880.760416666664</v>
+      </c>
+      <c r="B7950" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7950" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7951">
+      <c r="A7951" s="6" t="n">
+        <v>44880.770833333336</v>
+      </c>
+      <c r="B7951" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7951" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7952">
+      <c r="A7952" s="6" t="n">
+        <v>44880.78125</v>
+      </c>
+      <c r="B7952" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7952" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7953">
+      <c r="A7953" s="6" t="n">
+        <v>44880.791666666664</v>
+      </c>
+      <c r="B7953" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7953" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7954">
+      <c r="A7954" s="6" t="n">
+        <v>44880.802083333336</v>
+      </c>
+      <c r="B7954" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C7954" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7955">
+      <c r="A7955" s="6" t="n">
+        <v>44880.8125</v>
+      </c>
+      <c r="B7955" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7955" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7956">
+      <c r="A7956" s="6" t="n">
+        <v>44880.822916666664</v>
+      </c>
+      <c r="B7956" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7956" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7957">
+      <c r="A7957" s="6" t="n">
+        <v>44880.833333333336</v>
+      </c>
+      <c r="B7957" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7957" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7958">
+      <c r="A7958" s="6" t="n">
+        <v>44880.84375</v>
+      </c>
+      <c r="B7958" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7958" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7959">
+      <c r="A7959" s="6" t="n">
+        <v>44880.854166666664</v>
+      </c>
+      <c r="B7959" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7959" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7960">
+      <c r="A7960" s="6" t="n">
+        <v>44880.864583333336</v>
+      </c>
+      <c r="B7960" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7960" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7961">
+      <c r="A7961" s="6" t="n">
+        <v>44880.875</v>
+      </c>
+      <c r="B7961" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7961" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7962">
+      <c r="A7962" s="6" t="n">
+        <v>44880.885416666664</v>
+      </c>
+      <c r="B7962" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7962" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7963">
+      <c r="A7963" s="6" t="n">
+        <v>44880.895833333336</v>
+      </c>
+      <c r="B7963" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7963" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7964">
+      <c r="A7964" s="6" t="n">
+        <v>44880.90625</v>
+      </c>
+      <c r="B7964" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7964" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7965">
+      <c r="A7965" s="6" t="n">
+        <v>44880.916666666664</v>
+      </c>
+      <c r="B7965" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7965" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7966">
+      <c r="A7966" s="6" t="n">
+        <v>44880.927083333336</v>
+      </c>
+      <c r="B7966" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7966" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7967">
+      <c r="A7967" s="6" t="n">
+        <v>44880.9375</v>
+      </c>
+      <c r="B7967" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7967" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7968">
+      <c r="A7968" s="6" t="n">
+        <v>44880.947916666664</v>
+      </c>
+      <c r="B7968" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7968" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7969">
+      <c r="A7969" s="6" t="n">
+        <v>44880.958333333336</v>
+      </c>
+      <c r="B7969" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7969" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7970">
+      <c r="A7970" s="6" t="n">
+        <v>44880.96875</v>
+      </c>
+      <c r="B7970" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7970" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7971">
+      <c r="A7971" s="6" t="n">
+        <v>44880.979166666664</v>
+      </c>
+      <c r="B7971" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7971" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7972">
+      <c r="A7972" s="6" t="n">
+        <v>44880.989583333336</v>
+      </c>
+      <c r="B7972" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7972" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7973">
+      <c r="A7973" s="6" t="n">
+        <v>44881.0</v>
+      </c>
+      <c r="B7973" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7973" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7974">
+      <c r="A7974" s="6" t="n">
+        <v>44881.010416666664</v>
+      </c>
+      <c r="B7974" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7974" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7975">
+      <c r="A7975" s="6" t="n">
+        <v>44881.020833333336</v>
+      </c>
+      <c r="B7975" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7975" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7976">
+      <c r="A7976" s="6" t="n">
+        <v>44881.03125</v>
+      </c>
+      <c r="B7976" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7976" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7977">
+      <c r="A7977" s="6" t="n">
+        <v>44881.041666666664</v>
+      </c>
+      <c r="B7977" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7977" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7978">
+      <c r="A7978" s="6" t="n">
+        <v>44881.052083333336</v>
+      </c>
+      <c r="B7978" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7978" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7979">
+      <c r="A7979" s="6" t="n">
+        <v>44881.0625</v>
+      </c>
+      <c r="B7979" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7979" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7980">
+      <c r="A7980" s="6" t="n">
+        <v>44881.072916666664</v>
+      </c>
+      <c r="B7980" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7980" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7981">
+      <c r="A7981" s="6" t="n">
+        <v>44881.083333333336</v>
+      </c>
+      <c r="B7981" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7981" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7982">
+      <c r="A7982" s="6" t="n">
+        <v>44881.09375</v>
+      </c>
+      <c r="B7982" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7982" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7983">
+      <c r="A7983" s="6" t="n">
+        <v>44881.104166666664</v>
+      </c>
+      <c r="B7983" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7983" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7984">
+      <c r="A7984" s="6" t="n">
+        <v>44881.114583333336</v>
+      </c>
+      <c r="B7984" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7984" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7985">
+      <c r="A7985" s="6" t="n">
+        <v>44881.125</v>
+      </c>
+      <c r="B7985" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7985" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7986">
+      <c r="A7986" s="6" t="n">
+        <v>44881.135416666664</v>
+      </c>
+      <c r="B7986" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7986" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7987">
+      <c r="A7987" s="6" t="n">
+        <v>44881.145833333336</v>
+      </c>
+      <c r="B7987" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7987" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7988">
+      <c r="A7988" s="6" t="n">
+        <v>44881.15625</v>
+      </c>
+      <c r="B7988" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7988" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7989">
+      <c r="A7989" s="6" t="n">
+        <v>44881.166666666664</v>
+      </c>
+      <c r="B7989" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7989" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7990">
+      <c r="A7990" s="6" t="n">
+        <v>44881.177083333336</v>
+      </c>
+      <c r="B7990" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7990" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7991">
+      <c r="A7991" s="6" t="n">
+        <v>44881.1875</v>
+      </c>
+      <c r="B7991" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7991" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7992">
+      <c r="A7992" s="6" t="n">
+        <v>44881.197916666664</v>
+      </c>
+      <c r="B7992" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7992" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7993">
+      <c r="A7993" s="6" t="n">
+        <v>44881.208333333336</v>
+      </c>
+      <c r="B7993" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7993" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7994">
+      <c r="A7994" s="6" t="n">
+        <v>44881.21875</v>
+      </c>
+      <c r="B7994" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7994" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7995">
+      <c r="A7995" s="6" t="n">
+        <v>44881.229166666664</v>
+      </c>
+      <c r="B7995" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7995" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7996">
+      <c r="A7996" s="6" t="n">
+        <v>44881.239583333336</v>
+      </c>
+      <c r="B7996" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7996" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7997">
+      <c r="A7997" s="6" t="n">
+        <v>44881.25</v>
+      </c>
+      <c r="B7997" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7997" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7998">
+      <c r="A7998" s="6" t="n">
+        <v>44881.260416666664</v>
+      </c>
+      <c r="B7998" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7998" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7999">
+      <c r="A7999" s="6" t="n">
+        <v>44881.270833333336</v>
+      </c>
+      <c r="B7999" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7999" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8000">
+      <c r="A8000" s="6" t="n">
+        <v>44881.28125</v>
+      </c>
+      <c r="B8000" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8000" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8001">
+      <c r="A8001" s="6" t="n">
+        <v>44881.291666666664</v>
+      </c>
+      <c r="B8001" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8001" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8002">
+      <c r="A8002" s="6" t="n">
+        <v>44881.302083333336</v>
+      </c>
+      <c r="B8002" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8002" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8003">
+      <c r="A8003" s="6" t="n">
+        <v>44881.3125</v>
+      </c>
+      <c r="B8003" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8003" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="8004">
+      <c r="A8004" s="6" t="n">
+        <v>44881.322916666664</v>
+      </c>
+      <c r="B8004" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C8004" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8005">
+      <c r="A8005" s="6" t="n">
+        <v>44881.333333333336</v>
+      </c>
+      <c r="B8005" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C8005" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8006">
+      <c r="A8006" s="6" t="n">
+        <v>44881.34375</v>
+      </c>
+      <c r="B8006" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8006" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="8007">
+      <c r="A8007" s="6" t="n">
+        <v>44881.354166666664</v>
+      </c>
+      <c r="B8007" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8007" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8008">
+      <c r="A8008" s="6" t="n">
+        <v>44881.364583333336</v>
+      </c>
+      <c r="B8008" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8008" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8009">
+      <c r="A8009" s="6" t="n">
+        <v>44881.375</v>
+      </c>
+      <c r="B8009" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8009" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8010">
+      <c r="A8010" s="6" t="n">
+        <v>44881.385416666664</v>
+      </c>
+      <c r="B8010" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8010" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8011">
+      <c r="A8011" s="6" t="n">
+        <v>44881.395833333336</v>
+      </c>
+      <c r="B8011" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8011" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8012">
+      <c r="A8012" s="6" t="n">
+        <v>44881.40625</v>
+      </c>
+      <c r="B8012" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C8012" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="8013">
+      <c r="A8013" s="6" t="n">
+        <v>44881.416666666664</v>
+      </c>
+      <c r="B8013" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8013" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="8014">
+      <c r="A8014" s="6" t="n">
+        <v>44881.427083333336</v>
+      </c>
+      <c r="B8014" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C8014" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8015">
+      <c r="A8015" s="6" t="n">
+        <v>44881.4375</v>
+      </c>
+      <c r="B8015" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8015" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8016">
+      <c r="A8016" s="6" t="n">
+        <v>44881.447916666664</v>
+      </c>
+      <c r="B8016" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8016" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8017">
+      <c r="A8017" s="6" t="n">
+        <v>44881.458333333336</v>
+      </c>
+      <c r="B8017" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8017" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8018">
+      <c r="A8018" s="6" t="n">
+        <v>44881.46875</v>
+      </c>
+      <c r="B8018" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8018" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="8019">
+      <c r="A8019" s="6" t="n">
+        <v>44881.479166666664</v>
+      </c>
+      <c r="B8019" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8019" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8020">
+      <c r="A8020" s="6" t="n">
+        <v>44881.489583333336</v>
+      </c>
+      <c r="B8020" s="1"/>
+      <c r="C8020" s="1"/>
+    </row>
+    <row r="8021">
+      <c r="A8021" s="6" t="n">
+        <v>44881.5</v>
+      </c>
+      <c r="B8021" s="1"/>
+      <c r="C8021" s="1"/>
+    </row>
+    <row r="8022">
+      <c r="A8022" s="6" t="n">
+        <v>44881.510416666664</v>
+      </c>
+      <c r="B8022" s="1"/>
+      <c r="C8022" s="1"/>
+    </row>
+    <row r="8023">
+      <c r="A8023" s="6" t="n">
+        <v>44881.520833333336</v>
+      </c>
+      <c r="B8023" s="1"/>
+      <c r="C8023" s="1"/>
+    </row>
+    <row r="8024">
+      <c r="A8024" s="6" t="n">
+        <v>44881.53125</v>
+      </c>
+      <c r="B8024" s="1"/>
+      <c r="C8024" s="1"/>
+    </row>
+    <row r="8025">
+      <c r="A8025" s="6" t="n">
+        <v>44881.541666666664</v>
+      </c>
+      <c r="B8025" s="1"/>
+      <c r="C8025" s="1"/>
+    </row>
+    <row r="8026">
+      <c r="A8026" s="6" t="n">
+        <v>44881.552083333336</v>
+      </c>
+      <c r="B8026" s="1"/>
+      <c r="C8026" s="1"/>
+    </row>
+    <row r="8027">
+      <c r="A8027" s="6" t="n">
+        <v>44881.5625</v>
+      </c>
+      <c r="B8027" s="1"/>
+      <c r="C8027" s="1"/>
+    </row>
+    <row r="8028">
+      <c r="A8028" s="6" t="n">
+        <v>44881.572916666664</v>
+      </c>
+      <c r="B8028" s="1"/>
+      <c r="C8028" s="1"/>
+    </row>
+    <row r="8029">
+      <c r="A8029" s="6" t="n">
+        <v>44881.583333333336</v>
+      </c>
+      <c r="B8029" s="1"/>
+      <c r="C8029" s="1"/>
+    </row>
+    <row r="8030">
+      <c r="A8030" s="6" t="n">
+        <v>44881.59375</v>
+      </c>
+      <c r="B8030" s="1"/>
+      <c r="C8030" s="1"/>
+    </row>
+    <row r="8031">
+      <c r="A8031" s="6" t="n">
+        <v>44881.604166666664</v>
+      </c>
+      <c r="B8031" s="1"/>
+      <c r="C8031" s="1"/>
+    </row>
+    <row r="8032">
+      <c r="A8032" s="6" t="n">
+        <v>44881.614583333336</v>
+      </c>
+      <c r="B8032" s="1"/>
+      <c r="C8032" s="1"/>
+    </row>
+    <row r="8033">
+      <c r="A8033" s="6" t="n">
+        <v>44881.625</v>
+      </c>
+      <c r="B8033" s="1"/>
+      <c r="C8033" s="1"/>
+    </row>
+    <row r="8034">
+      <c r="A8034" s="6" t="n">
+        <v>44881.635416666664</v>
+      </c>
+      <c r="B8034" s="1"/>
+      <c r="C8034" s="1"/>
+    </row>
+    <row r="8035">
+      <c r="A8035" s="6" t="n">
+        <v>44881.645833333336</v>
+      </c>
+      <c r="B8035" s="1"/>
+      <c r="C8035" s="1"/>
+    </row>
+    <row r="8036">
+      <c r="A8036" s="6" t="n">
+        <v>44881.65625</v>
+      </c>
+      <c r="B8036" s="1"/>
+      <c r="C8036" s="1"/>
+    </row>
+    <row r="8037">
+      <c r="A8037" s="6" t="n">
+        <v>44881.666666666664</v>
+      </c>
+      <c r="B8037" s="1"/>
+      <c r="C8037" s="1"/>
+    </row>
+    <row r="8038">
+      <c r="A8038" s="6" t="n">
+        <v>44881.677083333336</v>
+      </c>
+      <c r="B8038" s="1"/>
+      <c r="C8038" s="1"/>
+    </row>
+    <row r="8039">
+      <c r="A8039" s="6" t="n">
+        <v>44881.6875</v>
+      </c>
+      <c r="B8039" s="1"/>
+      <c r="C8039" s="1"/>
+    </row>
+    <row r="8040">
+      <c r="A8040" s="6" t="n">
+        <v>44881.697916666664</v>
+      </c>
+      <c r="B8040" s="1"/>
+      <c r="C8040" s="1"/>
+    </row>
+    <row r="8041">
+      <c r="A8041" s="6" t="n">
+        <v>44881.708333333336</v>
+      </c>
+      <c r="B8041" s="1"/>
+      <c r="C8041" s="1"/>
+    </row>
+    <row r="8042">
+      <c r="A8042" s="6" t="n">
+        <v>44881.71875</v>
+      </c>
+      <c r="B8042" s="1"/>
+      <c r="C8042" s="1"/>
+    </row>
+    <row r="8043">
+      <c r="A8043" s="6" t="n">
+        <v>44881.729166666664</v>
+      </c>
+      <c r="B8043" s="1"/>
+      <c r="C8043" s="1"/>
+    </row>
+    <row r="8044">
+      <c r="A8044" s="6" t="n">
+        <v>44881.739583333336</v>
+      </c>
+      <c r="B8044" s="1"/>
+      <c r="C8044" s="1"/>
+    </row>
+    <row r="8045">
+      <c r="A8045" s="6" t="n">
+        <v>44881.75</v>
+      </c>
+      <c r="B8045" s="1"/>
+      <c r="C8045" s="1"/>
+    </row>
+    <row r="8046">
+      <c r="A8046" s="6" t="n">
+        <v>44881.760416666664</v>
+      </c>
+      <c r="B8046" s="1"/>
+      <c r="C8046" s="1"/>
+    </row>
+    <row r="8047">
+      <c r="A8047" s="6" t="n">
+        <v>44881.770833333336</v>
+      </c>
+      <c r="B8047" s="1"/>
+      <c r="C8047" s="1"/>
+    </row>
+    <row r="8048">
+      <c r="A8048" s="6" t="n">
+        <v>44881.78125</v>
+      </c>
+      <c r="B8048" s="1"/>
+      <c r="C8048" s="1"/>
+    </row>
+    <row r="8049">
+      <c r="A8049" s="6" t="n">
+        <v>44881.791666666664</v>
+      </c>
+      <c r="B8049" s="1"/>
+      <c r="C8049" s="1"/>
+    </row>
+    <row r="8050">
+      <c r="A8050" s="6" t="n">
+        <v>44881.802083333336</v>
+      </c>
+      <c r="B8050" s="1"/>
+      <c r="C8050" s="1"/>
+    </row>
+    <row r="8051">
+      <c r="A8051" s="6" t="n">
+        <v>44881.8125</v>
+      </c>
+      <c r="B8051" s="1"/>
+      <c r="C8051" s="1"/>
+    </row>
+    <row r="8052">
+      <c r="A8052" s="6" t="n">
+        <v>44881.822916666664</v>
+      </c>
+      <c r="B8052" s="1"/>
+      <c r="C8052" s="1"/>
+    </row>
+    <row r="8053">
+      <c r="A8053" s="6" t="n">
+        <v>44881.833333333336</v>
+      </c>
+      <c r="B8053" s="1"/>
+      <c r="C8053" s="1"/>
+    </row>
+    <row r="8054">
+      <c r="A8054" s="6" t="n">
+        <v>44881.84375</v>
+      </c>
+      <c r="B8054" s="1"/>
+      <c r="C8054" s="1"/>
+    </row>
+    <row r="8055">
+      <c r="A8055" s="6" t="n">
+        <v>44881.854166666664</v>
+      </c>
+      <c r="B8055" s="1"/>
+      <c r="C8055" s="1"/>
+    </row>
+    <row r="8056">
+      <c r="A8056" s="6" t="n">
+        <v>44881.864583333336</v>
+      </c>
+      <c r="B8056" s="1"/>
+      <c r="C8056" s="1"/>
+    </row>
+    <row r="8057">
+      <c r="A8057" s="6" t="n">
+        <v>44881.875</v>
+      </c>
+      <c r="B8057" s="1"/>
+      <c r="C8057" s="1"/>
+    </row>
+    <row r="8058">
+      <c r="A8058" s="6" t="n">
+        <v>44881.885416666664</v>
+      </c>
+      <c r="B8058" s="1"/>
+      <c r="C8058" s="1"/>
+    </row>
+    <row r="8059">
+      <c r="A8059" s="6" t="n">
+        <v>44881.895833333336</v>
+      </c>
+      <c r="B8059" s="1"/>
+      <c r="C8059" s="1"/>
+    </row>
+    <row r="8060">
+      <c r="A8060" s="6" t="n">
+        <v>44881.90625</v>
+      </c>
+      <c r="B8060" s="1"/>
+      <c r="C8060" s="1"/>
+    </row>
+    <row r="8061">
+      <c r="A8061" s="6" t="n">
+        <v>44881.916666666664</v>
+      </c>
+      <c r="B8061" s="1"/>
+      <c r="C8061" s="1"/>
+    </row>
+    <row r="8062">
+      <c r="A8062" s="6" t="n">
+        <v>44881.927083333336</v>
+      </c>
+      <c r="B8062" s="1"/>
+      <c r="C8062" s="1"/>
+    </row>
+    <row r="8063">
+      <c r="A8063" s="6" t="n">
+        <v>44881.9375</v>
+      </c>
+      <c r="B8063" s="1"/>
+      <c r="C8063" s="1"/>
+    </row>
+    <row r="8064">
+      <c r="A8064" s="6" t="n">
+        <v>44881.947916666664</v>
+      </c>
+      <c r="B8064" s="1"/>
+      <c r="C8064" s="1"/>
+    </row>
+    <row r="8065">
+      <c r="A8065" s="6" t="n">
+        <v>44881.958333333336</v>
+      </c>
+      <c r="B8065" s="1"/>
+      <c r="C8065" s="1"/>
+    </row>
+    <row r="8066">
+      <c r="A8066" s="6" t="n">
+        <v>44881.96875</v>
+      </c>
+      <c r="B8066" s="1"/>
+      <c r="C8066" s="1"/>
+    </row>
+    <row r="8067">
+      <c r="A8067" s="6" t="n">
+        <v>44881.979166666664</v>
+      </c>
+      <c r="B8067" s="1"/>
+      <c r="C8067" s="1"/>
+    </row>
+    <row r="8068">
+      <c r="A8068" s="6" t="n">
+        <v>44881.989583333336</v>
+      </c>
+      <c r="B8068" s="1"/>
+      <c r="C8068" s="1"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/data/counter/export_data_domain_7992.xlsx
+++ b/data/counter/export_data_domain_7992.xlsx
@@ -88340,344 +88340,4764 @@
       <c r="A8020" s="6" t="n">
         <v>44881.489583333336</v>
       </c>
-      <c r="B8020" s="1"/>
-      <c r="C8020" s="1"/>
+      <c r="B8020" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8020" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="8021">
       <c r="A8021" s="6" t="n">
         <v>44881.5</v>
       </c>
-      <c r="B8021" s="1"/>
-      <c r="C8021" s="1"/>
+      <c r="B8021" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8021" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="8022">
       <c r="A8022" s="6" t="n">
         <v>44881.510416666664</v>
       </c>
-      <c r="B8022" s="1"/>
-      <c r="C8022" s="1"/>
+      <c r="B8022" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8022" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="8023">
       <c r="A8023" s="6" t="n">
         <v>44881.520833333336</v>
       </c>
-      <c r="B8023" s="1"/>
-      <c r="C8023" s="1"/>
+      <c r="B8023" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8023" s="1" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="8024">
       <c r="A8024" s="6" t="n">
         <v>44881.53125</v>
       </c>
-      <c r="B8024" s="1"/>
-      <c r="C8024" s="1"/>
+      <c r="B8024" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8024" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="8025">
       <c r="A8025" s="6" t="n">
         <v>44881.541666666664</v>
       </c>
-      <c r="B8025" s="1"/>
-      <c r="C8025" s="1"/>
+      <c r="B8025" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C8025" s="1" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="8026">
       <c r="A8026" s="6" t="n">
         <v>44881.552083333336</v>
       </c>
-      <c r="B8026" s="1"/>
-      <c r="C8026" s="1"/>
+      <c r="B8026" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8026" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="8027">
       <c r="A8027" s="6" t="n">
         <v>44881.5625</v>
       </c>
-      <c r="B8027" s="1"/>
-      <c r="C8027" s="1"/>
+      <c r="B8027" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8027" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="8028">
       <c r="A8028" s="6" t="n">
         <v>44881.572916666664</v>
       </c>
-      <c r="B8028" s="1"/>
-      <c r="C8028" s="1"/>
+      <c r="B8028" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8028" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="8029">
       <c r="A8029" s="6" t="n">
         <v>44881.583333333336</v>
       </c>
-      <c r="B8029" s="1"/>
-      <c r="C8029" s="1"/>
+      <c r="B8029" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C8029" s="1" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="8030">
       <c r="A8030" s="6" t="n">
         <v>44881.59375</v>
       </c>
-      <c r="B8030" s="1"/>
-      <c r="C8030" s="1"/>
+      <c r="B8030" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8030" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="8031">
       <c r="A8031" s="6" t="n">
         <v>44881.604166666664</v>
       </c>
-      <c r="B8031" s="1"/>
-      <c r="C8031" s="1"/>
+      <c r="B8031" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8031" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="8032">
       <c r="A8032" s="6" t="n">
         <v>44881.614583333336</v>
       </c>
-      <c r="B8032" s="1"/>
-      <c r="C8032" s="1"/>
+      <c r="B8032" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C8032" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="8033">
       <c r="A8033" s="6" t="n">
         <v>44881.625</v>
       </c>
-      <c r="B8033" s="1"/>
-      <c r="C8033" s="1"/>
+      <c r="B8033" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C8033" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="8034">
       <c r="A8034" s="6" t="n">
         <v>44881.635416666664</v>
       </c>
-      <c r="B8034" s="1"/>
-      <c r="C8034" s="1"/>
+      <c r="B8034" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8034" s="1" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="8035">
       <c r="A8035" s="6" t="n">
         <v>44881.645833333336</v>
       </c>
-      <c r="B8035" s="1"/>
-      <c r="C8035" s="1"/>
+      <c r="B8035" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C8035" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="8036">
       <c r="A8036" s="6" t="n">
         <v>44881.65625</v>
       </c>
-      <c r="B8036" s="1"/>
-      <c r="C8036" s="1"/>
+      <c r="B8036" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8036" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="8037">
       <c r="A8037" s="6" t="n">
         <v>44881.666666666664</v>
       </c>
-      <c r="B8037" s="1"/>
-      <c r="C8037" s="1"/>
+      <c r="B8037" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C8037" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="8038">
       <c r="A8038" s="6" t="n">
         <v>44881.677083333336</v>
       </c>
-      <c r="B8038" s="1"/>
-      <c r="C8038" s="1"/>
+      <c r="B8038" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C8038" s="1" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="8039">
       <c r="A8039" s="6" t="n">
         <v>44881.6875</v>
       </c>
-      <c r="B8039" s="1"/>
-      <c r="C8039" s="1"/>
+      <c r="B8039" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C8039" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="8040">
       <c r="A8040" s="6" t="n">
         <v>44881.697916666664</v>
       </c>
-      <c r="B8040" s="1"/>
-      <c r="C8040" s="1"/>
+      <c r="B8040" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C8040" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="8041">
       <c r="A8041" s="6" t="n">
         <v>44881.708333333336</v>
       </c>
-      <c r="B8041" s="1"/>
-      <c r="C8041" s="1"/>
+      <c r="B8041" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C8041" s="1" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="8042">
       <c r="A8042" s="6" t="n">
         <v>44881.71875</v>
       </c>
-      <c r="B8042" s="1"/>
-      <c r="C8042" s="1"/>
+      <c r="B8042" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C8042" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="8043">
       <c r="A8043" s="6" t="n">
         <v>44881.729166666664</v>
       </c>
-      <c r="B8043" s="1"/>
-      <c r="C8043" s="1"/>
+      <c r="B8043" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C8043" s="1" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="8044">
       <c r="A8044" s="6" t="n">
         <v>44881.739583333336</v>
       </c>
-      <c r="B8044" s="1"/>
-      <c r="C8044" s="1"/>
+      <c r="B8044" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C8044" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="8045">
       <c r="A8045" s="6" t="n">
         <v>44881.75</v>
       </c>
-      <c r="B8045" s="1"/>
-      <c r="C8045" s="1"/>
+      <c r="B8045" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8045" s="1" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="8046">
       <c r="A8046" s="6" t="n">
         <v>44881.760416666664</v>
       </c>
-      <c r="B8046" s="1"/>
-      <c r="C8046" s="1"/>
+      <c r="B8046" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C8046" s="1" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="8047">
       <c r="A8047" s="6" t="n">
         <v>44881.770833333336</v>
       </c>
-      <c r="B8047" s="1"/>
-      <c r="C8047" s="1"/>
+      <c r="B8047" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C8047" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="8048">
       <c r="A8048" s="6" t="n">
         <v>44881.78125</v>
       </c>
-      <c r="B8048" s="1"/>
-      <c r="C8048" s="1"/>
+      <c r="B8048" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8048" s="1" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="8049">
       <c r="A8049" s="6" t="n">
         <v>44881.791666666664</v>
       </c>
-      <c r="B8049" s="1"/>
-      <c r="C8049" s="1"/>
+      <c r="B8049" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C8049" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="8050">
       <c r="A8050" s="6" t="n">
         <v>44881.802083333336</v>
       </c>
-      <c r="B8050" s="1"/>
-      <c r="C8050" s="1"/>
+      <c r="B8050" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8050" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="8051">
       <c r="A8051" s="6" t="n">
         <v>44881.8125</v>
       </c>
-      <c r="B8051" s="1"/>
-      <c r="C8051" s="1"/>
+      <c r="B8051" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C8051" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="8052">
       <c r="A8052" s="6" t="n">
         <v>44881.822916666664</v>
       </c>
-      <c r="B8052" s="1"/>
-      <c r="C8052" s="1"/>
+      <c r="B8052" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8052" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="8053">
       <c r="A8053" s="6" t="n">
         <v>44881.833333333336</v>
       </c>
-      <c r="B8053" s="1"/>
-      <c r="C8053" s="1"/>
+      <c r="B8053" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8053" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="8054">
       <c r="A8054" s="6" t="n">
         <v>44881.84375</v>
       </c>
-      <c r="B8054" s="1"/>
-      <c r="C8054" s="1"/>
+      <c r="B8054" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8054" s="1" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="8055">
       <c r="A8055" s="6" t="n">
         <v>44881.854166666664</v>
       </c>
-      <c r="B8055" s="1"/>
-      <c r="C8055" s="1"/>
+      <c r="B8055" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8055" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="8056">
       <c r="A8056" s="6" t="n">
         <v>44881.864583333336</v>
       </c>
-      <c r="B8056" s="1"/>
-      <c r="C8056" s="1"/>
+      <c r="B8056" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C8056" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="8057">
       <c r="A8057" s="6" t="n">
         <v>44881.875</v>
       </c>
-      <c r="B8057" s="1"/>
-      <c r="C8057" s="1"/>
+      <c r="B8057" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C8057" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="8058">
       <c r="A8058" s="6" t="n">
         <v>44881.885416666664</v>
       </c>
-      <c r="B8058" s="1"/>
-      <c r="C8058" s="1"/>
+      <c r="B8058" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C8058" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="8059">
       <c r="A8059" s="6" t="n">
         <v>44881.895833333336</v>
       </c>
-      <c r="B8059" s="1"/>
-      <c r="C8059" s="1"/>
+      <c r="B8059" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8059" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="8060">
       <c r="A8060" s="6" t="n">
         <v>44881.90625</v>
       </c>
-      <c r="B8060" s="1"/>
-      <c r="C8060" s="1"/>
+      <c r="B8060" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8060" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="8061">
       <c r="A8061" s="6" t="n">
         <v>44881.916666666664</v>
       </c>
-      <c r="B8061" s="1"/>
-      <c r="C8061" s="1"/>
+      <c r="B8061" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8061" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="8062">
       <c r="A8062" s="6" t="n">
         <v>44881.927083333336</v>
       </c>
-      <c r="B8062" s="1"/>
-      <c r="C8062" s="1"/>
+      <c r="B8062" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8062" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="8063">
       <c r="A8063" s="6" t="n">
         <v>44881.9375</v>
       </c>
-      <c r="B8063" s="1"/>
-      <c r="C8063" s="1"/>
+      <c r="B8063" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8063" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="8064">
       <c r="A8064" s="6" t="n">
         <v>44881.947916666664</v>
       </c>
-      <c r="B8064" s="1"/>
-      <c r="C8064" s="1"/>
+      <c r="B8064" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8064" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="8065">
       <c r="A8065" s="6" t="n">
         <v>44881.958333333336</v>
       </c>
-      <c r="B8065" s="1"/>
-      <c r="C8065" s="1"/>
+      <c r="B8065" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8065" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="8066">
       <c r="A8066" s="6" t="n">
         <v>44881.96875</v>
       </c>
-      <c r="B8066" s="1"/>
-      <c r="C8066" s="1"/>
+      <c r="B8066" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8066" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="8067">
       <c r="A8067" s="6" t="n">
         <v>44881.979166666664</v>
       </c>
-      <c r="B8067" s="1"/>
-      <c r="C8067" s="1"/>
+      <c r="B8067" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8067" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="8068">
       <c r="A8068" s="6" t="n">
         <v>44881.989583333336</v>
       </c>
-      <c r="B8068" s="1"/>
-      <c r="C8068" s="1"/>
+      <c r="B8068" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8068" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8069">
+      <c r="A8069" s="6" t="n">
+        <v>44882.0</v>
+      </c>
+      <c r="B8069" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8069" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8070">
+      <c r="A8070" s="6" t="n">
+        <v>44882.010416666664</v>
+      </c>
+      <c r="B8070" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8070" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8071">
+      <c r="A8071" s="6" t="n">
+        <v>44882.020833333336</v>
+      </c>
+      <c r="B8071" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8071" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8072">
+      <c r="A8072" s="6" t="n">
+        <v>44882.03125</v>
+      </c>
+      <c r="B8072" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8072" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8073">
+      <c r="A8073" s="6" t="n">
+        <v>44882.041666666664</v>
+      </c>
+      <c r="B8073" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8073" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8074">
+      <c r="A8074" s="6" t="n">
+        <v>44882.052083333336</v>
+      </c>
+      <c r="B8074" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8074" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8075">
+      <c r="A8075" s="6" t="n">
+        <v>44882.0625</v>
+      </c>
+      <c r="B8075" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C8075" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8076">
+      <c r="A8076" s="6" t="n">
+        <v>44882.072916666664</v>
+      </c>
+      <c r="B8076" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8076" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8077">
+      <c r="A8077" s="6" t="n">
+        <v>44882.083333333336</v>
+      </c>
+      <c r="B8077" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8077" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8078">
+      <c r="A8078" s="6" t="n">
+        <v>44882.09375</v>
+      </c>
+      <c r="B8078" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8078" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8079">
+      <c r="A8079" s="6" t="n">
+        <v>44882.104166666664</v>
+      </c>
+      <c r="B8079" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8079" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8080">
+      <c r="A8080" s="6" t="n">
+        <v>44882.114583333336</v>
+      </c>
+      <c r="B8080" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8080" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8081">
+      <c r="A8081" s="6" t="n">
+        <v>44882.125</v>
+      </c>
+      <c r="B8081" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8081" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8082">
+      <c r="A8082" s="6" t="n">
+        <v>44882.135416666664</v>
+      </c>
+      <c r="B8082" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8082" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8083">
+      <c r="A8083" s="6" t="n">
+        <v>44882.145833333336</v>
+      </c>
+      <c r="B8083" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8083" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8084">
+      <c r="A8084" s="6" t="n">
+        <v>44882.15625</v>
+      </c>
+      <c r="B8084" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8084" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8085">
+      <c r="A8085" s="6" t="n">
+        <v>44882.166666666664</v>
+      </c>
+      <c r="B8085" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8085" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8086">
+      <c r="A8086" s="6" t="n">
+        <v>44882.177083333336</v>
+      </c>
+      <c r="B8086" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8086" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8087">
+      <c r="A8087" s="6" t="n">
+        <v>44882.1875</v>
+      </c>
+      <c r="B8087" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8087" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8088">
+      <c r="A8088" s="6" t="n">
+        <v>44882.197916666664</v>
+      </c>
+      <c r="B8088" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8088" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8089">
+      <c r="A8089" s="6" t="n">
+        <v>44882.208333333336</v>
+      </c>
+      <c r="B8089" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8089" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8090">
+      <c r="A8090" s="6" t="n">
+        <v>44882.21875</v>
+      </c>
+      <c r="B8090" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8090" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8091">
+      <c r="A8091" s="6" t="n">
+        <v>44882.229166666664</v>
+      </c>
+      <c r="B8091" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8091" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8092">
+      <c r="A8092" s="6" t="n">
+        <v>44882.239583333336</v>
+      </c>
+      <c r="B8092" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8092" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8093">
+      <c r="A8093" s="6" t="n">
+        <v>44882.25</v>
+      </c>
+      <c r="B8093" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8093" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8094">
+      <c r="A8094" s="6" t="n">
+        <v>44882.260416666664</v>
+      </c>
+      <c r="B8094" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8094" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8095">
+      <c r="A8095" s="6" t="n">
+        <v>44882.270833333336</v>
+      </c>
+      <c r="B8095" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8095" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8096">
+      <c r="A8096" s="6" t="n">
+        <v>44882.28125</v>
+      </c>
+      <c r="B8096" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8096" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8097">
+      <c r="A8097" s="6" t="n">
+        <v>44882.291666666664</v>
+      </c>
+      <c r="B8097" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8097" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8098">
+      <c r="A8098" s="6" t="n">
+        <v>44882.302083333336</v>
+      </c>
+      <c r="B8098" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8098" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="8099">
+      <c r="A8099" s="6" t="n">
+        <v>44882.3125</v>
+      </c>
+      <c r="B8099" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8099" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8100">
+      <c r="A8100" s="6" t="n">
+        <v>44882.322916666664</v>
+      </c>
+      <c r="B8100" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C8100" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8101">
+      <c r="A8101" s="6" t="n">
+        <v>44882.333333333336</v>
+      </c>
+      <c r="B8101" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C8101" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8102">
+      <c r="A8102" s="6" t="n">
+        <v>44882.34375</v>
+      </c>
+      <c r="B8102" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8102" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8103">
+      <c r="A8103" s="6" t="n">
+        <v>44882.354166666664</v>
+      </c>
+      <c r="B8103" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C8103" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8104">
+      <c r="A8104" s="6" t="n">
+        <v>44882.364583333336</v>
+      </c>
+      <c r="B8104" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8104" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8105">
+      <c r="A8105" s="6" t="n">
+        <v>44882.375</v>
+      </c>
+      <c r="B8105" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8105" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8106">
+      <c r="A8106" s="6" t="n">
+        <v>44882.385416666664</v>
+      </c>
+      <c r="B8106" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8106" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="8107">
+      <c r="A8107" s="6" t="n">
+        <v>44882.395833333336</v>
+      </c>
+      <c r="B8107" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8107" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8108">
+      <c r="A8108" s="6" t="n">
+        <v>44882.40625</v>
+      </c>
+      <c r="B8108" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8108" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="8109">
+      <c r="A8109" s="6" t="n">
+        <v>44882.416666666664</v>
+      </c>
+      <c r="B8109" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8109" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8110">
+      <c r="A8110" s="6" t="n">
+        <v>44882.427083333336</v>
+      </c>
+      <c r="B8110" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8110" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8111">
+      <c r="A8111" s="6" t="n">
+        <v>44882.4375</v>
+      </c>
+      <c r="B8111" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8111" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8112">
+      <c r="A8112" s="6" t="n">
+        <v>44882.447916666664</v>
+      </c>
+      <c r="B8112" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8112" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8113">
+      <c r="A8113" s="6" t="n">
+        <v>44882.458333333336</v>
+      </c>
+      <c r="B8113" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8113" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8114">
+      <c r="A8114" s="6" t="n">
+        <v>44882.46875</v>
+      </c>
+      <c r="B8114" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8114" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8115">
+      <c r="A8115" s="6" t="n">
+        <v>44882.479166666664</v>
+      </c>
+      <c r="B8115" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C8115" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8116">
+      <c r="A8116" s="6" t="n">
+        <v>44882.489583333336</v>
+      </c>
+      <c r="B8116" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8116" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8117">
+      <c r="A8117" s="6" t="n">
+        <v>44882.5</v>
+      </c>
+      <c r="B8117" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8117" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8118">
+      <c r="A8118" s="6" t="n">
+        <v>44882.510416666664</v>
+      </c>
+      <c r="B8118" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8118" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8119">
+      <c r="A8119" s="6" t="n">
+        <v>44882.520833333336</v>
+      </c>
+      <c r="B8119" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8119" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8120">
+      <c r="A8120" s="6" t="n">
+        <v>44882.53125</v>
+      </c>
+      <c r="B8120" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8120" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8121">
+      <c r="A8121" s="6" t="n">
+        <v>44882.541666666664</v>
+      </c>
+      <c r="B8121" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C8121" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8122">
+      <c r="A8122" s="6" t="n">
+        <v>44882.552083333336</v>
+      </c>
+      <c r="B8122" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8122" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8123">
+      <c r="A8123" s="6" t="n">
+        <v>44882.5625</v>
+      </c>
+      <c r="B8123" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8123" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8124">
+      <c r="A8124" s="6" t="n">
+        <v>44882.572916666664</v>
+      </c>
+      <c r="B8124" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8124" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="8125">
+      <c r="A8125" s="6" t="n">
+        <v>44882.583333333336</v>
+      </c>
+      <c r="B8125" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8125" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8126">
+      <c r="A8126" s="6" t="n">
+        <v>44882.59375</v>
+      </c>
+      <c r="B8126" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C8126" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8127">
+      <c r="A8127" s="6" t="n">
+        <v>44882.604166666664</v>
+      </c>
+      <c r="B8127" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8127" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8128">
+      <c r="A8128" s="6" t="n">
+        <v>44882.614583333336</v>
+      </c>
+      <c r="B8128" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8128" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="8129">
+      <c r="A8129" s="6" t="n">
+        <v>44882.625</v>
+      </c>
+      <c r="B8129" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C8129" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8130">
+      <c r="A8130" s="6" t="n">
+        <v>44882.635416666664</v>
+      </c>
+      <c r="B8130" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C8130" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8131">
+      <c r="A8131" s="6" t="n">
+        <v>44882.645833333336</v>
+      </c>
+      <c r="B8131" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C8131" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8132">
+      <c r="A8132" s="6" t="n">
+        <v>44882.65625</v>
+      </c>
+      <c r="B8132" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C8132" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8133">
+      <c r="A8133" s="6" t="n">
+        <v>44882.666666666664</v>
+      </c>
+      <c r="B8133" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C8133" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="8134">
+      <c r="A8134" s="6" t="n">
+        <v>44882.677083333336</v>
+      </c>
+      <c r="B8134" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C8134" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="8135">
+      <c r="A8135" s="6" t="n">
+        <v>44882.6875</v>
+      </c>
+      <c r="B8135" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8135" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8136">
+      <c r="A8136" s="6" t="n">
+        <v>44882.697916666664</v>
+      </c>
+      <c r="B8136" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C8136" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8137">
+      <c r="A8137" s="6" t="n">
+        <v>44882.708333333336</v>
+      </c>
+      <c r="B8137" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C8137" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8138">
+      <c r="A8138" s="6" t="n">
+        <v>44882.71875</v>
+      </c>
+      <c r="B8138" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8138" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="8139">
+      <c r="A8139" s="6" t="n">
+        <v>44882.729166666664</v>
+      </c>
+      <c r="B8139" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C8139" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8140">
+      <c r="A8140" s="6" t="n">
+        <v>44882.739583333336</v>
+      </c>
+      <c r="B8140" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C8140" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="8141">
+      <c r="A8141" s="6" t="n">
+        <v>44882.75</v>
+      </c>
+      <c r="B8141" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C8141" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="8142">
+      <c r="A8142" s="6" t="n">
+        <v>44882.760416666664</v>
+      </c>
+      <c r="B8142" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8142" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8143">
+      <c r="A8143" s="6" t="n">
+        <v>44882.770833333336</v>
+      </c>
+      <c r="B8143" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8143" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8144">
+      <c r="A8144" s="6" t="n">
+        <v>44882.78125</v>
+      </c>
+      <c r="B8144" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8144" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8145">
+      <c r="A8145" s="6" t="n">
+        <v>44882.791666666664</v>
+      </c>
+      <c r="B8145" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8145" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8146">
+      <c r="A8146" s="6" t="n">
+        <v>44882.802083333336</v>
+      </c>
+      <c r="B8146" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C8146" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8147">
+      <c r="A8147" s="6" t="n">
+        <v>44882.8125</v>
+      </c>
+      <c r="B8147" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C8147" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8148">
+      <c r="A8148" s="6" t="n">
+        <v>44882.822916666664</v>
+      </c>
+      <c r="B8148" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8148" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8149">
+      <c r="A8149" s="6" t="n">
+        <v>44882.833333333336</v>
+      </c>
+      <c r="B8149" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8149" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8150">
+      <c r="A8150" s="6" t="n">
+        <v>44882.84375</v>
+      </c>
+      <c r="B8150" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C8150" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8151">
+      <c r="A8151" s="6" t="n">
+        <v>44882.854166666664</v>
+      </c>
+      <c r="B8151" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8151" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8152">
+      <c r="A8152" s="6" t="n">
+        <v>44882.864583333336</v>
+      </c>
+      <c r="B8152" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8152" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8153">
+      <c r="A8153" s="6" t="n">
+        <v>44882.875</v>
+      </c>
+      <c r="B8153" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C8153" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8154">
+      <c r="A8154" s="6" t="n">
+        <v>44882.885416666664</v>
+      </c>
+      <c r="B8154" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8154" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8155">
+      <c r="A8155" s="6" t="n">
+        <v>44882.895833333336</v>
+      </c>
+      <c r="B8155" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8155" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8156">
+      <c r="A8156" s="6" t="n">
+        <v>44882.90625</v>
+      </c>
+      <c r="B8156" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8156" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8157">
+      <c r="A8157" s="6" t="n">
+        <v>44882.916666666664</v>
+      </c>
+      <c r="B8157" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8157" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8158">
+      <c r="A8158" s="6" t="n">
+        <v>44882.927083333336</v>
+      </c>
+      <c r="B8158" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8158" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8159">
+      <c r="A8159" s="6" t="n">
+        <v>44882.9375</v>
+      </c>
+      <c r="B8159" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8159" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8160">
+      <c r="A8160" s="6" t="n">
+        <v>44882.947916666664</v>
+      </c>
+      <c r="B8160" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8160" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8161">
+      <c r="A8161" s="6" t="n">
+        <v>44882.958333333336</v>
+      </c>
+      <c r="B8161" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8161" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8162">
+      <c r="A8162" s="6" t="n">
+        <v>44882.96875</v>
+      </c>
+      <c r="B8162" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8162" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8163">
+      <c r="A8163" s="6" t="n">
+        <v>44882.979166666664</v>
+      </c>
+      <c r="B8163" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C8163" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8164">
+      <c r="A8164" s="6" t="n">
+        <v>44882.989583333336</v>
+      </c>
+      <c r="B8164" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8164" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8165">
+      <c r="A8165" s="6" t="n">
+        <v>44883.0</v>
+      </c>
+      <c r="B8165" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8165" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8166">
+      <c r="A8166" s="6" t="n">
+        <v>44883.010416666664</v>
+      </c>
+      <c r="B8166" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8166" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8167">
+      <c r="A8167" s="6" t="n">
+        <v>44883.020833333336</v>
+      </c>
+      <c r="B8167" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8167" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8168">
+      <c r="A8168" s="6" t="n">
+        <v>44883.03125</v>
+      </c>
+      <c r="B8168" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8168" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8169">
+      <c r="A8169" s="6" t="n">
+        <v>44883.041666666664</v>
+      </c>
+      <c r="B8169" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8169" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8170">
+      <c r="A8170" s="6" t="n">
+        <v>44883.052083333336</v>
+      </c>
+      <c r="B8170" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8170" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8171">
+      <c r="A8171" s="6" t="n">
+        <v>44883.0625</v>
+      </c>
+      <c r="B8171" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8171" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8172">
+      <c r="A8172" s="6" t="n">
+        <v>44883.072916666664</v>
+      </c>
+      <c r="B8172" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8172" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8173">
+      <c r="A8173" s="6" t="n">
+        <v>44883.083333333336</v>
+      </c>
+      <c r="B8173" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8173" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8174">
+      <c r="A8174" s="6" t="n">
+        <v>44883.09375</v>
+      </c>
+      <c r="B8174" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8174" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8175">
+      <c r="A8175" s="6" t="n">
+        <v>44883.104166666664</v>
+      </c>
+      <c r="B8175" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8175" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8176">
+      <c r="A8176" s="6" t="n">
+        <v>44883.114583333336</v>
+      </c>
+      <c r="B8176" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8176" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8177">
+      <c r="A8177" s="6" t="n">
+        <v>44883.125</v>
+      </c>
+      <c r="B8177" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8177" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8178">
+      <c r="A8178" s="6" t="n">
+        <v>44883.135416666664</v>
+      </c>
+      <c r="B8178" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8178" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8179">
+      <c r="A8179" s="6" t="n">
+        <v>44883.145833333336</v>
+      </c>
+      <c r="B8179" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8179" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8180">
+      <c r="A8180" s="6" t="n">
+        <v>44883.15625</v>
+      </c>
+      <c r="B8180" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8180" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8181">
+      <c r="A8181" s="6" t="n">
+        <v>44883.166666666664</v>
+      </c>
+      <c r="B8181" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8181" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8182">
+      <c r="A8182" s="6" t="n">
+        <v>44883.177083333336</v>
+      </c>
+      <c r="B8182" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8182" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8183">
+      <c r="A8183" s="6" t="n">
+        <v>44883.1875</v>
+      </c>
+      <c r="B8183" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8183" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8184">
+      <c r="A8184" s="6" t="n">
+        <v>44883.197916666664</v>
+      </c>
+      <c r="B8184" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8184" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8185">
+      <c r="A8185" s="6" t="n">
+        <v>44883.208333333336</v>
+      </c>
+      <c r="B8185" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8185" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8186">
+      <c r="A8186" s="6" t="n">
+        <v>44883.21875</v>
+      </c>
+      <c r="B8186" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8186" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8187">
+      <c r="A8187" s="6" t="n">
+        <v>44883.229166666664</v>
+      </c>
+      <c r="B8187" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8187" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8188">
+      <c r="A8188" s="6" t="n">
+        <v>44883.239583333336</v>
+      </c>
+      <c r="B8188" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8188" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8189">
+      <c r="A8189" s="6" t="n">
+        <v>44883.25</v>
+      </c>
+      <c r="B8189" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8189" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8190">
+      <c r="A8190" s="6" t="n">
+        <v>44883.260416666664</v>
+      </c>
+      <c r="B8190" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8190" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8191">
+      <c r="A8191" s="6" t="n">
+        <v>44883.270833333336</v>
+      </c>
+      <c r="B8191" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8191" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8192">
+      <c r="A8192" s="6" t="n">
+        <v>44883.28125</v>
+      </c>
+      <c r="B8192" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8192" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8193">
+      <c r="A8193" s="6" t="n">
+        <v>44883.291666666664</v>
+      </c>
+      <c r="B8193" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8193" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8194">
+      <c r="A8194" s="6" t="n">
+        <v>44883.302083333336</v>
+      </c>
+      <c r="B8194" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8194" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8195">
+      <c r="A8195" s="6" t="n">
+        <v>44883.3125</v>
+      </c>
+      <c r="B8195" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8195" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8196">
+      <c r="A8196" s="6" t="n">
+        <v>44883.322916666664</v>
+      </c>
+      <c r="B8196" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C8196" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8197">
+      <c r="A8197" s="6" t="n">
+        <v>44883.333333333336</v>
+      </c>
+      <c r="B8197" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8197" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8198">
+      <c r="A8198" s="6" t="n">
+        <v>44883.34375</v>
+      </c>
+      <c r="B8198" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8198" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8199">
+      <c r="A8199" s="6" t="n">
+        <v>44883.354166666664</v>
+      </c>
+      <c r="B8199" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8199" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8200">
+      <c r="A8200" s="6" t="n">
+        <v>44883.364583333336</v>
+      </c>
+      <c r="B8200" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8200" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8201">
+      <c r="A8201" s="6" t="n">
+        <v>44883.375</v>
+      </c>
+      <c r="B8201" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8201" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8202">
+      <c r="A8202" s="6" t="n">
+        <v>44883.385416666664</v>
+      </c>
+      <c r="B8202" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8202" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8203">
+      <c r="A8203" s="6" t="n">
+        <v>44883.395833333336</v>
+      </c>
+      <c r="B8203" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8203" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8204">
+      <c r="A8204" s="6" t="n">
+        <v>44883.40625</v>
+      </c>
+      <c r="B8204" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8204" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8205">
+      <c r="A8205" s="6" t="n">
+        <v>44883.416666666664</v>
+      </c>
+      <c r="B8205" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8205" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8206">
+      <c r="A8206" s="6" t="n">
+        <v>44883.427083333336</v>
+      </c>
+      <c r="B8206" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8206" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8207">
+      <c r="A8207" s="6" t="n">
+        <v>44883.4375</v>
+      </c>
+      <c r="B8207" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8207" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8208">
+      <c r="A8208" s="6" t="n">
+        <v>44883.447916666664</v>
+      </c>
+      <c r="B8208" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8208" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8209">
+      <c r="A8209" s="6" t="n">
+        <v>44883.458333333336</v>
+      </c>
+      <c r="B8209" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8209" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8210">
+      <c r="A8210" s="6" t="n">
+        <v>44883.46875</v>
+      </c>
+      <c r="B8210" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8210" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8211">
+      <c r="A8211" s="6" t="n">
+        <v>44883.479166666664</v>
+      </c>
+      <c r="B8211" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8211" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8212">
+      <c r="A8212" s="6" t="n">
+        <v>44883.489583333336</v>
+      </c>
+      <c r="B8212" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8212" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8213">
+      <c r="A8213" s="6" t="n">
+        <v>44883.5</v>
+      </c>
+      <c r="B8213" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8213" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8214">
+      <c r="A8214" s="6" t="n">
+        <v>44883.510416666664</v>
+      </c>
+      <c r="B8214" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8214" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8215">
+      <c r="A8215" s="6" t="n">
+        <v>44883.520833333336</v>
+      </c>
+      <c r="B8215" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8215" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8216">
+      <c r="A8216" s="6" t="n">
+        <v>44883.53125</v>
+      </c>
+      <c r="B8216" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8216" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8217">
+      <c r="A8217" s="6" t="n">
+        <v>44883.541666666664</v>
+      </c>
+      <c r="B8217" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8217" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="8218">
+      <c r="A8218" s="6" t="n">
+        <v>44883.552083333336</v>
+      </c>
+      <c r="B8218" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8218" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8219">
+      <c r="A8219" s="6" t="n">
+        <v>44883.5625</v>
+      </c>
+      <c r="B8219" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8219" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8220">
+      <c r="A8220" s="6" t="n">
+        <v>44883.572916666664</v>
+      </c>
+      <c r="B8220" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8220" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8221">
+      <c r="A8221" s="6" t="n">
+        <v>44883.583333333336</v>
+      </c>
+      <c r="B8221" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8221" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8222">
+      <c r="A8222" s="6" t="n">
+        <v>44883.59375</v>
+      </c>
+      <c r="B8222" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8222" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8223">
+      <c r="A8223" s="6" t="n">
+        <v>44883.604166666664</v>
+      </c>
+      <c r="B8223" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8223" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8224">
+      <c r="A8224" s="6" t="n">
+        <v>44883.614583333336</v>
+      </c>
+      <c r="B8224" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8224" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8225">
+      <c r="A8225" s="6" t="n">
+        <v>44883.625</v>
+      </c>
+      <c r="B8225" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8225" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8226">
+      <c r="A8226" s="6" t="n">
+        <v>44883.635416666664</v>
+      </c>
+      <c r="B8226" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8226" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8227">
+      <c r="A8227" s="6" t="n">
+        <v>44883.645833333336</v>
+      </c>
+      <c r="B8227" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C8227" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8228">
+      <c r="A8228" s="6" t="n">
+        <v>44883.65625</v>
+      </c>
+      <c r="B8228" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C8228" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8229">
+      <c r="A8229" s="6" t="n">
+        <v>44883.666666666664</v>
+      </c>
+      <c r="B8229" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8229" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8230">
+      <c r="A8230" s="6" t="n">
+        <v>44883.677083333336</v>
+      </c>
+      <c r="B8230" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8230" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8231">
+      <c r="A8231" s="6" t="n">
+        <v>44883.6875</v>
+      </c>
+      <c r="B8231" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8231" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8232">
+      <c r="A8232" s="6" t="n">
+        <v>44883.697916666664</v>
+      </c>
+      <c r="B8232" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8232" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8233">
+      <c r="A8233" s="6" t="n">
+        <v>44883.708333333336</v>
+      </c>
+      <c r="B8233" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8233" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8234">
+      <c r="A8234" s="6" t="n">
+        <v>44883.71875</v>
+      </c>
+      <c r="B8234" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C8234" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8235">
+      <c r="A8235" s="6" t="n">
+        <v>44883.729166666664</v>
+      </c>
+      <c r="B8235" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C8235" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="8236">
+      <c r="A8236" s="6" t="n">
+        <v>44883.739583333336</v>
+      </c>
+      <c r="B8236" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8236" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="8237">
+      <c r="A8237" s="6" t="n">
+        <v>44883.75</v>
+      </c>
+      <c r="B8237" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8237" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8238">
+      <c r="A8238" s="6" t="n">
+        <v>44883.760416666664</v>
+      </c>
+      <c r="B8238" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8238" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8239">
+      <c r="A8239" s="6" t="n">
+        <v>44883.770833333336</v>
+      </c>
+      <c r="B8239" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8239" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8240">
+      <c r="A8240" s="6" t="n">
+        <v>44883.78125</v>
+      </c>
+      <c r="B8240" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8240" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8241">
+      <c r="A8241" s="6" t="n">
+        <v>44883.791666666664</v>
+      </c>
+      <c r="B8241" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8241" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8242">
+      <c r="A8242" s="6" t="n">
+        <v>44883.802083333336</v>
+      </c>
+      <c r="B8242" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8242" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8243">
+      <c r="A8243" s="6" t="n">
+        <v>44883.8125</v>
+      </c>
+      <c r="B8243" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8243" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8244">
+      <c r="A8244" s="6" t="n">
+        <v>44883.822916666664</v>
+      </c>
+      <c r="B8244" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8244" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8245">
+      <c r="A8245" s="6" t="n">
+        <v>44883.833333333336</v>
+      </c>
+      <c r="B8245" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8245" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8246">
+      <c r="A8246" s="6" t="n">
+        <v>44883.84375</v>
+      </c>
+      <c r="B8246" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8246" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8247">
+      <c r="A8247" s="6" t="n">
+        <v>44883.854166666664</v>
+      </c>
+      <c r="B8247" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8247" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8248">
+      <c r="A8248" s="6" t="n">
+        <v>44883.864583333336</v>
+      </c>
+      <c r="B8248" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8248" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8249">
+      <c r="A8249" s="6" t="n">
+        <v>44883.875</v>
+      </c>
+      <c r="B8249" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8249" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8250">
+      <c r="A8250" s="6" t="n">
+        <v>44883.885416666664</v>
+      </c>
+      <c r="B8250" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8250" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8251">
+      <c r="A8251" s="6" t="n">
+        <v>44883.895833333336</v>
+      </c>
+      <c r="B8251" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8251" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8252">
+      <c r="A8252" s="6" t="n">
+        <v>44883.90625</v>
+      </c>
+      <c r="B8252" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8252" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8253">
+      <c r="A8253" s="6" t="n">
+        <v>44883.916666666664</v>
+      </c>
+      <c r="B8253" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C8253" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8254">
+      <c r="A8254" s="6" t="n">
+        <v>44883.927083333336</v>
+      </c>
+      <c r="B8254" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8254" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8255">
+      <c r="A8255" s="6" t="n">
+        <v>44883.9375</v>
+      </c>
+      <c r="B8255" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8255" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8256">
+      <c r="A8256" s="6" t="n">
+        <v>44883.947916666664</v>
+      </c>
+      <c r="B8256" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8256" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8257">
+      <c r="A8257" s="6" t="n">
+        <v>44883.958333333336</v>
+      </c>
+      <c r="B8257" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8257" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8258">
+      <c r="A8258" s="6" t="n">
+        <v>44883.96875</v>
+      </c>
+      <c r="B8258" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8258" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8259">
+      <c r="A8259" s="6" t="n">
+        <v>44883.979166666664</v>
+      </c>
+      <c r="B8259" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8259" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8260">
+      <c r="A8260" s="6" t="n">
+        <v>44883.989583333336</v>
+      </c>
+      <c r="B8260" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8260" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8261">
+      <c r="A8261" s="6" t="n">
+        <v>44884.0</v>
+      </c>
+      <c r="B8261" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8261" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8262">
+      <c r="A8262" s="6" t="n">
+        <v>44884.010416666664</v>
+      </c>
+      <c r="B8262" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8262" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8263">
+      <c r="A8263" s="6" t="n">
+        <v>44884.020833333336</v>
+      </c>
+      <c r="B8263" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8263" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8264">
+      <c r="A8264" s="6" t="n">
+        <v>44884.03125</v>
+      </c>
+      <c r="B8264" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8264" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8265">
+      <c r="A8265" s="6" t="n">
+        <v>44884.041666666664</v>
+      </c>
+      <c r="B8265" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8265" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8266">
+      <c r="A8266" s="6" t="n">
+        <v>44884.052083333336</v>
+      </c>
+      <c r="B8266" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8266" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8267">
+      <c r="A8267" s="6" t="n">
+        <v>44884.0625</v>
+      </c>
+      <c r="B8267" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8267" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8268">
+      <c r="A8268" s="6" t="n">
+        <v>44884.072916666664</v>
+      </c>
+      <c r="B8268" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8268" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8269">
+      <c r="A8269" s="6" t="n">
+        <v>44884.083333333336</v>
+      </c>
+      <c r="B8269" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8269" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8270">
+      <c r="A8270" s="6" t="n">
+        <v>44884.09375</v>
+      </c>
+      <c r="B8270" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8270" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8271">
+      <c r="A8271" s="6" t="n">
+        <v>44884.104166666664</v>
+      </c>
+      <c r="B8271" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8271" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8272">
+      <c r="A8272" s="6" t="n">
+        <v>44884.114583333336</v>
+      </c>
+      <c r="B8272" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8272" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8273">
+      <c r="A8273" s="6" t="n">
+        <v>44884.125</v>
+      </c>
+      <c r="B8273" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8273" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8274">
+      <c r="A8274" s="6" t="n">
+        <v>44884.135416666664</v>
+      </c>
+      <c r="B8274" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8274" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8275">
+      <c r="A8275" s="6" t="n">
+        <v>44884.145833333336</v>
+      </c>
+      <c r="B8275" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8275" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8276">
+      <c r="A8276" s="6" t="n">
+        <v>44884.15625</v>
+      </c>
+      <c r="B8276" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8276" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8277">
+      <c r="A8277" s="6" t="n">
+        <v>44884.166666666664</v>
+      </c>
+      <c r="B8277" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8277" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8278">
+      <c r="A8278" s="6" t="n">
+        <v>44884.177083333336</v>
+      </c>
+      <c r="B8278" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8278" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8279">
+      <c r="A8279" s="6" t="n">
+        <v>44884.1875</v>
+      </c>
+      <c r="B8279" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8279" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8280">
+      <c r="A8280" s="6" t="n">
+        <v>44884.197916666664</v>
+      </c>
+      <c r="B8280" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8280" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8281">
+      <c r="A8281" s="6" t="n">
+        <v>44884.208333333336</v>
+      </c>
+      <c r="B8281" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8281" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8282">
+      <c r="A8282" s="6" t="n">
+        <v>44884.21875</v>
+      </c>
+      <c r="B8282" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8282" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8283">
+      <c r="A8283" s="6" t="n">
+        <v>44884.229166666664</v>
+      </c>
+      <c r="B8283" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8283" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8284">
+      <c r="A8284" s="6" t="n">
+        <v>44884.239583333336</v>
+      </c>
+      <c r="B8284" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8284" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8285">
+      <c r="A8285" s="6" t="n">
+        <v>44884.25</v>
+      </c>
+      <c r="B8285" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8285" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8286">
+      <c r="A8286" s="6" t="n">
+        <v>44884.260416666664</v>
+      </c>
+      <c r="B8286" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8286" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8287">
+      <c r="A8287" s="6" t="n">
+        <v>44884.270833333336</v>
+      </c>
+      <c r="B8287" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8287" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8288">
+      <c r="A8288" s="6" t="n">
+        <v>44884.28125</v>
+      </c>
+      <c r="B8288" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8288" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8289">
+      <c r="A8289" s="6" t="n">
+        <v>44884.291666666664</v>
+      </c>
+      <c r="B8289" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8289" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8290">
+      <c r="A8290" s="6" t="n">
+        <v>44884.302083333336</v>
+      </c>
+      <c r="B8290" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8290" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8291">
+      <c r="A8291" s="6" t="n">
+        <v>44884.3125</v>
+      </c>
+      <c r="B8291" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8291" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8292">
+      <c r="A8292" s="6" t="n">
+        <v>44884.322916666664</v>
+      </c>
+      <c r="B8292" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8292" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8293">
+      <c r="A8293" s="6" t="n">
+        <v>44884.333333333336</v>
+      </c>
+      <c r="B8293" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8293" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8294">
+      <c r="A8294" s="6" t="n">
+        <v>44884.34375</v>
+      </c>
+      <c r="B8294" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8294" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8295">
+      <c r="A8295" s="6" t="n">
+        <v>44884.354166666664</v>
+      </c>
+      <c r="B8295" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8295" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8296">
+      <c r="A8296" s="6" t="n">
+        <v>44884.364583333336</v>
+      </c>
+      <c r="B8296" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C8296" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8297">
+      <c r="A8297" s="6" t="n">
+        <v>44884.375</v>
+      </c>
+      <c r="B8297" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8297" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8298">
+      <c r="A8298" s="6" t="n">
+        <v>44884.385416666664</v>
+      </c>
+      <c r="B8298" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C8298" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8299">
+      <c r="A8299" s="6" t="n">
+        <v>44884.395833333336</v>
+      </c>
+      <c r="B8299" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8299" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="8300">
+      <c r="A8300" s="6" t="n">
+        <v>44884.40625</v>
+      </c>
+      <c r="B8300" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8300" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8301">
+      <c r="A8301" s="6" t="n">
+        <v>44884.416666666664</v>
+      </c>
+      <c r="B8301" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8301" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8302">
+      <c r="A8302" s="6" t="n">
+        <v>44884.427083333336</v>
+      </c>
+      <c r="B8302" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8302" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="8303">
+      <c r="A8303" s="6" t="n">
+        <v>44884.4375</v>
+      </c>
+      <c r="B8303" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8303" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8304">
+      <c r="A8304" s="6" t="n">
+        <v>44884.447916666664</v>
+      </c>
+      <c r="B8304" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8304" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8305">
+      <c r="A8305" s="6" t="n">
+        <v>44884.458333333336</v>
+      </c>
+      <c r="B8305" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8305" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8306">
+      <c r="A8306" s="6" t="n">
+        <v>44884.46875</v>
+      </c>
+      <c r="B8306" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8306" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8307">
+      <c r="A8307" s="6" t="n">
+        <v>44884.479166666664</v>
+      </c>
+      <c r="B8307" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8307" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8308">
+      <c r="A8308" s="6" t="n">
+        <v>44884.489583333336</v>
+      </c>
+      <c r="B8308" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8308" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8309">
+      <c r="A8309" s="6" t="n">
+        <v>44884.5</v>
+      </c>
+      <c r="B8309" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C8309" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8310">
+      <c r="A8310" s="6" t="n">
+        <v>44884.510416666664</v>
+      </c>
+      <c r="B8310" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8310" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8311">
+      <c r="A8311" s="6" t="n">
+        <v>44884.520833333336</v>
+      </c>
+      <c r="B8311" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8311" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8312">
+      <c r="A8312" s="6" t="n">
+        <v>44884.53125</v>
+      </c>
+      <c r="B8312" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8312" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="8313">
+      <c r="A8313" s="6" t="n">
+        <v>44884.541666666664</v>
+      </c>
+      <c r="B8313" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8313" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8314">
+      <c r="A8314" s="6" t="n">
+        <v>44884.552083333336</v>
+      </c>
+      <c r="B8314" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8314" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8315">
+      <c r="A8315" s="6" t="n">
+        <v>44884.5625</v>
+      </c>
+      <c r="B8315" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C8315" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8316">
+      <c r="A8316" s="6" t="n">
+        <v>44884.572916666664</v>
+      </c>
+      <c r="B8316" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8316" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8317">
+      <c r="A8317" s="6" t="n">
+        <v>44884.583333333336</v>
+      </c>
+      <c r="B8317" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C8317" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8318">
+      <c r="A8318" s="6" t="n">
+        <v>44884.59375</v>
+      </c>
+      <c r="B8318" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8318" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8319">
+      <c r="A8319" s="6" t="n">
+        <v>44884.604166666664</v>
+      </c>
+      <c r="B8319" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8319" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8320">
+      <c r="A8320" s="6" t="n">
+        <v>44884.614583333336</v>
+      </c>
+      <c r="B8320" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8320" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8321">
+      <c r="A8321" s="6" t="n">
+        <v>44884.625</v>
+      </c>
+      <c r="B8321" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8321" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8322">
+      <c r="A8322" s="6" t="n">
+        <v>44884.635416666664</v>
+      </c>
+      <c r="B8322" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8322" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8323">
+      <c r="A8323" s="6" t="n">
+        <v>44884.645833333336</v>
+      </c>
+      <c r="B8323" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8323" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8324">
+      <c r="A8324" s="6" t="n">
+        <v>44884.65625</v>
+      </c>
+      <c r="B8324" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C8324" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="8325">
+      <c r="A8325" s="6" t="n">
+        <v>44884.666666666664</v>
+      </c>
+      <c r="B8325" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C8325" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="8326">
+      <c r="A8326" s="6" t="n">
+        <v>44884.677083333336</v>
+      </c>
+      <c r="B8326" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C8326" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8327">
+      <c r="A8327" s="6" t="n">
+        <v>44884.6875</v>
+      </c>
+      <c r="B8327" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8327" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8328">
+      <c r="A8328" s="6" t="n">
+        <v>44884.697916666664</v>
+      </c>
+      <c r="B8328" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8328" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8329">
+      <c r="A8329" s="6" t="n">
+        <v>44884.708333333336</v>
+      </c>
+      <c r="B8329" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8329" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8330">
+      <c r="A8330" s="6" t="n">
+        <v>44884.71875</v>
+      </c>
+      <c r="B8330" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C8330" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8331">
+      <c r="A8331" s="6" t="n">
+        <v>44884.729166666664</v>
+      </c>
+      <c r="B8331" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8331" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8332">
+      <c r="A8332" s="6" t="n">
+        <v>44884.739583333336</v>
+      </c>
+      <c r="B8332" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8332" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8333">
+      <c r="A8333" s="6" t="n">
+        <v>44884.75</v>
+      </c>
+      <c r="B8333" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8333" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8334">
+      <c r="A8334" s="6" t="n">
+        <v>44884.760416666664</v>
+      </c>
+      <c r="B8334" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C8334" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8335">
+      <c r="A8335" s="6" t="n">
+        <v>44884.770833333336</v>
+      </c>
+      <c r="B8335" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8335" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8336">
+      <c r="A8336" s="6" t="n">
+        <v>44884.78125</v>
+      </c>
+      <c r="B8336" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8336" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8337">
+      <c r="A8337" s="6" t="n">
+        <v>44884.791666666664</v>
+      </c>
+      <c r="B8337" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8337" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8338">
+      <c r="A8338" s="6" t="n">
+        <v>44884.802083333336</v>
+      </c>
+      <c r="B8338" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8338" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8339">
+      <c r="A8339" s="6" t="n">
+        <v>44884.8125</v>
+      </c>
+      <c r="B8339" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8339" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8340">
+      <c r="A8340" s="6" t="n">
+        <v>44884.822916666664</v>
+      </c>
+      <c r="B8340" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8340" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8341">
+      <c r="A8341" s="6" t="n">
+        <v>44884.833333333336</v>
+      </c>
+      <c r="B8341" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8341" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8342">
+      <c r="A8342" s="6" t="n">
+        <v>44884.84375</v>
+      </c>
+      <c r="B8342" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8342" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8343">
+      <c r="A8343" s="6" t="n">
+        <v>44884.854166666664</v>
+      </c>
+      <c r="B8343" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8343" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8344">
+      <c r="A8344" s="6" t="n">
+        <v>44884.864583333336</v>
+      </c>
+      <c r="B8344" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8344" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8345">
+      <c r="A8345" s="6" t="n">
+        <v>44884.875</v>
+      </c>
+      <c r="B8345" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8345" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8346">
+      <c r="A8346" s="6" t="n">
+        <v>44884.885416666664</v>
+      </c>
+      <c r="B8346" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8346" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8347">
+      <c r="A8347" s="6" t="n">
+        <v>44884.895833333336</v>
+      </c>
+      <c r="B8347" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8347" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8348">
+      <c r="A8348" s="6" t="n">
+        <v>44884.90625</v>
+      </c>
+      <c r="B8348" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8348" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8349">
+      <c r="A8349" s="6" t="n">
+        <v>44884.916666666664</v>
+      </c>
+      <c r="B8349" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8349" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8350">
+      <c r="A8350" s="6" t="n">
+        <v>44884.927083333336</v>
+      </c>
+      <c r="B8350" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8350" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8351">
+      <c r="A8351" s="6" t="n">
+        <v>44884.9375</v>
+      </c>
+      <c r="B8351" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8351" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8352">
+      <c r="A8352" s="6" t="n">
+        <v>44884.947916666664</v>
+      </c>
+      <c r="B8352" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8352" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8353">
+      <c r="A8353" s="6" t="n">
+        <v>44884.958333333336</v>
+      </c>
+      <c r="B8353" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C8353" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8354">
+      <c r="A8354" s="6" t="n">
+        <v>44884.96875</v>
+      </c>
+      <c r="B8354" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8354" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8355">
+      <c r="A8355" s="6" t="n">
+        <v>44884.979166666664</v>
+      </c>
+      <c r="B8355" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8355" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8356">
+      <c r="A8356" s="6" t="n">
+        <v>44884.989583333336</v>
+      </c>
+      <c r="B8356" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8356" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8357">
+      <c r="A8357" s="6" t="n">
+        <v>44885.0</v>
+      </c>
+      <c r="B8357" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8357" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8358">
+      <c r="A8358" s="6" t="n">
+        <v>44885.010416666664</v>
+      </c>
+      <c r="B8358" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8358" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8359">
+      <c r="A8359" s="6" t="n">
+        <v>44885.020833333336</v>
+      </c>
+      <c r="B8359" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8359" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8360">
+      <c r="A8360" s="6" t="n">
+        <v>44885.03125</v>
+      </c>
+      <c r="B8360" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8360" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8361">
+      <c r="A8361" s="6" t="n">
+        <v>44885.041666666664</v>
+      </c>
+      <c r="B8361" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8361" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8362">
+      <c r="A8362" s="6" t="n">
+        <v>44885.052083333336</v>
+      </c>
+      <c r="B8362" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8362" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8363">
+      <c r="A8363" s="6" t="n">
+        <v>44885.0625</v>
+      </c>
+      <c r="B8363" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8363" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8364">
+      <c r="A8364" s="6" t="n">
+        <v>44885.072916666664</v>
+      </c>
+      <c r="B8364" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8364" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8365">
+      <c r="A8365" s="6" t="n">
+        <v>44885.083333333336</v>
+      </c>
+      <c r="B8365" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8365" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8366">
+      <c r="A8366" s="6" t="n">
+        <v>44885.09375</v>
+      </c>
+      <c r="B8366" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8366" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8367">
+      <c r="A8367" s="6" t="n">
+        <v>44885.104166666664</v>
+      </c>
+      <c r="B8367" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8367" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8368">
+      <c r="A8368" s="6" t="n">
+        <v>44885.114583333336</v>
+      </c>
+      <c r="B8368" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8368" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8369">
+      <c r="A8369" s="6" t="n">
+        <v>44885.125</v>
+      </c>
+      <c r="B8369" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8369" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8370">
+      <c r="A8370" s="6" t="n">
+        <v>44885.135416666664</v>
+      </c>
+      <c r="B8370" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8370" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8371">
+      <c r="A8371" s="6" t="n">
+        <v>44885.145833333336</v>
+      </c>
+      <c r="B8371" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8371" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8372">
+      <c r="A8372" s="6" t="n">
+        <v>44885.15625</v>
+      </c>
+      <c r="B8372" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8372" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8373">
+      <c r="A8373" s="6" t="n">
+        <v>44885.166666666664</v>
+      </c>
+      <c r="B8373" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8373" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8374">
+      <c r="A8374" s="6" t="n">
+        <v>44885.177083333336</v>
+      </c>
+      <c r="B8374" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8374" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8375">
+      <c r="A8375" s="6" t="n">
+        <v>44885.1875</v>
+      </c>
+      <c r="B8375" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8375" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8376">
+      <c r="A8376" s="6" t="n">
+        <v>44885.197916666664</v>
+      </c>
+      <c r="B8376" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8376" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8377">
+      <c r="A8377" s="6" t="n">
+        <v>44885.208333333336</v>
+      </c>
+      <c r="B8377" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8377" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8378">
+      <c r="A8378" s="6" t="n">
+        <v>44885.21875</v>
+      </c>
+      <c r="B8378" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8378" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8379">
+      <c r="A8379" s="6" t="n">
+        <v>44885.229166666664</v>
+      </c>
+      <c r="B8379" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8379" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8380">
+      <c r="A8380" s="6" t="n">
+        <v>44885.239583333336</v>
+      </c>
+      <c r="B8380" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8380" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8381">
+      <c r="A8381" s="6" t="n">
+        <v>44885.25</v>
+      </c>
+      <c r="B8381" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8381" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8382">
+      <c r="A8382" s="6" t="n">
+        <v>44885.260416666664</v>
+      </c>
+      <c r="B8382" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8382" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8383">
+      <c r="A8383" s="6" t="n">
+        <v>44885.270833333336</v>
+      </c>
+      <c r="B8383" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8383" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8384">
+      <c r="A8384" s="6" t="n">
+        <v>44885.28125</v>
+      </c>
+      <c r="B8384" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8384" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8385">
+      <c r="A8385" s="6" t="n">
+        <v>44885.291666666664</v>
+      </c>
+      <c r="B8385" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8385" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8386">
+      <c r="A8386" s="6" t="n">
+        <v>44885.302083333336</v>
+      </c>
+      <c r="B8386" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8386" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8387">
+      <c r="A8387" s="6" t="n">
+        <v>44885.3125</v>
+      </c>
+      <c r="B8387" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8387" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8388">
+      <c r="A8388" s="6" t="n">
+        <v>44885.322916666664</v>
+      </c>
+      <c r="B8388" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8388" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8389">
+      <c r="A8389" s="6" t="n">
+        <v>44885.333333333336</v>
+      </c>
+      <c r="B8389" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8389" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8390">
+      <c r="A8390" s="6" t="n">
+        <v>44885.34375</v>
+      </c>
+      <c r="B8390" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8390" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8391">
+      <c r="A8391" s="6" t="n">
+        <v>44885.354166666664</v>
+      </c>
+      <c r="B8391" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8391" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8392">
+      <c r="A8392" s="6" t="n">
+        <v>44885.364583333336</v>
+      </c>
+      <c r="B8392" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8392" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8393">
+      <c r="A8393" s="6" t="n">
+        <v>44885.375</v>
+      </c>
+      <c r="B8393" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8393" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8394">
+      <c r="A8394" s="6" t="n">
+        <v>44885.385416666664</v>
+      </c>
+      <c r="B8394" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8394" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8395">
+      <c r="A8395" s="6" t="n">
+        <v>44885.395833333336</v>
+      </c>
+      <c r="B8395" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8395" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8396">
+      <c r="A8396" s="6" t="n">
+        <v>44885.40625</v>
+      </c>
+      <c r="B8396" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8396" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8397">
+      <c r="A8397" s="6" t="n">
+        <v>44885.416666666664</v>
+      </c>
+      <c r="B8397" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8397" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8398">
+      <c r="A8398" s="6" t="n">
+        <v>44885.427083333336</v>
+      </c>
+      <c r="B8398" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8398" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8399">
+      <c r="A8399" s="6" t="n">
+        <v>44885.4375</v>
+      </c>
+      <c r="B8399" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8399" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8400">
+      <c r="A8400" s="6" t="n">
+        <v>44885.447916666664</v>
+      </c>
+      <c r="B8400" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8400" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8401">
+      <c r="A8401" s="6" t="n">
+        <v>44885.458333333336</v>
+      </c>
+      <c r="B8401" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8401" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8402">
+      <c r="A8402" s="6" t="n">
+        <v>44885.46875</v>
+      </c>
+      <c r="B8402" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8402" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8403">
+      <c r="A8403" s="6" t="n">
+        <v>44885.479166666664</v>
+      </c>
+      <c r="B8403" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8403" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8404">
+      <c r="A8404" s="6" t="n">
+        <v>44885.489583333336</v>
+      </c>
+      <c r="B8404" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8404" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8405">
+      <c r="A8405" s="6" t="n">
+        <v>44885.5</v>
+      </c>
+      <c r="B8405" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8405" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8406">
+      <c r="A8406" s="6" t="n">
+        <v>44885.510416666664</v>
+      </c>
+      <c r="B8406" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8406" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8407">
+      <c r="A8407" s="6" t="n">
+        <v>44885.520833333336</v>
+      </c>
+      <c r="B8407" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8407" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8408">
+      <c r="A8408" s="6" t="n">
+        <v>44885.53125</v>
+      </c>
+      <c r="B8408" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8408" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8409">
+      <c r="A8409" s="6" t="n">
+        <v>44885.541666666664</v>
+      </c>
+      <c r="B8409" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8409" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8410">
+      <c r="A8410" s="6" t="n">
+        <v>44885.552083333336</v>
+      </c>
+      <c r="B8410" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8410" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8411">
+      <c r="A8411" s="6" t="n">
+        <v>44885.5625</v>
+      </c>
+      <c r="B8411" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8411" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8412">
+      <c r="A8412" s="6" t="n">
+        <v>44885.572916666664</v>
+      </c>
+      <c r="B8412" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8412" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8413">
+      <c r="A8413" s="6" t="n">
+        <v>44885.583333333336</v>
+      </c>
+      <c r="B8413" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8413" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8414">
+      <c r="A8414" s="6" t="n">
+        <v>44885.59375</v>
+      </c>
+      <c r="B8414" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8414" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8415">
+      <c r="A8415" s="6" t="n">
+        <v>44885.604166666664</v>
+      </c>
+      <c r="B8415" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8415" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8416">
+      <c r="A8416" s="6" t="n">
+        <v>44885.614583333336</v>
+      </c>
+      <c r="B8416" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8416" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8417">
+      <c r="A8417" s="6" t="n">
+        <v>44885.625</v>
+      </c>
+      <c r="B8417" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8417" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8418">
+      <c r="A8418" s="6" t="n">
+        <v>44885.635416666664</v>
+      </c>
+      <c r="B8418" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8418" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8419">
+      <c r="A8419" s="6" t="n">
+        <v>44885.645833333336</v>
+      </c>
+      <c r="B8419" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8419" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8420">
+      <c r="A8420" s="6" t="n">
+        <v>44885.65625</v>
+      </c>
+      <c r="B8420" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8420" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8421">
+      <c r="A8421" s="6" t="n">
+        <v>44885.666666666664</v>
+      </c>
+      <c r="B8421" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8421" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8422">
+      <c r="A8422" s="6" t="n">
+        <v>44885.677083333336</v>
+      </c>
+      <c r="B8422" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8422" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8423">
+      <c r="A8423" s="6" t="n">
+        <v>44885.6875</v>
+      </c>
+      <c r="B8423" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8423" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8424">
+      <c r="A8424" s="6" t="n">
+        <v>44885.697916666664</v>
+      </c>
+      <c r="B8424" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8424" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8425">
+      <c r="A8425" s="6" t="n">
+        <v>44885.708333333336</v>
+      </c>
+      <c r="B8425" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8425" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8426">
+      <c r="A8426" s="6" t="n">
+        <v>44885.71875</v>
+      </c>
+      <c r="B8426" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8426" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8427">
+      <c r="A8427" s="6" t="n">
+        <v>44885.729166666664</v>
+      </c>
+      <c r="B8427" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8427" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8428">
+      <c r="A8428" s="6" t="n">
+        <v>44885.739583333336</v>
+      </c>
+      <c r="B8428" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8428" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8429">
+      <c r="A8429" s="6" t="n">
+        <v>44885.75</v>
+      </c>
+      <c r="B8429" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8429" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8430">
+      <c r="A8430" s="6" t="n">
+        <v>44885.760416666664</v>
+      </c>
+      <c r="B8430" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8430" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8431">
+      <c r="A8431" s="6" t="n">
+        <v>44885.770833333336</v>
+      </c>
+      <c r="B8431" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8431" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8432">
+      <c r="A8432" s="6" t="n">
+        <v>44885.78125</v>
+      </c>
+      <c r="B8432" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8432" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8433">
+      <c r="A8433" s="6" t="n">
+        <v>44885.791666666664</v>
+      </c>
+      <c r="B8433" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8433" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8434">
+      <c r="A8434" s="6" t="n">
+        <v>44885.802083333336</v>
+      </c>
+      <c r="B8434" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8434" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8435">
+      <c r="A8435" s="6" t="n">
+        <v>44885.8125</v>
+      </c>
+      <c r="B8435" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8435" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8436">
+      <c r="A8436" s="6" t="n">
+        <v>44885.822916666664</v>
+      </c>
+      <c r="B8436" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8436" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8437">
+      <c r="A8437" s="6" t="n">
+        <v>44885.833333333336</v>
+      </c>
+      <c r="B8437" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8437" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8438">
+      <c r="A8438" s="6" t="n">
+        <v>44885.84375</v>
+      </c>
+      <c r="B8438" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8438" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8439">
+      <c r="A8439" s="6" t="n">
+        <v>44885.854166666664</v>
+      </c>
+      <c r="B8439" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8439" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8440">
+      <c r="A8440" s="6" t="n">
+        <v>44885.864583333336</v>
+      </c>
+      <c r="B8440" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8440" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8441">
+      <c r="A8441" s="6" t="n">
+        <v>44885.875</v>
+      </c>
+      <c r="B8441" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8441" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8442">
+      <c r="A8442" s="6" t="n">
+        <v>44885.885416666664</v>
+      </c>
+      <c r="B8442" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8442" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8443">
+      <c r="A8443" s="6" t="n">
+        <v>44885.895833333336</v>
+      </c>
+      <c r="B8443" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8443" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8444">
+      <c r="A8444" s="6" t="n">
+        <v>44885.90625</v>
+      </c>
+      <c r="B8444" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8444" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8445">
+      <c r="A8445" s="6" t="n">
+        <v>44885.916666666664</v>
+      </c>
+      <c r="B8445" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8445" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8446">
+      <c r="A8446" s="6" t="n">
+        <v>44885.927083333336</v>
+      </c>
+      <c r="B8446" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8446" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8447">
+      <c r="A8447" s="6" t="n">
+        <v>44885.9375</v>
+      </c>
+      <c r="B8447" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8447" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8448">
+      <c r="A8448" s="6" t="n">
+        <v>44885.947916666664</v>
+      </c>
+      <c r="B8448" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8448" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8449">
+      <c r="A8449" s="6" t="n">
+        <v>44885.958333333336</v>
+      </c>
+      <c r="B8449" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8449" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8450">
+      <c r="A8450" s="6" t="n">
+        <v>44885.96875</v>
+      </c>
+      <c r="B8450" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8450" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8451">
+      <c r="A8451" s="6" t="n">
+        <v>44885.979166666664</v>
+      </c>
+      <c r="B8451" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8451" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8452">
+      <c r="A8452" s="6" t="n">
+        <v>44885.989583333336</v>
+      </c>
+      <c r="B8452" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8452" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
